--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.6999999999999957</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>71.42857142857186</v>
+      </c>
       <c r="L12" t="n">
         <v>23.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>23.56</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
       <c r="L14" t="n">
         <v>23.63</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>23.77</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>26.31578947368423</v>
+      </c>
       <c r="L16" t="n">
         <v>23.83</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.899999999999995</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>46.15384615384616</v>
+      </c>
       <c r="L17" t="n">
         <v>23.95</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.999999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>48.14814814814819</v>
+      </c>
       <c r="L18" t="n">
         <v>24.08</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.999999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>46.15384615384616</v>
+      </c>
       <c r="L19" t="n">
         <v>24.21</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.999999999999996</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>46.15384615384616</v>
+      </c>
       <c r="L20" t="n">
         <v>24.33000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.499999999999996</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.28571428571436</v>
+      </c>
       <c r="L21" t="n">
         <v>24.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.999999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-6.24999999999998</v>
+      </c>
       <c r="L22" t="n">
         <v>24.39</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>20.00000000000006</v>
+        <v>8.10810810810813</v>
       </c>
       <c r="L23" t="n">
         <v>24.42</v>
@@ -1466,7 +1488,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K24" t="n">
-        <v>19.99999999999997</v>
+        <v>-16.12903225806451</v>
       </c>
       <c r="L24" t="n">
         <v>24.44</v>
@@ -1515,7 +1537,7 @@
         <v>5.199999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>29.41176470588234</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="L25" t="n">
         <v>24.45</v>
@@ -1564,7 +1586,7 @@
         <v>5.199999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>28.00000000000002</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L26" t="n">
         <v>24.53</v>
@@ -1613,7 +1635,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.060606060606037</v>
+        <v>-43.58974358974355</v>
       </c>
       <c r="L27" t="n">
         <v>24.37</v>
@@ -1662,7 +1684,7 @@
         <v>7.899999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>7.894736842105281</v>
+        <v>-14.28571428571427</v>
       </c>
       <c r="L28" t="n">
         <v>24.3</v>
@@ -1711,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>6.493506493506492</v>
+        <v>-16</v>
       </c>
       <c r="L29" t="n">
         <v>24.22000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>13.25301204819274</v>
+        <v>7.692307692307661</v>
       </c>
       <c r="L30" t="n">
         <v>24.21</v>
@@ -1809,7 +1831,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K31" t="n">
-        <v>11.90476190476191</v>
+        <v>16.66666666666668</v>
       </c>
       <c r="L31" t="n">
         <v>24.24</v>
@@ -1860,7 +1882,7 @@
         <v>9.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-8.000000000000037</v>
       </c>
       <c r="L32" t="n">
         <v>24.25</v>
@@ -1911,7 +1933,7 @@
         <v>9.5</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.149425287356338</v>
+        <v>-6.122448979591848</v>
       </c>
       <c r="L33" t="n">
         <v>24.21</v>
@@ -1962,7 +1984,7 @@
         <v>9.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.149425287356338</v>
+        <v>-20.93023255813958</v>
       </c>
       <c r="L34" t="n">
         <v>24.18</v>
@@ -2013,7 +2035,7 @@
         <v>9.599999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>-11.11111111111109</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L35" t="n">
         <v>24.07999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>9.599999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.702702702702692</v>
+        <v>25.92592592592591</v>
       </c>
       <c r="L36" t="n">
         <v>23.98</v>
@@ -2115,7 +2137,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.70588235294117</v>
+        <v>-22.22222222222233</v>
       </c>
       <c r="L37" t="n">
         <v>24.04</v>
@@ -2166,7 +2188,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-18.84057971014493</v>
+        <v>-26.31578947368423</v>
       </c>
       <c r="L38" t="n">
         <v>23.98</v>
@@ -2217,7 +2239,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-18.84057971014493</v>
+        <v>-100</v>
       </c>
       <c r="L39" t="n">
         <v>23.93</v>
@@ -2268,7 +2290,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-18.84057971014493</v>
+        <v>-100</v>
       </c>
       <c r="L40" t="n">
         <v>23.81</v>
@@ -2319,7 +2341,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.50000000000001</v>
+        <v>-100</v>
       </c>
       <c r="L41" t="n">
         <v>23.7</v>
@@ -2370,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.333333333333319</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L42" t="n">
         <v>23.66999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>10.3</v>
       </c>
       <c r="K43" t="n">
-        <v>-6.896551724137967</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>23.66999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>10.3</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.263157894736855</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L44" t="n">
         <v>23.66999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>10.3</v>
       </c>
       <c r="K45" t="n">
-        <v>-17.64705882352946</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L45" t="n">
         <v>23.68</v>
@@ -2574,7 +2596,7 @@
         <v>10.5</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.20754716981131</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L46" t="n">
         <v>23.71</v>
@@ -2625,7 +2647,7 @@
         <v>10.8</v>
       </c>
       <c r="K47" t="n">
-        <v>33.33333333333327</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>23.77999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>10.9</v>
       </c>
       <c r="K48" t="n">
-        <v>6.666666666666651</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L48" t="n">
         <v>23.86</v>
@@ -2727,7 +2749,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>13.33333333333332</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L49" t="n">
         <v>23.95</v>
@@ -2778,7 +2800,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-13.04347826086963</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L50" t="n">
         <v>24.03999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.04347826086963</v>
+        <v>63.6363636363641</v>
       </c>
       <c r="L51" t="n">
         <v>24.11999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>25.00000000000028</v>
+        <v>50.00000000000067</v>
       </c>
       <c r="L52" t="n">
         <v>24.18999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>25.00000000000028</v>
+        <v>50.00000000000067</v>
       </c>
       <c r="L53" t="n">
         <v>24.22999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>33.3333333333336</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L54" t="n">
         <v>24.29</v>
@@ -3033,7 +3055,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>41.17647058823544</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L55" t="n">
         <v>24.35</v>
@@ -3084,7 +3106,7 @@
         <v>11.39999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>44.44444444444464</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L56" t="n">
         <v>24.4</v>
@@ -3135,7 +3157,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>55.55555555555586</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L57" t="n">
         <v>24.43</v>
@@ -3186,7 +3208,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>75.00000000000038</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L58" t="n">
         <v>24.47</v>
@@ -3237,7 +3259,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>75.00000000000038</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L59" t="n">
         <v>24.5</v>
@@ -3288,7 +3310,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>75.00000000000038</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
         <v>24.53</v>
@@ -3339,7 +3361,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>64.70588235294169</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L61" t="n">
         <v>24.56</v>
@@ -3390,7 +3412,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>62.5000000000005</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L62" t="n">
         <v>24.59</v>
@@ -3441,7 +3463,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>53.84615384615448</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L63" t="n">
         <v>24.62</v>
@@ -3492,7 +3514,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>-16.66666666666666</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L64" t="n">
         <v>24.52</v>
@@ -3543,7 +3565,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>20.00000000000012</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>24.53</v>
@@ -3594,7 +3616,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>15.1515151515152</v>
+        <v>-4.347826086956428</v>
       </c>
       <c r="L66" t="n">
         <v>24.53</v>
@@ -3645,7 +3667,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>9.677419354838761</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>24.53000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>14.29999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L68" t="n">
         <v>24.49000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>8.108108108108144</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>24.49000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>8.108108108108144</v>
+        <v>3.225806451612836</v>
       </c>
       <c r="L70" t="n">
         <v>24.49000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>-14.89361702127661</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L71" t="n">
         <v>24.39000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>6.896551724137918</v>
+        <v>1.886792452830151</v>
       </c>
       <c r="L72" t="n">
         <v>24.40000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>6.896551724137918</v>
+        <v>28.57142857142861</v>
       </c>
       <c r="L73" t="n">
         <v>24.41000000000002</v>
@@ -4002,7 +4024,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>3.571428571428564</v>
+        <v>3.225806451612844</v>
       </c>
       <c r="L74" t="n">
         <v>24.53000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>3.571428571428564</v>
+        <v>3.225806451612844</v>
       </c>
       <c r="L75" t="n">
         <v>24.54000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>17.09999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>5.263157894736803</v>
+        <v>6.249999999999993</v>
       </c>
       <c r="L76" t="n">
         <v>24.57000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>17.19999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>5.263157894736862</v>
+        <v>24.13793103448278</v>
       </c>
       <c r="L77" t="n">
         <v>24.60000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>3.448275862068957</v>
+        <v>7.692307692307672</v>
       </c>
       <c r="L78" t="n">
         <v>24.66000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>17.39999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>5.084745762711881</v>
+        <v>11.11111111111114</v>
       </c>
       <c r="L79" t="n">
         <v>24.69000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>17.39999999999998</v>
       </c>
       <c r="K80" t="n">
-        <v>5.084745762711881</v>
+        <v>87.49999999999983</v>
       </c>
       <c r="L80" t="n">
         <v>24.72000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>17.39999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>6.89655172413791</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L81" t="n">
         <v>24.86000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K82" t="n">
-        <v>9.99999999999997</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L82" t="n">
         <v>24.91000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>9.99999999999997</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L83" t="n">
         <v>24.96000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>34.69387755102043</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L84" t="n">
         <v>25.01000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>17.94871794871796</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="L85" t="n">
         <v>25.07000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>17.79999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>19.99999999999996</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L86" t="n">
         <v>25.12000000000002</v>
@@ -4665,7 +4687,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>15.00000000000006</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L87" t="n">
         <v>25.15000000000002</v>
@@ -4716,7 +4738,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>27.77777777777782</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L88" t="n">
         <v>25.19000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>17.99999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>15.15151515151517</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>25.21000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>18.09999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>17.64705882352946</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L90" t="n">
         <v>25.24000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>18.09999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>73.91304347826082</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L91" t="n">
         <v>25.27000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>28.57142857142868</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L92" t="n">
         <v>25.26000000000003</v>
@@ -4971,7 +4993,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>25.26000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>18.49999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>25.00000000000017</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L94" t="n">
         <v>25.25000000000003</v>
@@ -5073,7 +5095,7 @@
         <v>18.49999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>25.00000000000017</v>
+        <v>-42.85714285714271</v>
       </c>
       <c r="L95" t="n">
         <v>25.23000000000003</v>
@@ -5124,7 +5146,7 @@
         <v>18.59999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>20.0000000000001</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L96" t="n">
         <v>25.21000000000003</v>
@@ -5175,7 +5197,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K97" t="n">
-        <v>6.666666666666793</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L97" t="n">
         <v>25.19000000000003</v>
@@ -5226,7 +5248,7 @@
         <v>18.79999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>20.00000000000019</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>25.18000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>18.99999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L99" t="n">
         <v>25.16000000000003</v>
@@ -5328,7 +5350,7 @@
         <v>18.99999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L100" t="n">
         <v>25.13000000000002</v>
@@ -5379,7 +5401,7 @@
         <v>19.09999999999997</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.882352941176594</v>
+        <v>-25.00000000000067</v>
       </c>
       <c r="L101" t="n">
         <v>25.09000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K102" t="n">
-        <v>-25.00000000000011</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L102" t="n">
         <v>25.06000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>19.49999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>-5.263157894736763</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>25.05000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K104" t="n">
-        <v>-10.00000000000002</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L104" t="n">
         <v>25.04000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>19.69999999999997</v>
       </c>
       <c r="K105" t="n">
-        <v>-10.00000000000002</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L105" t="n">
         <v>25.04000000000002</v>
@@ -5634,7 +5656,7 @@
         <v>19.79999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-20</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L106" t="n">
         <v>25.02000000000002</v>
@@ -5685,7 +5707,7 @@
         <v>19.89999999999998</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.999999999999982</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L107" t="n">
         <v>25.02000000000002</v>
@@ -5736,7 +5758,7 @@
         <v>19.99999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>-14.28571428571433</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>25.00000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>19.99999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>-9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>25.00000000000003</v>
@@ -5838,7 +5860,7 @@
         <v>20.09999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.999999999999982</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L110" t="n">
         <v>25.01000000000003</v>
@@ -5889,7 +5911,7 @@
         <v>20.19999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>-14.28571428571433</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L111" t="n">
         <v>25.02000000000003</v>
@@ -5940,7 +5962,7 @@
         <v>20.29999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>-10.00000000000014</v>
+        <v>-25</v>
       </c>
       <c r="L112" t="n">
         <v>25.03000000000003</v>
@@ -5991,7 +6013,7 @@
         <v>20.29999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>-15.78947368421055</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>25.01000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>-5.263157894736901</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>25.01000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>20.59999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571428</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L115" t="n">
         <v>24.98000000000003</v>
@@ -6144,7 +6166,7 @@
         <v>20.59999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>-19.99999999999986</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L116" t="n">
         <v>24.96000000000003</v>
@@ -6195,7 +6217,7 @@
         <v>20.69999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>-10.00000000000011</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L117" t="n">
         <v>24.94000000000002</v>
@@ -6246,7 +6268,7 @@
         <v>20.89999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>-23.80952380952371</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>24.91000000000003</v>
@@ -6297,7 +6319,7 @@
         <v>20.99999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.999999999999911</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>24.89000000000003</v>
@@ -6348,7 +6370,7 @@
         <v>20.99999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>-9.999999999999911</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L120" t="n">
         <v>24.86000000000003</v>
@@ -6399,7 +6421,7 @@
         <v>21.09999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>-9.999999999999911</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L121" t="n">
         <v>24.83000000000003</v>
@@ -6450,7 +6472,7 @@
         <v>21.29999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.28571428571424</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L122" t="n">
         <v>24.79000000000003</v>
@@ -6501,7 +6523,7 @@
         <v>21.29999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>-33.3333333333332</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L123" t="n">
         <v>24.75000000000003</v>
@@ -6552,7 +6574,7 @@
         <v>21.39999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>-33.3333333333332</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L124" t="n">
         <v>24.69000000000003</v>
@@ -6603,7 +6625,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>-44.44444444444429</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L125" t="n">
         <v>24.64000000000003</v>
@@ -6654,7 +6676,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>-41.1764705882351</v>
+        <v>-74.99999999999967</v>
       </c>
       <c r="L126" t="n">
         <v>24.59000000000003</v>
@@ -6705,7 +6727,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>-49.99999999999989</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L127" t="n">
         <v>24.53000000000003</v>
@@ -6756,7 +6778,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K128" t="n">
-        <v>-46.66666666666651</v>
+        <v>-100</v>
       </c>
       <c r="L128" t="n">
         <v>24.49000000000003</v>
@@ -6807,7 +6829,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K129" t="n">
-        <v>-46.66666666666651</v>
+        <v>-100</v>
       </c>
       <c r="L129" t="n">
         <v>24.44000000000003</v>
@@ -6858,7 +6880,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>-57.1428571428571</v>
+        <v>-100</v>
       </c>
       <c r="L130" t="n">
         <v>24.39000000000003</v>
@@ -6909,7 +6931,7 @@
         <v>21.59999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>-57.1428571428571</v>
+        <v>-100</v>
       </c>
       <c r="L131" t="n">
         <v>24.34000000000003</v>
@@ -6960,7 +6982,7 @@
         <v>21.69999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-42.85714285714264</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L132" t="n">
         <v>24.32000000000003</v>
@@ -7011,7 +7033,7 @@
         <v>21.99999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-17.64705882352921</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L133" t="n">
         <v>24.33000000000003</v>
@@ -7062,7 +7084,7 @@
         <v>22.19999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L134" t="n">
         <v>24.33000000000003</v>
@@ -7113,7 +7135,7 @@
         <v>22.29999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-29.41176470588231</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>24.33000000000003</v>
@@ -7164,7 +7186,7 @@
         <v>22.39999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L136" t="n">
         <v>24.32000000000003</v>
@@ -7215,7 +7237,7 @@
         <v>22.69999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-19.99999999999986</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L137" t="n">
         <v>24.34000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>22.89999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>24.34000000000002</v>
@@ -7317,7 +7339,7 @@
         <v>22.99999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-20.00000000000007</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L139" t="n">
         <v>24.35000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>22.99999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>-20.00000000000007</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L140" t="n">
         <v>24.36000000000002</v>
@@ -7419,7 +7441,7 @@
         <v>23.09999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>-19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>24.37000000000002</v>
@@ -7470,7 +7492,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L142" t="n">
         <v>24.39000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L143" t="n">
         <v>24.38000000000002</v>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S143"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,21 @@
         <v>23.08999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +492,21 @@
         <v>23.09166666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,21 @@
         <v>23.08999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09999999999999787</v>
+        <v>23.3</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +574,21 @@
         <v>23.08999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09999999999999787</v>
+        <v>23.3</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,21 @@
         <v>23.09999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1999999999999957</v>
+        <v>23.3</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +656,21 @@
         <v>23.10833333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2999999999999972</v>
+        <v>23.4</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +697,21 @@
         <v>23.11666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2999999999999972</v>
+        <v>23.5</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +738,21 @@
         <v>23.12666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2999999999999972</v>
+        <v>23.5</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +779,21 @@
         <v>23.13666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3999999999999986</v>
+        <v>23.5</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +823,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +862,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6999999999999957</v>
-      </c>
-      <c r="K12" t="n">
-        <v>71.42857142857186</v>
-      </c>
-      <c r="L12" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +901,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>23.56</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +940,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L14" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +979,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.499999999999996</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1018,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K16" t="n">
-        <v>26.31578947368423</v>
-      </c>
-      <c r="L16" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1057,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.899999999999995</v>
-      </c>
-      <c r="K17" t="n">
-        <v>46.15384615384616</v>
-      </c>
-      <c r="L17" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1096,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.999999999999996</v>
-      </c>
-      <c r="K18" t="n">
-        <v>48.14814814814819</v>
-      </c>
-      <c r="L18" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1135,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.999999999999996</v>
-      </c>
-      <c r="K19" t="n">
-        <v>46.15384615384616</v>
-      </c>
-      <c r="L19" t="n">
-        <v>24.21</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1174,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.999999999999996</v>
-      </c>
-      <c r="K20" t="n">
-        <v>46.15384615384616</v>
-      </c>
-      <c r="L20" t="n">
-        <v>24.33000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1213,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.499999999999996</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14.28571428571436</v>
-      </c>
-      <c r="L21" t="n">
-        <v>24.4</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>23.925</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,28 +1252,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.999999999999996</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-6.24999999999998</v>
-      </c>
-      <c r="L22" t="n">
-        <v>24.39</v>
-      </c>
-      <c r="M22" t="n">
-        <v>23.945</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1433,26 +1289,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.499999999999996</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.10810810810813</v>
-      </c>
-      <c r="L23" t="n">
-        <v>24.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>23.99</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1324,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.599999999999998</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-16.12903225806451</v>
-      </c>
-      <c r="L24" t="n">
-        <v>24.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>24.035</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1359,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.199999999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>26.66666666666666</v>
-      </c>
-      <c r="L25" t="n">
-        <v>24.45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>24.11</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1394,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.199999999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.347826086956576</v>
-      </c>
-      <c r="L26" t="n">
-        <v>24.53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1429,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6.899999999999999</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-43.58974358974355</v>
-      </c>
-      <c r="L27" t="n">
-        <v>24.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>24.16</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1464,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.899999999999999</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-14.28571428571427</v>
-      </c>
-      <c r="L28" t="n">
-        <v>24.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1499,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-16</v>
-      </c>
-      <c r="L29" t="n">
-        <v>24.22000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>24.21500000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1534,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J30" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>7.692307692307661</v>
-      </c>
-      <c r="L30" t="n">
-        <v>24.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1569,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J31" t="n">
-        <v>8.799999999999997</v>
-      </c>
-      <c r="K31" t="n">
-        <v>16.66666666666668</v>
-      </c>
-      <c r="L31" t="n">
-        <v>24.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="N31" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1604,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-8.000000000000037</v>
-      </c>
-      <c r="L32" t="n">
-        <v>24.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="N32" t="n">
-        <v>24.04666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1639,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-6.122448979591848</v>
-      </c>
-      <c r="L33" t="n">
-        <v>24.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>24.315</v>
-      </c>
-      <c r="N33" t="n">
-        <v>24.06333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1674,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-20.93023255813958</v>
-      </c>
-      <c r="L34" t="n">
-        <v>24.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="N34" t="n">
-        <v>24.08333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1709,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J35" t="n">
-        <v>9.599999999999998</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-22.72727272727273</v>
-      </c>
-      <c r="L35" t="n">
-        <v>24.07999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>24.265</v>
-      </c>
-      <c r="N35" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1744,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9.599999999999998</v>
-      </c>
-      <c r="K36" t="n">
-        <v>25.92592592592591</v>
-      </c>
-      <c r="L36" t="n">
-        <v>23.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>24.255</v>
-      </c>
-      <c r="N36" t="n">
-        <v>24.11333333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1779,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-22.22222222222233</v>
-      </c>
-      <c r="L37" t="n">
-        <v>24.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>24.20500000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>24.12</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1814,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J38" t="n">
-        <v>9.899999999999999</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-26.31578947368423</v>
-      </c>
-      <c r="L38" t="n">
-        <v>23.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="N38" t="n">
-        <v>24.12</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1849,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9.899999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L39" t="n">
-        <v>23.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>24.075</v>
-      </c>
-      <c r="N39" t="n">
-        <v>24.12</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1884,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9.899999999999999</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L40" t="n">
-        <v>23.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>24.01</v>
-      </c>
-      <c r="N40" t="n">
-        <v>24.11666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1919,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9.899999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L41" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="N41" t="n">
-        <v>24.11333333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1954,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J42" t="n">
-        <v>10</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-59.99999999999943</v>
-      </c>
-      <c r="L42" t="n">
-        <v>23.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="N42" t="n">
-        <v>24.10333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1989,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>23.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="N43" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2024,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="L44" t="n">
-        <v>23.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>23.925</v>
-      </c>
-      <c r="N44" t="n">
-        <v>24.09666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2059,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="L45" t="n">
-        <v>23.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="N45" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2094,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L46" t="n">
-        <v>23.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>23.845</v>
-      </c>
-      <c r="N46" t="n">
-        <v>24.07333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2129,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>100</v>
-      </c>
-      <c r="L47" t="n">
-        <v>23.77999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>23.91</v>
-      </c>
-      <c r="N47" t="n">
-        <v>24.06333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2164,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J48" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>80.00000000000036</v>
-      </c>
-      <c r="L48" t="n">
-        <v>23.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>23.91999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>24.04666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2199,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>10.99999999999999</v>
-      </c>
-      <c r="K49" t="n">
-        <v>81.81818181818211</v>
-      </c>
-      <c r="L49" t="n">
-        <v>23.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>23.93999999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>24.03333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2234,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>10.99999999999999</v>
-      </c>
-      <c r="K50" t="n">
-        <v>81.81818181818211</v>
-      </c>
-      <c r="L50" t="n">
-        <v>24.03999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>23.92499999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2269,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J51" t="n">
-        <v>11.09999999999999</v>
-      </c>
-      <c r="K51" t="n">
-        <v>63.6363636363641</v>
-      </c>
-      <c r="L51" t="n">
-        <v>24.11999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>23.90999999999999</v>
-      </c>
-      <c r="N51" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2304,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11.09999999999999</v>
-      </c>
-      <c r="K52" t="n">
-        <v>50.00000000000067</v>
-      </c>
-      <c r="L52" t="n">
-        <v>24.18999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>23.93</v>
-      </c>
-      <c r="N52" t="n">
-        <v>24.03666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2339,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J53" t="n">
-        <v>11.09999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>50.00000000000067</v>
-      </c>
-      <c r="L53" t="n">
-        <v>24.22999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="N53" t="n">
-        <v>24.03666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2374,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J54" t="n">
-        <v>11.29999999999999</v>
-      </c>
-      <c r="K54" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L54" t="n">
-        <v>24.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="N54" t="n">
-        <v>24.04666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2409,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.29999999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>50.00000000000044</v>
-      </c>
-      <c r="L55" t="n">
-        <v>24.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>24.015</v>
-      </c>
-      <c r="N55" t="n">
-        <v>24.03666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2444,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.39999999999999</v>
-      </c>
-      <c r="K56" t="n">
-        <v>33.33333333333412</v>
-      </c>
-      <c r="L56" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>24.055</v>
-      </c>
-      <c r="N56" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2479,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.49999999999999</v>
-      </c>
-      <c r="K57" t="n">
-        <v>66.66666666666707</v>
-      </c>
-      <c r="L57" t="n">
-        <v>24.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>24.105</v>
-      </c>
-      <c r="N57" t="n">
-        <v>24.08333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2514,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.49999999999999</v>
-      </c>
-      <c r="K58" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L58" t="n">
-        <v>24.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>24.165</v>
-      </c>
-      <c r="N58" t="n">
-        <v>24.10333333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2549,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.49999999999999</v>
-      </c>
-      <c r="K59" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L59" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>24.225</v>
-      </c>
-      <c r="N59" t="n">
-        <v>24.12666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2584,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.49999999999999</v>
-      </c>
-      <c r="K60" t="n">
-        <v>100</v>
-      </c>
-      <c r="L60" t="n">
-        <v>24.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>24.285</v>
-      </c>
-      <c r="N60" t="n">
-        <v>24.12666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2619,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.59999999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L61" t="n">
-        <v>24.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>24.34</v>
-      </c>
-      <c r="N61" t="n">
-        <v>24.12666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2654,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.59999999999999</v>
-      </c>
-      <c r="K62" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L62" t="n">
-        <v>24.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>24.39</v>
-      </c>
-      <c r="N62" t="n">
-        <v>24.15000000000001</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2689,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.59999999999999</v>
-      </c>
-      <c r="K63" t="n">
-        <v>33.33333333333412</v>
-      </c>
-      <c r="L63" t="n">
-        <v>24.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>24.425</v>
-      </c>
-      <c r="N63" t="n">
-        <v>24.17333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2724,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J64" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-71.4285714285715</v>
-      </c>
-      <c r="L64" t="n">
-        <v>24.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>24.405</v>
-      </c>
-      <c r="N64" t="n">
-        <v>24.16000000000001</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2759,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J65" t="n">
-        <v>13.79999999999999</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>24.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>24.44</v>
-      </c>
-      <c r="N65" t="n">
-        <v>24.18666666666668</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2794,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J66" t="n">
-        <v>13.79999999999999</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-4.347826086956428</v>
-      </c>
-      <c r="L66" t="n">
-        <v>24.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>24.465</v>
-      </c>
-      <c r="N66" t="n">
-        <v>24.21333333333335</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2829,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J67" t="n">
-        <v>13.89999999999999</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>24.53000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>24.48000000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>24.24666666666668</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2864,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J68" t="n">
-        <v>14.29999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-14.28571428571425</v>
-      </c>
-      <c r="L68" t="n">
-        <v>24.49000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="N68" t="n">
-        <v>24.27333333333335</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2899,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>14.69999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>24.49000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>24.495</v>
-      </c>
-      <c r="N69" t="n">
-        <v>24.31333333333335</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2934,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>14.69999999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.225806451612836</v>
-      </c>
-      <c r="L70" t="n">
-        <v>24.49000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>24.51000000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>24.35333333333335</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2969,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J71" t="n">
-        <v>15.79999999999998</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-23.80952380952383</v>
-      </c>
-      <c r="L71" t="n">
-        <v>24.39000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>24.47500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>24.35666666666668</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3004,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>16.89999999999998</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.886792452830151</v>
-      </c>
-      <c r="L72" t="n">
-        <v>24.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>24.49500000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>24.39333333333335</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3039,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>16.89999999999998</v>
-      </c>
-      <c r="K73" t="n">
-        <v>28.57142857142861</v>
-      </c>
-      <c r="L73" t="n">
-        <v>24.41000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>24.51500000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>24.42000000000002</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3074,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16.89999999999998</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.225806451612844</v>
-      </c>
-      <c r="L74" t="n">
-        <v>24.53000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>24.52500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>24.44666666666669</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3109,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>16.89999999999998</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3.225806451612844</v>
-      </c>
-      <c r="L75" t="n">
-        <v>24.54000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>24.53500000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>24.47333333333336</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3144,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>17.09999999999998</v>
-      </c>
-      <c r="K76" t="n">
-        <v>6.249999999999993</v>
-      </c>
-      <c r="L76" t="n">
-        <v>24.57000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="N76" t="n">
-        <v>24.50000000000002</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3179,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J77" t="n">
-        <v>17.19999999999998</v>
-      </c>
-      <c r="K77" t="n">
-        <v>24.13793103448278</v>
-      </c>
-      <c r="L77" t="n">
-        <v>24.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>24.565</v>
-      </c>
-      <c r="N77" t="n">
-        <v>24.52000000000002</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3214,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>17.29999999999998</v>
-      </c>
-      <c r="K78" t="n">
-        <v>7.692307692307672</v>
-      </c>
-      <c r="L78" t="n">
-        <v>24.66000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>24.57500000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>24.54000000000002</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3249,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J79" t="n">
-        <v>17.39999999999998</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.11111111111114</v>
-      </c>
-      <c r="L79" t="n">
-        <v>24.69000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>24.59000000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>24.56000000000002</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3284,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J80" t="n">
-        <v>17.39999999999998</v>
-      </c>
-      <c r="K80" t="n">
-        <v>87.49999999999983</v>
-      </c>
-      <c r="L80" t="n">
-        <v>24.72000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>24.60500000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>24.58000000000003</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3319,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J81" t="n">
-        <v>17.39999999999998</v>
-      </c>
-      <c r="K81" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L81" t="n">
-        <v>24.86000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>24.62500000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>24.60333333333336</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3354,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J82" t="n">
-        <v>17.59999999999998</v>
-      </c>
-      <c r="K82" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L82" t="n">
-        <v>24.91000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>24.65500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>24.63333333333336</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3389,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J83" t="n">
-        <v>17.59999999999998</v>
-      </c>
-      <c r="K83" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L83" t="n">
-        <v>24.96000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>24.68500000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>24.66333333333337</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3424,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J84" t="n">
-        <v>17.59999999999998</v>
-      </c>
-      <c r="K84" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L84" t="n">
-        <v>25.01000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>24.77000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>24.6866666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3459,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="J85" t="n">
-        <v>17.69999999999999</v>
-      </c>
-      <c r="K85" t="n">
-        <v>66.66666666666647</v>
-      </c>
-      <c r="L85" t="n">
-        <v>25.07000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>24.80500000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>24.71333333333337</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3494,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>17.79999999999998</v>
-      </c>
-      <c r="K86" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L86" t="n">
-        <v>25.12000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>24.84500000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>24.74000000000003</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3529,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="J87" t="n">
-        <v>17.89999999999998</v>
-      </c>
-      <c r="K87" t="n">
-        <v>66.66666666666727</v>
-      </c>
-      <c r="L87" t="n">
-        <v>25.15000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>24.875</v>
-      </c>
-      <c r="N87" t="n">
-        <v>24.76000000000003</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3564,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="J88" t="n">
-        <v>17.89999999999998</v>
-      </c>
-      <c r="K88" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L88" t="n">
-        <v>25.19000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>24.925</v>
-      </c>
-      <c r="N88" t="n">
-        <v>24.78000000000003</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3599,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J89" t="n">
-        <v>17.99999999999998</v>
-      </c>
-      <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>25.21000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="N89" t="n">
-        <v>24.79666666666669</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3634,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="J90" t="n">
-        <v>18.09999999999998</v>
-      </c>
-      <c r="K90" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L90" t="n">
-        <v>25.24000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="N90" t="n">
-        <v>24.81666666666669</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3669,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="J91" t="n">
-        <v>18.09999999999998</v>
-      </c>
-      <c r="K91" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L91" t="n">
-        <v>25.27000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>25.065</v>
-      </c>
-      <c r="N91" t="n">
-        <v>24.84000000000002</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3704,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J92" t="n">
-        <v>18.29999999999998</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L92" t="n">
-        <v>25.26000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>25.085</v>
-      </c>
-      <c r="N92" t="n">
-        <v>24.85666666666669</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3739,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J93" t="n">
-        <v>18.39999999999998</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>25.26000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>25.11000000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>24.87666666666669</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3774,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J94" t="n">
-        <v>18.49999999999998</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-25.00000000000011</v>
-      </c>
-      <c r="L94" t="n">
-        <v>25.25000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="N94" t="n">
-        <v>24.93000000000002</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3809,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J95" t="n">
-        <v>18.49999999999998</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-42.85714285714271</v>
-      </c>
-      <c r="L95" t="n">
-        <v>25.23000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="N95" t="n">
-        <v>24.94666666666669</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3844,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J96" t="n">
-        <v>18.59999999999998</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L96" t="n">
-        <v>25.21000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>25.165</v>
-      </c>
-      <c r="N96" t="n">
-        <v>24.96666666666669</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3879,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J97" t="n">
-        <v>18.69999999999997</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-25.00000000000011</v>
-      </c>
-      <c r="L97" t="n">
-        <v>25.19000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>25.17000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>24.98000000000002</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3914,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J98" t="n">
-        <v>18.79999999999997</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>25.18000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>25.18500000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>25.01000000000003</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3949,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J99" t="n">
-        <v>18.99999999999997</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-33.33333333333386</v>
-      </c>
-      <c r="L99" t="n">
-        <v>25.16000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>25.18500000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>25.02000000000002</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3984,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J100" t="n">
-        <v>18.99999999999997</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-33.33333333333386</v>
-      </c>
-      <c r="L100" t="n">
-        <v>25.13000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>25.18500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>25.03000000000002</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4019,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>19.09999999999997</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-25.00000000000067</v>
-      </c>
-      <c r="L101" t="n">
-        <v>25.09000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>25.18000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>25.07333333333336</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4054,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J102" t="n">
-        <v>19.19999999999997</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-50.00000000000044</v>
-      </c>
-      <c r="L102" t="n">
-        <v>25.06000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="N102" t="n">
-        <v>25.07666666666669</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4089,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J103" t="n">
-        <v>19.49999999999997</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>25.05000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>25.155</v>
-      </c>
-      <c r="N103" t="n">
-        <v>25.09000000000002</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4124,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J104" t="n">
-        <v>19.59999999999997</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-9.090909090909268</v>
-      </c>
-      <c r="L104" t="n">
-        <v>25.04000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>25.14500000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>25.10000000000002</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4159,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J105" t="n">
-        <v>19.69999999999997</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L105" t="n">
-        <v>25.04000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>25.13500000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>25.11333333333335</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4194,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J106" t="n">
-        <v>19.79999999999998</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L106" t="n">
-        <v>25.02000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>25.115</v>
-      </c>
-      <c r="N106" t="n">
-        <v>25.11666666666668</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4229,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J107" t="n">
-        <v>19.89999999999998</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-9.090909090908857</v>
-      </c>
-      <c r="L107" t="n">
-        <v>25.02000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>25.105</v>
-      </c>
-      <c r="N107" t="n">
-        <v>25.12000000000002</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4264,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J108" t="n">
-        <v>19.99999999999998</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>25.00000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>25.09000000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>25.12333333333335</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4299,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J109" t="n">
-        <v>19.99999999999998</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>25.00000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>25.08000000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>25.12333333333335</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4334,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J110" t="n">
-        <v>20.09999999999998</v>
-      </c>
-      <c r="K110" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L110" t="n">
-        <v>25.01000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>25.07000000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>25.12666666666668</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4369,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J111" t="n">
-        <v>20.19999999999998</v>
-      </c>
-      <c r="K111" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L111" t="n">
-        <v>25.02000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>25.055</v>
-      </c>
-      <c r="N111" t="n">
-        <v>25.12666666666668</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4404,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>20.29999999999998</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L112" t="n">
-        <v>25.03000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>25.04500000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>25.11666666666668</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4439,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>20.29999999999998</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L113" t="n">
-        <v>25.01000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>25.03</v>
-      </c>
-      <c r="N113" t="n">
-        <v>25.10666666666668</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4474,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J114" t="n">
-        <v>20.39999999999998</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L114" t="n">
-        <v>25.01000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>25.02500000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>25.10000000000001</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4509,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J115" t="n">
-        <v>20.59999999999998</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-24.99999999999967</v>
-      </c>
-      <c r="L115" t="n">
-        <v>24.98000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="N115" t="n">
-        <v>25.08333333333335</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4544,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J116" t="n">
-        <v>20.59999999999998</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-42.85714285714256</v>
-      </c>
-      <c r="L116" t="n">
-        <v>24.96000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="N116" t="n">
-        <v>25.06333333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4579,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>20.69999999999998</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L117" t="n">
-        <v>24.94000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="N117" t="n">
-        <v>25.05000000000001</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4614,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J118" t="n">
-        <v>20.89999999999998</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L118" t="n">
-        <v>24.91000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>24.95500000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>25.03000000000002</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4649,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J119" t="n">
-        <v>20.99999999999998</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L119" t="n">
-        <v>24.89000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>24.945</v>
-      </c>
-      <c r="N119" t="n">
-        <v>25.01666666666668</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4684,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J120" t="n">
-        <v>20.99999999999998</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L120" t="n">
-        <v>24.86000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>24.935</v>
-      </c>
-      <c r="N120" t="n">
-        <v>25.00000000000001</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4719,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J121" t="n">
-        <v>21.09999999999998</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L121" t="n">
-        <v>24.83000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>24.925</v>
-      </c>
-      <c r="N121" t="n">
-        <v>24.98000000000001</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,1099 +4754,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J122" t="n">
-        <v>21.29999999999998</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-39.99999999999986</v>
-      </c>
-      <c r="L122" t="n">
-        <v>24.79000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="N122" t="n">
-        <v>24.96000000000002</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>39497.3681</v>
-      </c>
-      <c r="G123" t="n">
-        <v>24.90666666666666</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J123" t="n">
-        <v>21.29999999999998</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-55.55555555555565</v>
-      </c>
-      <c r="L123" t="n">
-        <v>24.75000000000003</v>
-      </c>
-      <c r="M123" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="N123" t="n">
-        <v>24.93666666666668</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>7406.4825</v>
-      </c>
-      <c r="G124" t="n">
-        <v>24.92166666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>21.39999999999998</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L124" t="n">
-        <v>24.69000000000003</v>
-      </c>
-      <c r="M124" t="n">
-        <v>24.85</v>
-      </c>
-      <c r="N124" t="n">
-        <v>24.91333333333334</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>8508</v>
-      </c>
-      <c r="G125" t="n">
-        <v>24.91666666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J125" t="n">
-        <v>21.49999999999998</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-55.55555555555565</v>
-      </c>
-      <c r="L125" t="n">
-        <v>24.64000000000003</v>
-      </c>
-      <c r="M125" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="N125" t="n">
-        <v>24.88666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>17629.1769</v>
-      </c>
-      <c r="G126" t="n">
-        <v>24.91166666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J126" t="n">
-        <v>21.49999999999998</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-74.99999999999967</v>
-      </c>
-      <c r="L126" t="n">
-        <v>24.59000000000003</v>
-      </c>
-      <c r="M126" t="n">
-        <v>24.775</v>
-      </c>
-      <c r="N126" t="n">
-        <v>24.85666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1956.8876</v>
-      </c>
-      <c r="G127" t="n">
-        <v>24.90499999999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J127" t="n">
-        <v>21.49999999999998</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-66.66666666666627</v>
-      </c>
-      <c r="L127" t="n">
-        <v>24.53000000000003</v>
-      </c>
-      <c r="M127" t="n">
-        <v>24.73499999999999</v>
-      </c>
-      <c r="N127" t="n">
-        <v>24.83</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4202.9487</v>
-      </c>
-      <c r="G128" t="n">
-        <v>24.90499999999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J128" t="n">
-        <v>21.49999999999998</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L128" t="n">
-        <v>24.49000000000003</v>
-      </c>
-      <c r="M128" t="n">
-        <v>24.69999999999999</v>
-      </c>
-      <c r="N128" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17037.7371</v>
-      </c>
-      <c r="G129" t="n">
-        <v>24.89833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J129" t="n">
-        <v>21.49999999999998</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L129" t="n">
-        <v>24.44000000000003</v>
-      </c>
-      <c r="M129" t="n">
-        <v>24.66499999999998</v>
-      </c>
-      <c r="N129" t="n">
-        <v>24.77666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G130" t="n">
-        <v>24.89166666666666</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J130" t="n">
-        <v>21.49999999999998</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L130" t="n">
-        <v>24.39000000000003</v>
-      </c>
-      <c r="M130" t="n">
-        <v>24.62499999999998</v>
-      </c>
-      <c r="N130" t="n">
-        <v>24.75333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>24.90166666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J131" t="n">
-        <v>21.59999999999998</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L131" t="n">
-        <v>24.34000000000003</v>
-      </c>
-      <c r="M131" t="n">
-        <v>24.58499999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3335.1028</v>
-      </c>
-      <c r="G132" t="n">
-        <v>24.89499999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J132" t="n">
-        <v>21.69999999999999</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L132" t="n">
-        <v>24.32000000000003</v>
-      </c>
-      <c r="M132" t="n">
-        <v>24.55499999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>24.71333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C133" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>13290.524</v>
-      </c>
-      <c r="G133" t="n">
-        <v>24.89333333333332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J133" t="n">
-        <v>21.99999999999999</v>
-      </c>
-      <c r="K133" t="n">
-        <v>33.33333333333373</v>
-      </c>
-      <c r="L133" t="n">
-        <v>24.33000000000003</v>
-      </c>
-      <c r="M133" t="n">
-        <v>24.53999999999998</v>
-      </c>
-      <c r="N133" t="n">
-        <v>24.69666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E134" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>81.79989999999999</v>
-      </c>
-      <c r="G134" t="n">
-        <v>24.88833333333332</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>22.19999999999999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>14.28571428571385</v>
-      </c>
-      <c r="L134" t="n">
-        <v>24.33000000000003</v>
-      </c>
-      <c r="M134" t="n">
-        <v>24.50999999999998</v>
-      </c>
-      <c r="N134" t="n">
-        <v>24.67666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8645.866</v>
-      </c>
-      <c r="G135" t="n">
-        <v>24.88166666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J135" t="n">
-        <v>22.29999999999999</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>24.33000000000003</v>
-      </c>
-      <c r="M135" t="n">
-        <v>24.48499999999998</v>
-      </c>
-      <c r="N135" t="n">
-        <v>24.65</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>6564.6359</v>
-      </c>
-      <c r="G136" t="n">
-        <v>24.86999999999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J136" t="n">
-        <v>22.39999999999999</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L136" t="n">
-        <v>24.32000000000003</v>
-      </c>
-      <c r="M136" t="n">
-        <v>24.45499999999998</v>
-      </c>
-      <c r="N136" t="n">
-        <v>24.62333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>20014.7149</v>
-      </c>
-      <c r="G137" t="n">
-        <v>24.86166666666666</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>22.69999999999999</v>
-      </c>
-      <c r="K137" t="n">
-        <v>16.66666666666652</v>
-      </c>
-      <c r="L137" t="n">
-        <v>24.34000000000002</v>
-      </c>
-      <c r="M137" t="n">
-        <v>24.43499999999998</v>
-      </c>
-      <c r="N137" t="n">
-        <v>24.60333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3664.534</v>
-      </c>
-      <c r="G138" t="n">
-        <v>24.85166666666665</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J138" t="n">
-        <v>22.89999999999999</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>24.34000000000002</v>
-      </c>
-      <c r="M138" t="n">
-        <v>24.41499999999998</v>
-      </c>
-      <c r="N138" t="n">
-        <v>24.57999999999999</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1820.2159</v>
-      </c>
-      <c r="G139" t="n">
-        <v>24.84166666666665</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>22.99999999999999</v>
-      </c>
-      <c r="K139" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L139" t="n">
-        <v>24.35000000000002</v>
-      </c>
-      <c r="M139" t="n">
-        <v>24.39499999999999</v>
-      </c>
-      <c r="N139" t="n">
-        <v>24.56</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F140" t="n">
-        <v>595.8196</v>
-      </c>
-      <c r="G140" t="n">
-        <v>24.83166666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>22.99999999999999</v>
-      </c>
-      <c r="K140" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L140" t="n">
-        <v>24.36000000000002</v>
-      </c>
-      <c r="M140" t="n">
-        <v>24.37499999999999</v>
-      </c>
-      <c r="N140" t="n">
-        <v>24.53666666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6158.2753</v>
-      </c>
-      <c r="G141" t="n">
-        <v>24.81999999999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J141" t="n">
-        <v>23.09999999999998</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>24.37000000000002</v>
-      </c>
-      <c r="M141" t="n">
-        <v>24.35499999999999</v>
-      </c>
-      <c r="N141" t="n">
-        <v>24.51333333333332</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C142" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2414.546</v>
-      </c>
-      <c r="G142" t="n">
-        <v>24.80833333333332</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J142" t="n">
-        <v>23.29999999999998</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L142" t="n">
-        <v>24.39000000000002</v>
-      </c>
-      <c r="M142" t="n">
-        <v>24.35499999999999</v>
-      </c>
-      <c r="N142" t="n">
-        <v>24.49999999999999</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8179.7841</v>
-      </c>
-      <c r="G143" t="n">
-        <v>24.79666666666666</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J143" t="n">
-        <v>23.29999999999998</v>
-      </c>
-      <c r="K143" t="n">
-        <v>9.090909090909268</v>
-      </c>
-      <c r="L143" t="n">
-        <v>24.38000000000002</v>
-      </c>
-      <c r="M143" t="n">
-        <v>24.35499999999999</v>
-      </c>
-      <c r="N143" t="n">
-        <v>24.48666666666666</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -451,20 +451,14 @@
         <v>23.08999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>23.09166666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>23.08999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>23.08999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>23.09999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>23.10833333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>23.4</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>23.11666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>23.12666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>23.13666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -827,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -866,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -905,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -944,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -983,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1022,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1100,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1139,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1174,15 +1084,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1213,15 +1119,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1256,12 +1158,10 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1359,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1394,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1429,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1464,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2161,13 +2061,17 @@
         <v>23.77333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>24.4</v>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -2196,14 +2100,22 @@
         <v>23.79666666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2231,14 +2143,22 @@
         <v>23.81833333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2266,13 +2186,17 @@
         <v>23.83666666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>24.4</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2307,8 +2231,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2342,8 +2272,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>23.3</v>
       </c>
       <c r="C2" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D2" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E2" t="n">
         <v>23.3</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>5100</v>
       </c>
       <c r="G2" t="n">
-        <v>23.08999999999999</v>
+        <v>23.08499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>23.3</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>23.09166666666666</v>
+        <v>23.08999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>23.3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D4" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E4" t="n">
         <v>23.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>23.08999999999999</v>
+        <v>23.09166666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>23.3</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E5" t="n">
         <v>23.3</v>
       </c>
       <c r="F5" t="n">
-        <v>45454.4869</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
         <v>23.08999999999999</v>
@@ -576,7 +576,7 @@
         <v>23.3</v>
       </c>
       <c r="C6" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D6" t="n">
         <v>23.4</v>
@@ -585,10 +585,10 @@
         <v>23.3</v>
       </c>
       <c r="F6" t="n">
-        <v>10211</v>
+        <v>45454.4869</v>
       </c>
       <c r="G6" t="n">
-        <v>23.09999999999999</v>
+        <v>23.08999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C7" t="n">
         <v>23.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E7" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F7" t="n">
-        <v>67356.36749999999</v>
+        <v>10211</v>
       </c>
       <c r="G7" t="n">
-        <v>23.10833333333333</v>
+        <v>23.09999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C8" t="n">
         <v>23.5</v>
@@ -652,13 +652,13 @@
         <v>23.5</v>
       </c>
       <c r="E8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F8" t="n">
-        <v>2000</v>
+        <v>67356.36749999999</v>
       </c>
       <c r="G8" t="n">
-        <v>23.11666666666666</v>
+        <v>23.10833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>23.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5775</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="n">
-        <v>23.12666666666666</v>
+        <v>23.11666666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>23.5</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D10" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E10" t="n">
         <v>23.5</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>5775</v>
       </c>
       <c r="G10" t="n">
-        <v>23.13666666666666</v>
+        <v>23.12666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C11" t="n">
         <v>23.6</v>
@@ -757,13 +757,13 @@
         <v>23.6</v>
       </c>
       <c r="E11" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F11" t="n">
-        <v>40000.007</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>23.14666666666665</v>
+        <v>23.13666666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>23.6</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="E12" t="n">
         <v>23.6</v>
       </c>
       <c r="F12" t="n">
-        <v>6030</v>
+        <v>40000.007</v>
       </c>
       <c r="G12" t="n">
-        <v>23.16166666666665</v>
+        <v>23.14666666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C13" t="n">
         <v>23.9</v>
       </c>
-      <c r="C13" t="n">
-        <v>24</v>
-      </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="E13" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="F13" t="n">
-        <v>18000</v>
+        <v>6030</v>
       </c>
       <c r="G13" t="n">
-        <v>23.17833333333332</v>
+        <v>23.16166666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C14" t="n">
         <v>24</v>
@@ -862,13 +862,13 @@
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F14" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="G14" t="n">
-        <v>23.19499999999999</v>
+        <v>23.17833333333332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>36717.10242348178</v>
+        <v>14000</v>
       </c>
       <c r="G15" t="n">
-        <v>23.22333333333332</v>
+        <v>23.19499999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="D16" t="n">
         <v>24.7</v>
@@ -935,10 +935,10 @@
         <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>4538.3805</v>
+        <v>36717.10242348178</v>
       </c>
       <c r="G16" t="n">
-        <v>23.23999999999999</v>
+        <v>23.22333333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C17" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>24.7</v>
       </c>
       <c r="E17" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>18000</v>
+        <v>4538.3805</v>
       </c>
       <c r="G17" t="n">
-        <v>23.26833333333332</v>
+        <v>23.23999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,28 +993,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C18" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D18" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="E18" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F18" t="n">
-        <v>48000.0104</v>
+        <v>18000</v>
       </c>
       <c r="G18" t="n">
-        <v>23.29833333333332</v>
+        <v>23.26833333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="C19" t="n">
         <v>24.8</v>
@@ -1037,19 +1037,19 @@
         <v>24.8</v>
       </c>
       <c r="E19" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>48000.0104</v>
       </c>
       <c r="G19" t="n">
-        <v>23.33499999999999</v>
+        <v>23.29833333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1075,16 +1075,16 @@
         <v>24.8</v>
       </c>
       <c r="F20" t="n">
-        <v>14650.8064</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="n">
-        <v>23.36499999999999</v>
+        <v>23.33499999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1098,28 +1098,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="C21" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D21" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="E21" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="F21" t="n">
-        <v>9179.275600000001</v>
+        <v>14650.8064</v>
       </c>
       <c r="G21" t="n">
-        <v>23.39333333333332</v>
+        <v>23.36499999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1133,28 +1133,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C22" t="n">
         <v>24.3</v>
       </c>
-      <c r="C22" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D22" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="E22" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="F22" t="n">
-        <v>19132.4567</v>
+        <v>9179.275600000001</v>
       </c>
       <c r="G22" t="n">
-        <v>23.40666666666666</v>
+        <v>23.39333333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1171,19 +1171,19 @@
         <v>24.3</v>
       </c>
       <c r="C23" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="D23" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="E23" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="F23" t="n">
-        <v>5163.3425</v>
+        <v>19132.4567</v>
       </c>
       <c r="G23" t="n">
-        <v>23.42833333333332</v>
+        <v>23.40666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="C24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="E24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F24" t="n">
-        <v>11372.5069</v>
+        <v>5163.3425</v>
       </c>
       <c r="G24" t="n">
-        <v>23.45499999999999</v>
+        <v>23.42833333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="C25" t="n">
-        <v>24.8</v>
+        <v>24.2</v>
       </c>
       <c r="D25" t="n">
-        <v>24.8</v>
+        <v>24.2</v>
       </c>
       <c r="E25" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="F25" t="n">
-        <v>16552.4399</v>
+        <v>11372.5069</v>
       </c>
       <c r="G25" t="n">
-        <v>23.48666666666666</v>
+        <v>23.45499999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>24.7</v>
       </c>
       <c r="F26" t="n">
-        <v>28975</v>
+        <v>16552.4399</v>
       </c>
       <c r="G26" t="n">
-        <v>23.51666666666666</v>
+        <v>23.48666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="C27" t="n">
-        <v>23.1</v>
+        <v>24.8</v>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>24.8</v>
       </c>
       <c r="E27" t="n">
-        <v>23.1</v>
+        <v>24.7</v>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>28975</v>
       </c>
       <c r="G27" t="n">
-        <v>23.51833333333332</v>
+        <v>23.51666666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="D28" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="F28" t="n">
-        <v>14615.598</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>23.53666666666665</v>
+        <v>23.51833333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>14615.598</v>
       </c>
       <c r="G29" t="n">
-        <v>23.55333333333332</v>
+        <v>23.53666666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>14289.1794</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>23.58166666666665</v>
+        <v>23.55333333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D31" t="n">
         <v>24.7</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>9784.569100000001</v>
+        <v>14289.1794</v>
       </c>
       <c r="G31" t="n">
-        <v>23.61166666666665</v>
+        <v>23.58166666666665</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="C32" t="n">
-        <v>23.9</v>
+        <v>24.6</v>
       </c>
       <c r="D32" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="E32" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="F32" t="n">
-        <v>8326.18</v>
+        <v>9784.569100000001</v>
       </c>
       <c r="G32" t="n">
-        <v>23.62499999999999</v>
+        <v>23.61166666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>23.9</v>
       </c>
       <c r="F33" t="n">
-        <v>4475</v>
+        <v>8326.18</v>
       </c>
       <c r="G33" t="n">
-        <v>23.63833333333332</v>
+        <v>23.62499999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>23.9</v>
       </c>
       <c r="F34" t="n">
-        <v>18183.407</v>
+        <v>4475</v>
       </c>
       <c r="G34" t="n">
-        <v>23.64499999999999</v>
+        <v>23.63833333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="E35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>18183.407</v>
       </c>
       <c r="G35" t="n">
-        <v>23.65333333333333</v>
+        <v>23.64499999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C36" t="n">
         <v>23.8</v>
@@ -1632,13 +1632,13 @@
         <v>23.8</v>
       </c>
       <c r="E36" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="F36" t="n">
-        <v>17031</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="n">
-        <v>23.66333333333332</v>
+        <v>23.65333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>23.7</v>
       </c>
       <c r="C37" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E37" t="n">
         <v>23.7</v>
       </c>
       <c r="F37" t="n">
-        <v>802</v>
+        <v>17031</v>
       </c>
       <c r="G37" t="n">
-        <v>23.67166666666666</v>
+        <v>23.66333333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C38" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D38" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E38" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F38" t="n">
-        <v>22847.457</v>
+        <v>802</v>
       </c>
       <c r="G38" t="n">
-        <v>23.67666666666666</v>
+        <v>23.67166666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C39" t="n">
         <v>23.5</v>
@@ -1740,10 +1740,10 @@
         <v>23.5</v>
       </c>
       <c r="F39" t="n">
-        <v>17269</v>
+        <v>22847.457</v>
       </c>
       <c r="G39" t="n">
-        <v>23.67499999999999</v>
+        <v>23.67666666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1769,16 +1769,16 @@
         <v>23.5</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="E40" t="n">
         <v>23.5</v>
       </c>
       <c r="F40" t="n">
-        <v>14773</v>
+        <v>17269</v>
       </c>
       <c r="G40" t="n">
-        <v>23.67333333333333</v>
+        <v>23.67499999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>23.5</v>
       </c>
       <c r="D41" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E41" t="n">
         <v>23.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2837.6099</v>
+        <v>14773</v>
       </c>
       <c r="G41" t="n">
-        <v>23.67666666666666</v>
+        <v>23.67333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F42" t="n">
-        <v>1918.9981</v>
+        <v>2837.6099</v>
       </c>
       <c r="G42" t="n">
-        <v>23.68166666666666</v>
+        <v>23.67666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>23.6</v>
       </c>
       <c r="C43" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D43" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="E43" t="n">
         <v>23.6</v>
       </c>
       <c r="F43" t="n">
-        <v>6613</v>
+        <v>1918.9981</v>
       </c>
       <c r="G43" t="n">
-        <v>23.69333333333333</v>
+        <v>23.68166666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C44" t="n">
         <v>23.9</v>
@@ -1912,23 +1912,29 @@
         <v>23.9</v>
       </c>
       <c r="E44" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>6613</v>
       </c>
       <c r="G44" t="n">
-        <v>23.70166666666666</v>
+        <v>23.69333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>23.6</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +1956,10 @@
         <v>23.9</v>
       </c>
       <c r="F45" t="n">
-        <v>5651.4303</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>23.71666666666666</v>
+        <v>23.70166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +1969,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +1983,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="E46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="F46" t="n">
-        <v>847.457</v>
+        <v>5651.4303</v>
       </c>
       <c r="G46" t="n">
-        <v>23.72833333333333</v>
+        <v>23.71666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2008,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2022,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>847.457</v>
       </c>
       <c r="G47" t="n">
-        <v>23.74833333333333</v>
+        <v>23.72833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2047,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,36 +2061,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F48" t="n">
-        <v>7500</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>23.77333333333333</v>
+        <v>23.74833333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2082,38 +2100,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>7500</v>
       </c>
       <c r="G49" t="n">
-        <v>23.79666666666666</v>
+        <v>23.77333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2137,26 +2151,22 @@
         <v>24.4</v>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>23.81833333333333</v>
+        <v>23.79666666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2168,36 +2178,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="n">
-        <v>23.83666666666666</v>
+        <v>23.81833333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2219,10 +2229,10 @@
         <v>24.3</v>
       </c>
       <c r="F52" t="n">
-        <v>7500</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>23.85666666666667</v>
+        <v>23.83666666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2231,12 +2241,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2260,10 +2268,10 @@
         <v>24.3</v>
       </c>
       <c r="F53" t="n">
-        <v>4675.8436</v>
+        <v>7500</v>
       </c>
       <c r="G53" t="n">
-        <v>23.875</v>
+        <v>23.85666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2272,12 +2280,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2289,22 +2295,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C54" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D54" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="E54" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F54" t="n">
-        <v>1488.2416</v>
+        <v>4675.8436</v>
       </c>
       <c r="G54" t="n">
-        <v>23.90166666666666</v>
+        <v>23.875</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2314,7 +2320,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C55" t="n">
         <v>24.5</v>
@@ -2333,13 +2343,13 @@
         <v>24.5</v>
       </c>
       <c r="E55" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F55" t="n">
-        <v>7236.0816</v>
+        <v>1488.2416</v>
       </c>
       <c r="G55" t="n">
-        <v>23.93</v>
+        <v>23.90166666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2349,7 +2359,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2362,19 +2376,19 @@
         <v>24.5</v>
       </c>
       <c r="C56" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D56" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E56" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="F56" t="n">
-        <v>11678.6078</v>
+        <v>7236.0816</v>
       </c>
       <c r="G56" t="n">
-        <v>23.95499999999999</v>
+        <v>23.93</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2384,7 +2398,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2394,22 +2412,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C57" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D57" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E57" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="F57" t="n">
-        <v>11379.1093</v>
+        <v>11678.6078</v>
       </c>
       <c r="G57" t="n">
-        <v>23.98166666666667</v>
+        <v>23.95499999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2419,7 +2437,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2441,10 +2463,10 @@
         <v>24.7</v>
       </c>
       <c r="F58" t="n">
-        <v>8799.3927</v>
+        <v>11379.1093</v>
       </c>
       <c r="G58" t="n">
-        <v>24.00666666666666</v>
+        <v>23.98166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2454,7 +2476,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2476,10 +2502,10 @@
         <v>24.7</v>
       </c>
       <c r="F59" t="n">
-        <v>21195.9793</v>
+        <v>8799.3927</v>
       </c>
       <c r="G59" t="n">
-        <v>24.03166666666666</v>
+        <v>24.00666666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2489,7 +2515,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2511,10 +2541,10 @@
         <v>24.7</v>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>21195.9793</v>
       </c>
       <c r="G60" t="n">
-        <v>24.05666666666666</v>
+        <v>24.03166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2524,7 +2554,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2534,22 +2568,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="C61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="F61" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="n">
-        <v>24.07833333333333</v>
+        <v>24.05666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2559,7 +2593,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2581,10 +2619,10 @@
         <v>24.6</v>
       </c>
       <c r="F62" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="G62" t="n">
-        <v>24.09833333333333</v>
+        <v>24.07833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2594,7 +2632,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2616,10 +2658,10 @@
         <v>24.6</v>
       </c>
       <c r="F63" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>24.11833333333333</v>
+        <v>24.09833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2629,7 +2671,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2639,22 +2685,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="C64" t="n">
-        <v>23.5</v>
+        <v>24.6</v>
       </c>
       <c r="D64" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E64" t="n">
-        <v>23.5</v>
+        <v>24.6</v>
       </c>
       <c r="F64" t="n">
-        <v>41727.2403</v>
+        <v>14000</v>
       </c>
       <c r="G64" t="n">
-        <v>24.12166666666666</v>
+        <v>24.11833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2664,7 +2710,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2724,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="C65" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="D65" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="E65" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="F65" t="n">
-        <v>10427</v>
+        <v>41727.2403</v>
       </c>
       <c r="G65" t="n">
-        <v>24.14333333333332</v>
+        <v>24.12166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2699,7 +2749,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2709,7 +2763,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C66" t="n">
         <v>24.6</v>
@@ -2718,13 +2772,13 @@
         <v>24.6</v>
       </c>
       <c r="E66" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F66" t="n">
-        <v>37266</v>
+        <v>10427</v>
       </c>
       <c r="G66" t="n">
-        <v>24.16333333333332</v>
+        <v>24.14333333333332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2734,7 +2788,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2747,19 +2805,19 @@
         <v>24.6</v>
       </c>
       <c r="C67" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D67" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E67" t="n">
         <v>24.6</v>
       </c>
       <c r="F67" t="n">
-        <v>360</v>
+        <v>37266</v>
       </c>
       <c r="G67" t="n">
-        <v>24.18333333333332</v>
+        <v>24.16333333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2769,7 +2827,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2779,22 +2841,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="C68" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D68" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="E68" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="F68" t="n">
-        <v>7500</v>
+        <v>360</v>
       </c>
       <c r="G68" t="n">
-        <v>24.19666666666665</v>
+        <v>24.18333333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2804,7 +2866,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2880,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="C69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="D69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="E69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>7500</v>
       </c>
       <c r="G69" t="n">
-        <v>24.21666666666665</v>
+        <v>24.19666666666665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2839,7 +2905,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2849,7 +2919,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="C70" t="n">
         <v>24.7</v>
@@ -2858,13 +2928,13 @@
         <v>24.7</v>
       </c>
       <c r="E70" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2169.3749</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>24.23499999999999</v>
+        <v>24.21666666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2874,7 +2944,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2884,19 +2958,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="C71" t="n">
-        <v>23.6</v>
+        <v>24.7</v>
       </c>
       <c r="D71" t="n">
         <v>24.7</v>
       </c>
       <c r="E71" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="F71" t="n">
-        <v>139699.5883</v>
+        <v>2169.3749</v>
       </c>
       <c r="G71" t="n">
         <v>24.23499999999999</v>
@@ -2909,7 +2983,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2919,22 +2997,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C72" t="n">
-        <v>24.7</v>
+        <v>23.6</v>
       </c>
       <c r="D72" t="n">
         <v>24.7</v>
       </c>
       <c r="E72" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="F72" t="n">
-        <v>26842.1049</v>
+        <v>139699.5883</v>
       </c>
       <c r="G72" t="n">
-        <v>24.24833333333332</v>
+        <v>24.23499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2944,7 +3022,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2954,7 +3036,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C73" t="n">
         <v>24.7</v>
@@ -2963,13 +3045,13 @@
         <v>24.7</v>
       </c>
       <c r="E73" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3157.8951</v>
+        <v>26842.1049</v>
       </c>
       <c r="G73" t="n">
-        <v>24.25999999999999</v>
+        <v>24.24833333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2979,7 +3061,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2989,7 +3075,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C74" t="n">
         <v>24.7</v>
@@ -2998,13 +3084,13 @@
         <v>24.7</v>
       </c>
       <c r="E74" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="F74" t="n">
-        <v>3359.0904</v>
+        <v>3157.8951</v>
       </c>
       <c r="G74" t="n">
-        <v>24.27166666666666</v>
+        <v>24.25999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3014,7 +3100,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3024,7 +3114,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C75" t="n">
         <v>24.7</v>
@@ -3033,10 +3123,10 @@
         <v>24.7</v>
       </c>
       <c r="E75" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="F75" t="n">
-        <v>3349.0904</v>
+        <v>3359.0904</v>
       </c>
       <c r="G75" t="n">
         <v>24.27166666666666</v>
@@ -3049,7 +3139,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3062,19 +3156,19 @@
         <v>24.7</v>
       </c>
       <c r="C76" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D76" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="E76" t="n">
         <v>24.7</v>
       </c>
       <c r="F76" t="n">
-        <v>123716.5777</v>
+        <v>3349.0904</v>
       </c>
       <c r="G76" t="n">
-        <v>24.28666666666666</v>
+        <v>24.27166666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3084,7 +3178,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +3192,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D77" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F77" t="n">
-        <v>657.9941</v>
+        <v>123716.5777</v>
       </c>
       <c r="G77" t="n">
-        <v>24.29166666666666</v>
+        <v>24.28666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3119,7 +3217,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3129,22 +3231,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F78" t="n">
-        <v>3999.4</v>
+        <v>657.9941</v>
       </c>
       <c r="G78" t="n">
-        <v>24.29333333333333</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3154,7 +3256,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3164,22 +3270,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F79" t="n">
-        <v>4604.52</v>
+        <v>3999.4</v>
       </c>
       <c r="G79" t="n">
-        <v>24.29666666666666</v>
+        <v>24.29333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3189,7 +3295,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3205,16 +3315,16 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E80" t="n">
         <v>25</v>
       </c>
       <c r="F80" t="n">
-        <v>54456.9361</v>
+        <v>4604.52</v>
       </c>
       <c r="G80" t="n">
-        <v>24.3</v>
+        <v>24.29666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3224,7 +3334,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3234,7 +3348,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="C81" t="n">
         <v>25</v>
@@ -3246,10 +3360,10 @@
         <v>25</v>
       </c>
       <c r="F81" t="n">
-        <v>135995.4103</v>
+        <v>54456.9361</v>
       </c>
       <c r="G81" t="n">
-        <v>24.31166666666666</v>
+        <v>24.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3259,7 +3373,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3269,22 +3387,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C82" t="n">
         <v>25</v>
       </c>
-      <c r="C82" t="n">
-        <v>25.2</v>
-      </c>
       <c r="D82" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E82" t="n">
         <v>25</v>
       </c>
       <c r="F82" t="n">
-        <v>104990.9148</v>
+        <v>135995.4103</v>
       </c>
       <c r="G82" t="n">
-        <v>24.335</v>
+        <v>24.31166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3294,7 +3412,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +3426,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="C83" t="n">
         <v>25.2</v>
       </c>
       <c r="D83" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E83" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F83" t="n">
-        <v>42848.0512</v>
+        <v>104990.9148</v>
       </c>
       <c r="G83" t="n">
-        <v>24.35</v>
+        <v>24.335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3329,7 +3451,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3339,7 +3465,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C84" t="n">
         <v>25.2</v>
@@ -3348,13 +3474,13 @@
         <v>25.3</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="F84" t="n">
-        <v>36921.1524</v>
+        <v>42848.0512</v>
       </c>
       <c r="G84" t="n">
-        <v>24.36666666666667</v>
+        <v>24.35</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3364,7 +3490,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3374,10 +3504,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C85" t="n">
         <v>25.2</v>
-      </c>
-      <c r="C85" t="n">
-        <v>25.3</v>
       </c>
       <c r="D85" t="n">
         <v>25.3</v>
@@ -3386,10 +3516,10 @@
         <v>25</v>
       </c>
       <c r="F85" t="n">
-        <v>16962.0159</v>
+        <v>36921.1524</v>
       </c>
       <c r="G85" t="n">
-        <v>24.375</v>
+        <v>24.36666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3399,7 +3529,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3409,22 +3543,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C86" t="n">
         <v>25.3</v>
       </c>
-      <c r="C86" t="n">
-        <v>25.4</v>
-      </c>
       <c r="D86" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E86" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>26869.7888</v>
+        <v>16962.0159</v>
       </c>
       <c r="G86" t="n">
-        <v>24.385</v>
+        <v>24.375</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3434,7 +3568,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3447,19 +3585,19 @@
         <v>25.3</v>
       </c>
       <c r="C87" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E87" t="n">
         <v>25.3</v>
       </c>
-      <c r="D87" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>25.2</v>
-      </c>
       <c r="F87" t="n">
-        <v>17611.0118</v>
+        <v>26869.7888</v>
       </c>
       <c r="G87" t="n">
-        <v>24.42166666666667</v>
+        <v>24.385</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3469,7 +3607,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3491,10 +3633,10 @@
         <v>25.2</v>
       </c>
       <c r="F88" t="n">
-        <v>116629.8918</v>
+        <v>17611.0118</v>
       </c>
       <c r="G88" t="n">
-        <v>24.44166666666667</v>
+        <v>24.42166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3504,7 +3646,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3514,10 +3660,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C89" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D89" t="n">
         <v>25.3</v>
@@ -3526,10 +3672,10 @@
         <v>25.2</v>
       </c>
       <c r="F89" t="n">
-        <v>17510</v>
+        <v>116629.8918</v>
       </c>
       <c r="G89" t="n">
-        <v>24.46166666666667</v>
+        <v>24.44166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3539,7 +3685,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3549,10 +3699,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C90" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D90" t="n">
         <v>25.3</v>
@@ -3561,10 +3711,10 @@
         <v>25.2</v>
       </c>
       <c r="F90" t="n">
-        <v>8020</v>
+        <v>17510</v>
       </c>
       <c r="G90" t="n">
-        <v>24.47166666666667</v>
+        <v>24.46166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3574,7 +3724,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3593,13 +3747,13 @@
         <v>25.3</v>
       </c>
       <c r="E91" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F91" t="n">
-        <v>16000.1581</v>
+        <v>8020</v>
       </c>
       <c r="G91" t="n">
-        <v>24.48333333333334</v>
+        <v>24.47166666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3609,7 +3763,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3619,22 +3777,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="C92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="D92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="E92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="F92" t="n">
-        <v>9742.162899999999</v>
+        <v>16000.1581</v>
       </c>
       <c r="G92" t="n">
-        <v>24.50333333333333</v>
+        <v>24.48333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3644,7 +3802,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3654,22 +3816,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F93" t="n">
-        <v>9179.2063</v>
+        <v>9742.162899999999</v>
       </c>
       <c r="G93" t="n">
-        <v>24.525</v>
+        <v>24.50333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3679,7 +3841,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3689,22 +3855,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="F94" t="n">
-        <v>4000</v>
+        <v>9179.2063</v>
       </c>
       <c r="G94" t="n">
-        <v>24.545</v>
+        <v>24.525</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3714,7 +3880,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3736,10 +3906,10 @@
         <v>25.1</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G95" t="n">
-        <v>24.56666666666666</v>
+        <v>24.545</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3749,7 +3919,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3759,22 +3933,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F96" t="n">
-        <v>19371.4743</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="n">
-        <v>24.59</v>
+        <v>24.56666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3784,7 +3958,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3797,19 +3975,19 @@
         <v>25.2</v>
       </c>
       <c r="C97" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D97" t="n">
         <v>25.2</v>
       </c>
       <c r="E97" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="F97" t="n">
-        <v>11058.14</v>
+        <v>19371.4743</v>
       </c>
       <c r="G97" t="n">
-        <v>24.61333333333333</v>
+        <v>24.59</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3819,7 +3997,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3829,22 +4011,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C98" t="n">
         <v>25.1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>25.2</v>
       </c>
       <c r="D98" t="n">
         <v>25.2</v>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F98" t="n">
-        <v>11010</v>
+        <v>11058.14</v>
       </c>
       <c r="G98" t="n">
-        <v>24.64166666666666</v>
+        <v>24.61333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3854,7 +4036,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3864,22 +4050,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="D99" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="E99" t="n">
         <v>25</v>
       </c>
       <c r="F99" t="n">
-        <v>19763.9325</v>
+        <v>11010</v>
       </c>
       <c r="G99" t="n">
-        <v>24.66666666666666</v>
+        <v>24.64166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3889,7 +4075,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3911,10 +4101,10 @@
         <v>25</v>
       </c>
       <c r="F100" t="n">
-        <v>43633.0025</v>
+        <v>19763.9325</v>
       </c>
       <c r="G100" t="n">
-        <v>24.69166666666666</v>
+        <v>24.66666666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3924,7 +4114,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +4128,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F101" t="n">
-        <v>9714.8575</v>
+        <v>43633.0025</v>
       </c>
       <c r="G101" t="n">
-        <v>24.715</v>
+        <v>24.69166666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3959,7 +4153,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3969,22 +4167,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C102" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D102" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E102" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F102" t="n">
-        <v>27985.6225</v>
+        <v>9714.8575</v>
       </c>
       <c r="G102" t="n">
-        <v>24.735</v>
+        <v>24.715</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3994,7 +4192,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4004,22 +4206,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>25</v>
+      </c>
+      <c r="C103" t="n">
         <v>24.8</v>
       </c>
-      <c r="C103" t="n">
-        <v>25.1</v>
-      </c>
       <c r="D103" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E103" t="n">
         <v>24.8</v>
       </c>
       <c r="F103" t="n">
-        <v>46685</v>
+        <v>27985.6225</v>
       </c>
       <c r="G103" t="n">
-        <v>24.755</v>
+        <v>24.735</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4029,7 +4231,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4039,22 +4245,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C104" t="n">
         <v>25.1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>25</v>
       </c>
       <c r="D104" t="n">
         <v>25.1</v>
       </c>
       <c r="E104" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F104" t="n">
-        <v>10010</v>
+        <v>46685</v>
       </c>
       <c r="G104" t="n">
-        <v>24.77333333333333</v>
+        <v>24.755</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4064,7 +4270,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4077,19 +4287,19 @@
         <v>25.1</v>
       </c>
       <c r="C105" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D105" t="n">
         <v>25.1</v>
       </c>
       <c r="E105" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F105" t="n">
-        <v>10212.5394</v>
+        <v>10010</v>
       </c>
       <c r="G105" t="n">
-        <v>24.79333333333333</v>
+        <v>24.77333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4099,7 +4309,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4109,22 +4323,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F106" t="n">
-        <v>50000</v>
+        <v>10212.5394</v>
       </c>
       <c r="G106" t="n">
-        <v>24.80833333333333</v>
+        <v>24.79333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4134,7 +4348,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +4362,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C107" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E107" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F107" t="n">
-        <v>130040</v>
+        <v>50000</v>
       </c>
       <c r="G107" t="n">
-        <v>24.81999999999999</v>
+        <v>24.80833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4169,7 +4387,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4179,22 +4401,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C108" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D108" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F108" t="n">
-        <v>37914.1</v>
+        <v>130040</v>
       </c>
       <c r="G108" t="n">
-        <v>24.83166666666666</v>
+        <v>24.81999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4204,7 +4426,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4226,10 +4452,10 @@
         <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>9079.030000000001</v>
+        <v>37914.1</v>
       </c>
       <c r="G109" t="n">
-        <v>24.84166666666665</v>
+        <v>24.83166666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4239,7 +4465,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4252,19 +4482,19 @@
         <v>25</v>
       </c>
       <c r="C110" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E110" t="n">
         <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>39163.3367</v>
+        <v>9079.030000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>24.85333333333332</v>
+        <v>24.84166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4274,7 +4504,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4284,10 +4518,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" t="n">
         <v>25.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25</v>
       </c>
       <c r="D111" t="n">
         <v>25.1</v>
@@ -4296,10 +4530,10 @@
         <v>25</v>
       </c>
       <c r="F111" t="n">
-        <v>9085</v>
+        <v>39163.3367</v>
       </c>
       <c r="G111" t="n">
-        <v>24.86499999999999</v>
+        <v>24.85333333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4309,7 +4543,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4319,22 +4557,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="C112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
-        <v>5801.2749</v>
+        <v>9085</v>
       </c>
       <c r="G112" t="n">
-        <v>24.87499999999999</v>
+        <v>24.86499999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4344,7 +4582,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4360,16 +4602,16 @@
         <v>24.9</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E113" t="n">
         <v>24.9</v>
       </c>
       <c r="F113" t="n">
-        <v>43188.2403</v>
+        <v>5801.2749</v>
       </c>
       <c r="G113" t="n">
-        <v>24.88499999999999</v>
+        <v>24.87499999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4379,7 +4621,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4392,7 +4638,7 @@
         <v>24.9</v>
       </c>
       <c r="C114" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D114" t="n">
         <v>25</v>
@@ -4401,10 +4647,10 @@
         <v>24.9</v>
       </c>
       <c r="F114" t="n">
-        <v>24469.1104</v>
+        <v>43188.2403</v>
       </c>
       <c r="G114" t="n">
-        <v>24.89333333333332</v>
+        <v>24.88499999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4414,7 +4660,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4427,19 +4677,19 @@
         <v>24.9</v>
       </c>
       <c r="C115" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="D115" t="n">
+        <v>25</v>
+      </c>
+      <c r="E115" t="n">
         <v>24.9</v>
       </c>
-      <c r="E115" t="n">
-        <v>24.8</v>
-      </c>
       <c r="F115" t="n">
-        <v>16768.1373</v>
+        <v>24469.1104</v>
       </c>
       <c r="G115" t="n">
-        <v>24.89833333333332</v>
+        <v>24.89333333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4449,7 +4699,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4459,22 +4713,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C116" t="n">
         <v>24.8</v>
       </c>
       <c r="D116" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E116" t="n">
         <v>24.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>16768.1373</v>
       </c>
       <c r="G116" t="n">
-        <v>24.90166666666666</v>
+        <v>24.89833333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4484,7 +4738,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4494,22 +4752,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F117" t="n">
-        <v>9665.7107</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>24.90499999999999</v>
+        <v>24.90166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4519,7 +4777,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4529,19 +4791,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C118" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D118" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E118" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F118" t="n">
-        <v>62885.2292</v>
+        <v>9665.7107</v>
       </c>
       <c r="G118" t="n">
         <v>24.90499999999999</v>
@@ -4554,7 +4816,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4567,19 +4833,19 @@
         <v>24.8</v>
       </c>
       <c r="C119" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D119" t="n">
         <v>24.8</v>
       </c>
       <c r="E119" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F119" t="n">
-        <v>7500</v>
+        <v>62885.2292</v>
       </c>
       <c r="G119" t="n">
-        <v>24.90666666666666</v>
+        <v>24.90499999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4589,7 +4855,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4611,10 +4881,10 @@
         <v>24.8</v>
       </c>
       <c r="F120" t="n">
-        <v>6173.7096</v>
+        <v>7500</v>
       </c>
       <c r="G120" t="n">
-        <v>24.90833333333332</v>
+        <v>24.90666666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4624,7 +4894,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4634,22 +4908,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="E121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F121" t="n">
-        <v>28777.4095</v>
+        <v>6173.7096</v>
       </c>
       <c r="G121" t="n">
-        <v>24.90999999999999</v>
+        <v>24.90833333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4659,7 +4933,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4669,22 +4947,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="C122" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="D122" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E122" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F122" t="n">
-        <v>150758.6156</v>
+        <v>28777.4095</v>
       </c>
       <c r="G122" t="n">
-        <v>24.90833333333332</v>
+        <v>24.90999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4694,8 +4972,51 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>150758.6156</v>
+      </c>
+      <c r="G123" t="n">
+        <v>24.90833333333332</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5100</v>
       </c>
       <c r="G2" t="n">
+        <v>23.09333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>23.08499999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>400</v>
       </c>
       <c r="G3" t="n">
+        <v>23.10666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>23.08999999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
+        <v>23.14666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>23.09166666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2000</v>
       </c>
       <c r="G5" t="n">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>23.08999999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,27 @@
         <v>45454.4869</v>
       </c>
       <c r="G6" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="H6" t="n">
         <v>23.08999999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +649,27 @@
         <v>10211</v>
       </c>
       <c r="G7" t="n">
+        <v>23.19333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>23.09999999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +693,27 @@
         <v>67356.36749999999</v>
       </c>
       <c r="G8" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="H8" t="n">
         <v>23.10833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23.4</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,27 @@
         <v>2000</v>
       </c>
       <c r="G9" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="H9" t="n">
         <v>23.11666666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23.5</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +781,27 @@
         <v>5775</v>
       </c>
       <c r="G10" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="H10" t="n">
         <v>23.12666666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>23.5</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +825,25 @@
         <v>10000</v>
       </c>
       <c r="G11" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>23.13666666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +867,25 @@
         <v>40000.007</v>
       </c>
       <c r="G12" t="n">
+        <v>23.36666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>23.14666666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +909,25 @@
         <v>6030</v>
       </c>
       <c r="G13" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H13" t="n">
         <v>23.16166666666665</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +951,25 @@
         <v>18000</v>
       </c>
       <c r="G14" t="n">
+        <v>23.47333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>23.17833333333332</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +993,25 @@
         <v>14000</v>
       </c>
       <c r="G15" t="n">
+        <v>23.52666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>23.19499999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1035,25 @@
         <v>36717.10242348178</v>
       </c>
       <c r="G16" t="n">
+        <v>23.62666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>23.22333333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1077,25 @@
         <v>4538.3805</v>
       </c>
       <c r="G17" t="n">
+        <v>23.67333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>23.23999999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1119,25 @@
         <v>18000</v>
       </c>
       <c r="G18" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H18" t="n">
         <v>23.26833333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1161,25 @@
         <v>48000.0104</v>
       </c>
       <c r="G19" t="n">
+        <v>23.85333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>23.29833333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1203,25 @@
         <v>4000</v>
       </c>
       <c r="G20" t="n">
+        <v>23.95333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>23.33499999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1245,25 @@
         <v>14650.8064</v>
       </c>
       <c r="G21" t="n">
+        <v>24.05333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>23.36499999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1287,25 @@
         <v>9179.275600000001</v>
       </c>
       <c r="G22" t="n">
+        <v>24.11333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>23.39333333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1329,25 @@
         <v>19132.4567</v>
       </c>
       <c r="G23" t="n">
+        <v>24.13333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>23.40666666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1371,25 @@
         <v>5163.3425</v>
       </c>
       <c r="G24" t="n">
+        <v>24.18666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>23.42833333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1413,25 @@
         <v>11372.5069</v>
       </c>
       <c r="G25" t="n">
+        <v>24.23333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>23.45499999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1455,25 @@
         <v>16552.4399</v>
       </c>
       <c r="G26" t="n">
+        <v>24.31333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>23.48666666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1497,25 @@
         <v>28975</v>
       </c>
       <c r="G27" t="n">
+        <v>24.39333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>23.51666666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1539,25 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
+        <v>24.34000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>23.51833333333332</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1581,25 @@
         <v>14615.598</v>
       </c>
       <c r="G29" t="n">
+        <v>24.34666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>23.53666666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1623,25 @@
         <v>2000</v>
       </c>
       <c r="G30" t="n">
+        <v>24.34666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>23.55333333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1665,25 @@
         <v>14289.1794</v>
       </c>
       <c r="G31" t="n">
+        <v>24.34666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>23.58166666666665</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1707,25 @@
         <v>9784.569100000001</v>
       </c>
       <c r="G32" t="n">
+        <v>24.38666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>23.61166666666665</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1749,25 @@
         <v>8326.18</v>
       </c>
       <c r="G33" t="n">
+        <v>24.33333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>23.62499999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1791,25 @@
         <v>4475</v>
       </c>
       <c r="G34" t="n">
+        <v>24.27333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>23.63833333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1833,25 @@
         <v>18183.407</v>
       </c>
       <c r="G35" t="n">
+        <v>24.21333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>23.64499999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1875,25 @@
         <v>4000</v>
       </c>
       <c r="G36" t="n">
+        <v>24.14666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>23.65333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1917,25 @@
         <v>17031</v>
       </c>
       <c r="G37" t="n">
+        <v>24.11333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>23.66333333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1959,25 @@
         <v>802</v>
       </c>
       <c r="G38" t="n">
+        <v>24.10666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>23.67166666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2001,25 @@
         <v>22847.457</v>
       </c>
       <c r="G39" t="n">
+        <v>24.05333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>23.67666666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2043,25 @@
         <v>17269</v>
       </c>
       <c r="G40" t="n">
+        <v>24.00666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>23.67499999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2085,25 @@
         <v>14773</v>
       </c>
       <c r="G41" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="H41" t="n">
         <v>23.67333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2127,25 @@
         <v>2837.6099</v>
       </c>
       <c r="G42" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>23.67666666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2169,25 @@
         <v>1918.9981</v>
       </c>
       <c r="G43" t="n">
+        <v>23.86666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>23.68166666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,24 +2211,25 @@
         <v>6613</v>
       </c>
       <c r="G44" t="n">
+        <v>23.85333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>23.69333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1959,22 +2253,25 @@
         <v>100</v>
       </c>
       <c r="G45" t="n">
+        <v>23.84666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>23.70166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,22 +2295,25 @@
         <v>5651.4303</v>
       </c>
       <c r="G46" t="n">
+        <v>23.79333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>23.71666666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2037,22 +2337,25 @@
         <v>847.457</v>
       </c>
       <c r="G47" t="n">
+        <v>23.75999999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>23.72833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,22 +2379,25 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
+        <v>23.79333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>23.74833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2115,22 +2421,25 @@
         <v>7500</v>
       </c>
       <c r="G49" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="H49" t="n">
         <v>23.77333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,22 +2463,25 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
+        <v>23.85333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>23.79666666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2193,22 +2505,25 @@
         <v>4000</v>
       </c>
       <c r="G51" t="n">
+        <v>23.89333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>23.81833333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,22 +2547,25 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
+        <v>23.92666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>23.83666666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2271,22 +2589,25 @@
         <v>7500</v>
       </c>
       <c r="G53" t="n">
+        <v>23.96666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>23.85666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2310,22 +2631,25 @@
         <v>4675.8436</v>
       </c>
       <c r="G54" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="H54" t="n">
         <v>23.875</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2349,22 +2673,25 @@
         <v>1488.2416</v>
       </c>
       <c r="G55" t="n">
+        <v>24.08666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>23.90166666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,22 +2715,25 @@
         <v>7236.0816</v>
       </c>
       <c r="G56" t="n">
+        <v>24.15333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>23.93</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2427,22 +2757,25 @@
         <v>11678.6078</v>
       </c>
       <c r="G57" t="n">
+        <v>24.22666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>23.95499999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,22 +2799,25 @@
         <v>11379.1093</v>
       </c>
       <c r="G58" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H58" t="n">
         <v>23.98166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2505,22 +2841,25 @@
         <v>8799.3927</v>
       </c>
       <c r="G59" t="n">
+        <v>24.35333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>24.00666666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,22 +2883,25 @@
         <v>21195.9793</v>
       </c>
       <c r="G60" t="n">
+        <v>24.40666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>24.03166666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,22 +2925,25 @@
         <v>4000</v>
       </c>
       <c r="G61" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="H61" t="n">
         <v>24.05666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2622,22 +2967,25 @@
         <v>12000</v>
       </c>
       <c r="G62" t="n">
+        <v>24.49333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>24.07833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2661,22 +3009,25 @@
         <v>2000</v>
       </c>
       <c r="G63" t="n">
+        <v>24.50666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>24.09833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,22 +3051,25 @@
         <v>14000</v>
       </c>
       <c r="G64" t="n">
+        <v>24.52666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>24.11833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,22 +3093,25 @@
         <v>41727.2403</v>
       </c>
       <c r="G65" t="n">
+        <v>24.46666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>24.12166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,22 +3135,25 @@
         <v>10427</v>
       </c>
       <c r="G66" t="n">
+        <v>24.48000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>24.14333333333332</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2817,22 +3177,25 @@
         <v>37266</v>
       </c>
       <c r="G67" t="n">
+        <v>24.50000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>24.16333333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,22 +3219,25 @@
         <v>360</v>
       </c>
       <c r="G68" t="n">
+        <v>24.52666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>24.18333333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2895,22 +3261,25 @@
         <v>7500</v>
       </c>
       <c r="G69" t="n">
+        <v>24.52666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>24.19666666666665</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,22 +3303,25 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>24.54000000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>24.21666666666665</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2973,22 +3345,25 @@
         <v>2169.3749</v>
       </c>
       <c r="G71" t="n">
+        <v>24.55333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>24.23499999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3012,22 +3387,25 @@
         <v>139699.5883</v>
       </c>
       <c r="G72" t="n">
+        <v>24.48666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>24.23499999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3051,22 +3429,25 @@
         <v>26842.1049</v>
       </c>
       <c r="G73" t="n">
+        <v>24.48666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>24.24833333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,22 +3471,25 @@
         <v>3157.8951</v>
       </c>
       <c r="G74" t="n">
+        <v>24.48666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>24.25999999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3129,22 +3513,25 @@
         <v>3359.0904</v>
       </c>
       <c r="G75" t="n">
+        <v>24.48666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>24.27166666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3168,22 +3555,25 @@
         <v>3349.0904</v>
       </c>
       <c r="G76" t="n">
+        <v>24.48666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>24.27166666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,22 +3597,25 @@
         <v>123716.5777</v>
       </c>
       <c r="G77" t="n">
+        <v>24.50666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>24.28666666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3246,22 +3639,25 @@
         <v>657.9941</v>
       </c>
       <c r="G78" t="n">
+        <v>24.53333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>24.29166666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3285,22 +3681,25 @@
         <v>3999.4</v>
       </c>
       <c r="G79" t="n">
+        <v>24.55333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>24.29333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,22 +3723,25 @@
         <v>4604.52</v>
       </c>
       <c r="G80" t="n">
+        <v>24.65333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>24.29666666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3363,22 +3765,25 @@
         <v>54456.9361</v>
       </c>
       <c r="G81" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="H81" t="n">
         <v>24.3</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,22 +3807,25 @@
         <v>135995.4103</v>
       </c>
       <c r="G82" t="n">
+        <v>24.70666666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>24.31166666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,22 +3849,25 @@
         <v>104990.9148</v>
       </c>
       <c r="G83" t="n">
+        <v>24.73999999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>24.335</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,22 +3891,25 @@
         <v>42848.0512</v>
       </c>
       <c r="G84" t="n">
+        <v>24.79999999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>24.35</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3519,22 +3933,25 @@
         <v>36921.1524</v>
       </c>
       <c r="G85" t="n">
+        <v>24.83333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>24.36666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,22 +3975,25 @@
         <v>16962.0159</v>
       </c>
       <c r="G86" t="n">
+        <v>24.87333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>24.375</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,24 +4017,25 @@
         <v>26869.7888</v>
       </c>
       <c r="G87" t="n">
+        <v>24.99333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>24.385</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3636,22 +4057,21 @@
         <v>17611.0118</v>
       </c>
       <c r="G88" t="n">
+        <v>25.03333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>24.42166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,22 +4095,21 @@
         <v>116629.8918</v>
       </c>
       <c r="G89" t="n">
+        <v>25.07333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>24.44166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,22 +4133,21 @@
         <v>17510</v>
       </c>
       <c r="G90" t="n">
+        <v>25.10666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>24.46166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,22 +4171,21 @@
         <v>8020</v>
       </c>
       <c r="G91" t="n">
+        <v>25.14666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>24.47166666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,22 +4209,21 @@
         <v>16000.1581</v>
       </c>
       <c r="G92" t="n">
+        <v>25.17333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>24.48333333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3831,22 +4247,21 @@
         <v>9742.162899999999</v>
       </c>
       <c r="G93" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="H93" t="n">
         <v>24.50333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,22 +4285,21 @@
         <v>9179.2063</v>
       </c>
       <c r="G94" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="H94" t="n">
         <v>24.525</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3909,22 +4323,21 @@
         <v>4000</v>
       </c>
       <c r="G95" t="n">
+        <v>25.20666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>24.545</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,22 +4361,21 @@
         <v>2000</v>
       </c>
       <c r="G96" t="n">
+        <v>25.21333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>24.56666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,22 +4399,21 @@
         <v>19371.4743</v>
       </c>
       <c r="G97" t="n">
+        <v>25.22666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>24.59</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,22 +4437,21 @@
         <v>11058.14</v>
       </c>
       <c r="G98" t="n">
+        <v>25.22000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>24.61333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4065,22 +4475,21 @@
         <v>11010</v>
       </c>
       <c r="G99" t="n">
+        <v>25.22000000000001</v>
+      </c>
+      <c r="H99" t="n">
         <v>24.64166666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,22 +4513,21 @@
         <v>19763.9325</v>
       </c>
       <c r="G100" t="n">
+        <v>25.20666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>24.66666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,22 +4551,21 @@
         <v>43633.0025</v>
       </c>
       <c r="G101" t="n">
+        <v>25.18666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>24.69166666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,22 +4589,21 @@
         <v>9714.8575</v>
       </c>
       <c r="G102" t="n">
+        <v>25.15333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>24.715</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4221,22 +4627,21 @@
         <v>27985.6225</v>
       </c>
       <c r="G103" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="H103" t="n">
         <v>24.735</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,22 +4665,21 @@
         <v>46685</v>
       </c>
       <c r="G104" t="n">
+        <v>25.10666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>24.755</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,22 +4703,21 @@
         <v>10010</v>
       </c>
       <c r="G105" t="n">
+        <v>25.09333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>24.77333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,22 +4741,21 @@
         <v>10212.5394</v>
       </c>
       <c r="G106" t="n">
+        <v>25.08000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>24.79333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,22 +4779,21 @@
         <v>50000</v>
       </c>
       <c r="G107" t="n">
+        <v>25.06000000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>24.80833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,22 +4817,21 @@
         <v>130040</v>
       </c>
       <c r="G108" t="n">
+        <v>25.06000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>24.81999999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,22 +4855,21 @@
         <v>37914.1</v>
       </c>
       <c r="G109" t="n">
+        <v>25.04666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>24.83166666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,22 +4893,21 @@
         <v>9079.030000000001</v>
       </c>
       <c r="G110" t="n">
+        <v>25.04000000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>24.84166666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4533,22 +4931,21 @@
         <v>39163.3367</v>
       </c>
       <c r="G111" t="n">
+        <v>25.04000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>24.85333333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,22 +4969,21 @@
         <v>9085</v>
       </c>
       <c r="G112" t="n">
+        <v>25.02666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>24.86499999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4611,22 +5007,21 @@
         <v>5801.2749</v>
       </c>
       <c r="G113" t="n">
+        <v>25.01333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>24.87499999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,22 +5045,21 @@
         <v>43188.2403</v>
       </c>
       <c r="G114" t="n">
+        <v>24.99333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>24.88499999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4689,22 +5083,21 @@
         <v>24469.1104</v>
       </c>
       <c r="G115" t="n">
+        <v>24.99333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>24.89333333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,22 +5121,21 @@
         <v>16768.1373</v>
       </c>
       <c r="G116" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="H116" t="n">
         <v>24.89833333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4767,22 +5159,21 @@
         <v>2000</v>
       </c>
       <c r="G117" t="n">
+        <v>24.97333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>24.90166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,22 +5197,21 @@
         <v>9665.7107</v>
       </c>
       <c r="G118" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="H118" t="n">
         <v>24.90499999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,22 +5235,21 @@
         <v>62885.2292</v>
       </c>
       <c r="G119" t="n">
+        <v>24.95333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>24.90499999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,22 +5273,21 @@
         <v>7500</v>
       </c>
       <c r="G120" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="H120" t="n">
         <v>24.90666666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4923,22 +5311,21 @@
         <v>6173.7096</v>
       </c>
       <c r="G121" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="H121" t="n">
         <v>24.90833333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,22 +5349,21 @@
         <v>28777.4095</v>
       </c>
       <c r="G122" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="H122" t="n">
         <v>24.90999999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,22 +5387,401 @@
         <v>150758.6156</v>
       </c>
       <c r="G123" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="H123" t="n">
         <v>24.90833333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>39497.3681</v>
+      </c>
+      <c r="G124" t="n">
+        <v>24.82666666666666</v>
+      </c>
+      <c r="H124" t="n">
+        <v>24.90666666666666</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7406.4825</v>
+      </c>
+      <c r="G125" t="n">
+        <v>24.78666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>24.92166666666666</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8508</v>
+      </c>
+      <c r="G126" t="n">
+        <v>24.73333333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>24.91666666666666</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>17629.1769</v>
+      </c>
+      <c r="G127" t="n">
+        <v>24.68666666666666</v>
+      </c>
+      <c r="H127" t="n">
+        <v>24.91166666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1956.8876</v>
+      </c>
+      <c r="G128" t="n">
+        <v>24.64666666666666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>24.90499999999999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4202.9487</v>
+      </c>
+      <c r="G129" t="n">
+        <v>24.60666666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>24.90499999999999</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17037.7371</v>
+      </c>
+      <c r="G130" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="H130" t="n">
+        <v>24.89833333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G131" t="n">
+        <v>24.52666666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>24.89166666666666</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>24.48666666666667</v>
+      </c>
+      <c r="H132" t="n">
+        <v>24.90166666666666</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3335.1028</v>
+      </c>
+      <c r="G133" t="n">
+        <v>24.44666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>24.89499999999999</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="C2" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D2" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E2" t="n">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="F2" t="n">
-        <v>5100</v>
+        <v>39842.4139</v>
       </c>
       <c r="G2" t="n">
-        <v>23.09333333333334</v>
+        <v>-4490361.6332</v>
       </c>
       <c r="H2" t="n">
-        <v>23.08499999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>502.611</v>
       </c>
       <c r="G3" t="n">
-        <v>23.10666666666667</v>
+        <v>-4490361.6332</v>
       </c>
       <c r="H3" t="n">
-        <v>23.08999999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C4" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D4" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E4" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>23.14666666666666</v>
+        <v>-4490351.6332</v>
       </c>
       <c r="H4" t="n">
-        <v>23.09166666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,24 +550,21 @@
         <v>23.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G5" t="n">
-        <v>23.16666666666667</v>
+        <v>-4494351.6332</v>
       </c>
       <c r="H5" t="n">
-        <v>23.08999999999999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -593,39 +576,30 @@
         <v>23.3</v>
       </c>
       <c r="C6" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D6" t="n">
         <v>23.3</v>
       </c>
-      <c r="D6" t="n">
-        <v>23.4</v>
-      </c>
       <c r="E6" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F6" t="n">
-        <v>45454.4869</v>
+        <v>19730.4</v>
       </c>
       <c r="G6" t="n">
-        <v>23.18</v>
+        <v>-4514082.0332</v>
       </c>
       <c r="H6" t="n">
-        <v>23.08999999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C7" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D7" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="E7" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F7" t="n">
-        <v>10211</v>
+        <v>4055.2968</v>
       </c>
       <c r="G7" t="n">
-        <v>23.19333333333333</v>
+        <v>-4514082.0332</v>
       </c>
       <c r="H7" t="n">
-        <v>23.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="D8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="E8" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F8" t="n">
-        <v>67356.36749999999</v>
+        <v>5991.02</v>
       </c>
       <c r="G8" t="n">
-        <v>23.22</v>
+        <v>-4514082.0332</v>
       </c>
       <c r="H8" t="n">
-        <v>23.10833333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>23.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F9" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>23.24</v>
+        <v>-4514072.0332</v>
       </c>
       <c r="H9" t="n">
-        <v>23.11666666666666</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -769,39 +716,30 @@
         <v>23.5</v>
       </c>
       <c r="C10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E10" t="n">
         <v>23.5</v>
       </c>
       <c r="F10" t="n">
-        <v>5775</v>
+        <v>39551.9307</v>
       </c>
       <c r="G10" t="n">
-        <v>23.28</v>
+        <v>-4514072.0332</v>
       </c>
       <c r="H10" t="n">
-        <v>23.12666666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -810,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D11" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E11" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>407.06</v>
       </c>
       <c r="G11" t="n">
-        <v>23.33333333333333</v>
+        <v>-4514479.0932</v>
       </c>
       <c r="H11" t="n">
-        <v>23.13666666666666</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -852,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C12" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D12" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E12" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F12" t="n">
-        <v>40000.007</v>
+        <v>392.35</v>
       </c>
       <c r="G12" t="n">
-        <v>23.36666666666667</v>
+        <v>-4514479.0932</v>
       </c>
       <c r="H12" t="n">
-        <v>23.14666666666665</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="D13" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="E13" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F13" t="n">
-        <v>6030</v>
+        <v>192.95</v>
       </c>
       <c r="G13" t="n">
-        <v>23.42</v>
+        <v>-4514672.0432</v>
       </c>
       <c r="H13" t="n">
-        <v>23.16166666666665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -936,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="E14" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="F14" t="n">
-        <v>18000</v>
+        <v>1011</v>
       </c>
       <c r="G14" t="n">
-        <v>23.47333333333333</v>
+        <v>-4513661.0432</v>
       </c>
       <c r="H14" t="n">
-        <v>23.17833333333332</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -978,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>14000</v>
+        <v>59798.5018</v>
       </c>
       <c r="G15" t="n">
-        <v>23.52666666666666</v>
+        <v>-4573459.545</v>
       </c>
       <c r="H15" t="n">
-        <v>23.19499999999999</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1020,40 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="D16" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="F16" t="n">
-        <v>36717.10242348178</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>23.62666666666667</v>
+        <v>-4573449.545</v>
       </c>
       <c r="H16" t="n">
-        <v>23.22333333333332</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1062,40 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="D17" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="F17" t="n">
-        <v>4538.3805</v>
+        <v>58661.5034</v>
       </c>
       <c r="G17" t="n">
-        <v>23.67333333333333</v>
+        <v>-4632111.0484</v>
       </c>
       <c r="H17" t="n">
-        <v>23.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.4</v>
+        <v>22.9</v>
       </c>
       <c r="C18" t="n">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="D18" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="E18" t="n">
-        <v>24.4</v>
+        <v>22.8</v>
       </c>
       <c r="F18" t="n">
-        <v>18000</v>
+        <v>20966.5836</v>
       </c>
       <c r="G18" t="n">
-        <v>23.76</v>
+        <v>-4653077.631999999</v>
       </c>
       <c r="H18" t="n">
-        <v>23.26833333333332</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1146,40 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="C19" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="E19" t="n">
-        <v>24.7</v>
+        <v>22.7</v>
       </c>
       <c r="F19" t="n">
-        <v>48000.0104</v>
+        <v>66613.6823</v>
       </c>
       <c r="G19" t="n">
-        <v>23.85333333333334</v>
+        <v>-4586463.949699999</v>
       </c>
       <c r="H19" t="n">
-        <v>23.29833333333332</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1188,40 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="D20" t="n">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="E20" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>20611</v>
       </c>
       <c r="G20" t="n">
-        <v>23.95333333333333</v>
+        <v>-4565852.949699999</v>
       </c>
       <c r="H20" t="n">
-        <v>23.33499999999999</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1230,40 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="C21" t="n">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="D21" t="n">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="E21" t="n">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="F21" t="n">
-        <v>14650.8064</v>
+        <v>430</v>
       </c>
       <c r="G21" t="n">
-        <v>24.05333333333333</v>
+        <v>-4565422.949699999</v>
       </c>
       <c r="H21" t="n">
-        <v>23.36499999999999</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,40 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="C22" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="D22" t="n">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="E22" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="F22" t="n">
-        <v>9179.275600000001</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="n">
-        <v>24.11333333333334</v>
+        <v>-4570422.949699999</v>
       </c>
       <c r="H22" t="n">
-        <v>23.39333333333332</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>24.3</v>
+        <v>23.2</v>
       </c>
       <c r="C23" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D23" t="n">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="E23" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="F23" t="n">
-        <v>19132.4567</v>
+        <v>7500</v>
       </c>
       <c r="G23" t="n">
-        <v>24.13333333333334</v>
+        <v>-4562922.949699999</v>
       </c>
       <c r="H23" t="n">
-        <v>23.40666666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1356,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24.3</v>
+        <v>22.9</v>
       </c>
       <c r="C24" t="n">
-        <v>24.3</v>
+        <v>22.9</v>
       </c>
       <c r="D24" t="n">
-        <v>24.3</v>
+        <v>22.9</v>
       </c>
       <c r="E24" t="n">
-        <v>24.3</v>
+        <v>22.9</v>
       </c>
       <c r="F24" t="n">
-        <v>5163.3425</v>
+        <v>4818.5059</v>
       </c>
       <c r="G24" t="n">
-        <v>24.18666666666667</v>
+        <v>-4567741.455599999</v>
       </c>
       <c r="H24" t="n">
-        <v>23.42833333333332</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2</v>
+        <v>22.8</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2</v>
+        <v>22.8</v>
       </c>
       <c r="F25" t="n">
-        <v>11372.5069</v>
+        <v>39551.9307</v>
       </c>
       <c r="G25" t="n">
-        <v>24.23333333333334</v>
+        <v>-4607293.386299999</v>
       </c>
       <c r="H25" t="n">
-        <v>23.45499999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1440,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="D26" t="n">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="E26" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>16552.4399</v>
+        <v>6000</v>
       </c>
       <c r="G26" t="n">
-        <v>24.31333333333334</v>
+        <v>-4601293.386299999</v>
       </c>
       <c r="H26" t="n">
-        <v>23.48666666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,40 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="C27" t="n">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="D27" t="n">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="E27" t="n">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="F27" t="n">
-        <v>28975</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>24.39333333333333</v>
+        <v>-4601293.386299999</v>
       </c>
       <c r="H27" t="n">
-        <v>23.51666666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1524,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="C28" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="E28" t="n">
         <v>23.1</v>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>3989.0517</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34000000000001</v>
+        <v>-4597304.3346</v>
       </c>
       <c r="H28" t="n">
-        <v>23.51833333333332</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1566,40 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="C29" t="n">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="D29" t="n">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="E29" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="F29" t="n">
-        <v>14615.598</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>24.34666666666667</v>
+        <v>-4597304.3346</v>
       </c>
       <c r="H29" t="n">
-        <v>23.53666666666665</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="F30" t="n">
-        <v>2000</v>
+        <v>6733.8505</v>
       </c>
       <c r="G30" t="n">
-        <v>24.34666666666667</v>
+        <v>-4597304.3346</v>
       </c>
       <c r="H30" t="n">
-        <v>23.55333333333332</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,40 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="C31" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="D31" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="F31" t="n">
-        <v>14289.1794</v>
+        <v>5100</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34666666666667</v>
+        <v>-4592204.3346</v>
       </c>
       <c r="H31" t="n">
-        <v>23.58166666666665</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,40 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="C32" t="n">
-        <v>24.6</v>
+        <v>23.4</v>
       </c>
       <c r="D32" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="E32" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="F32" t="n">
-        <v>9784.569100000001</v>
+        <v>400</v>
       </c>
       <c r="G32" t="n">
-        <v>24.38666666666667</v>
+        <v>-4591804.3346</v>
       </c>
       <c r="H32" t="n">
-        <v>23.61166666666665</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,40 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="C33" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D33" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="E33" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="F33" t="n">
-        <v>8326.18</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>24.33333333333334</v>
+        <v>-4591804.3346</v>
       </c>
       <c r="H33" t="n">
-        <v>23.62499999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,40 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="C34" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="D34" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="E34" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="F34" t="n">
-        <v>4475</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="n">
-        <v>24.27333333333334</v>
+        <v>-4593804.3346</v>
       </c>
       <c r="H34" t="n">
-        <v>23.63833333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,40 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="C35" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="D35" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="E35" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="F35" t="n">
-        <v>18183.407</v>
+        <v>45454.4869</v>
       </c>
       <c r="G35" t="n">
-        <v>24.21333333333333</v>
+        <v>-4593804.3346</v>
       </c>
       <c r="H35" t="n">
-        <v>23.64499999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,40 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C36" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="D36" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E36" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>10211</v>
       </c>
       <c r="G36" t="n">
-        <v>24.14666666666667</v>
+        <v>-4583593.3346</v>
       </c>
       <c r="H36" t="n">
-        <v>23.65333333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,40 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="C37" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="D37" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="E37" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="F37" t="n">
-        <v>17031</v>
+        <v>67356.36749999999</v>
       </c>
       <c r="G37" t="n">
-        <v>24.11333333333334</v>
+        <v>-4516236.9671</v>
       </c>
       <c r="H37" t="n">
-        <v>23.66333333333332</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1944,40 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="C38" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="D38" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="E38" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="F38" t="n">
-        <v>802</v>
+        <v>2000</v>
       </c>
       <c r="G38" t="n">
-        <v>24.10666666666667</v>
+        <v>-4516236.9671</v>
       </c>
       <c r="H38" t="n">
-        <v>23.67166666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,40 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C39" t="n">
         <v>23.5</v>
       </c>
       <c r="D39" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E39" t="n">
         <v>23.5</v>
       </c>
       <c r="F39" t="n">
-        <v>22847.457</v>
+        <v>5775</v>
       </c>
       <c r="G39" t="n">
-        <v>24.05333333333333</v>
+        <v>-4516236.9671</v>
       </c>
       <c r="H39" t="n">
-        <v>23.67666666666666</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2031,7 +1766,7 @@
         <v>23.5</v>
       </c>
       <c r="C40" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D40" t="n">
         <v>23.6</v>
@@ -2040,28 +1775,21 @@
         <v>23.5</v>
       </c>
       <c r="F40" t="n">
-        <v>17269</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>24.00666666666667</v>
+        <v>-4506236.9671</v>
       </c>
       <c r="H40" t="n">
-        <v>23.67499999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,40 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C41" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="E41" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F41" t="n">
-        <v>14773</v>
+        <v>40000.007</v>
       </c>
       <c r="G41" t="n">
-        <v>23.92</v>
+        <v>-4506236.9671</v>
       </c>
       <c r="H41" t="n">
-        <v>23.67333333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,40 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C42" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D42" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="E42" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F42" t="n">
-        <v>2837.6099</v>
+        <v>6030</v>
       </c>
       <c r="G42" t="n">
-        <v>23.83333333333333</v>
+        <v>-4500206.9671</v>
       </c>
       <c r="H42" t="n">
-        <v>23.67666666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,40 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="C43" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="F43" t="n">
-        <v>1918.9981</v>
+        <v>18000</v>
       </c>
       <c r="G43" t="n">
-        <v>23.86666666666667</v>
+        <v>-4482206.9671</v>
       </c>
       <c r="H43" t="n">
-        <v>23.68166666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2196,40 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>6613</v>
+        <v>14000</v>
       </c>
       <c r="G44" t="n">
-        <v>23.85333333333333</v>
+        <v>-4482206.9671</v>
       </c>
       <c r="H44" t="n">
-        <v>23.69333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2238,40 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C45" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="D45" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="E45" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>36717.10242348178</v>
       </c>
       <c r="G45" t="n">
-        <v>23.84666666666666</v>
+        <v>-4445489.864676518</v>
       </c>
       <c r="H45" t="n">
-        <v>23.70166666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,40 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="C46" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="E46" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>5651.4303</v>
+        <v>4538.3805</v>
       </c>
       <c r="G46" t="n">
-        <v>23.79333333333333</v>
+        <v>-4450028.245176518</v>
       </c>
       <c r="H46" t="n">
-        <v>23.71666666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,40 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="C47" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="D47" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="E47" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="F47" t="n">
-        <v>847.457</v>
+        <v>18000</v>
       </c>
       <c r="G47" t="n">
-        <v>23.75999999999999</v>
+        <v>-4432028.245176518</v>
       </c>
       <c r="H47" t="n">
-        <v>23.72833333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,40 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C48" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="D48" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="E48" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>48000.0104</v>
       </c>
       <c r="G48" t="n">
-        <v>23.79333333333333</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H48" t="n">
-        <v>23.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,40 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="C49" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D49" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="E49" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="F49" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="n">
-        <v>23.82</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H49" t="n">
-        <v>23.77333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,40 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="C50" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="D50" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="E50" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>14650.8064</v>
       </c>
       <c r="G50" t="n">
-        <v>23.85333333333333</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H50" t="n">
-        <v>23.79666666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2493,37 +2151,30 @@
         <v>24.4</v>
       </c>
       <c r="C51" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D51" t="n">
         <v>24.4</v>
       </c>
       <c r="E51" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>9179.275600000001</v>
       </c>
       <c r="G51" t="n">
-        <v>23.89333333333333</v>
+        <v>-4393207.510376519</v>
       </c>
       <c r="H51" t="n">
-        <v>23.81833333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2535,37 +2186,30 @@
         <v>24.3</v>
       </c>
       <c r="C52" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="D52" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="E52" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>19132.4567</v>
       </c>
       <c r="G52" t="n">
-        <v>23.92666666666666</v>
+        <v>-4412339.967076519</v>
       </c>
       <c r="H52" t="n">
-        <v>23.83666666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,28 +2230,21 @@
         <v>24.3</v>
       </c>
       <c r="F53" t="n">
-        <v>7500</v>
+        <v>5163.3425</v>
       </c>
       <c r="G53" t="n">
-        <v>23.96666666666666</v>
+        <v>-4407176.624576518</v>
       </c>
       <c r="H53" t="n">
-        <v>23.85666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2616,40 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C54" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D54" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="E54" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F54" t="n">
-        <v>4675.8436</v>
+        <v>11372.5069</v>
       </c>
       <c r="G54" t="n">
-        <v>24.02</v>
+        <v>-4418549.131476519</v>
       </c>
       <c r="H54" t="n">
-        <v>23.875</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,40 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C55" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="D55" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="E55" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="F55" t="n">
-        <v>1488.2416</v>
+        <v>16552.4399</v>
       </c>
       <c r="G55" t="n">
-        <v>24.08666666666666</v>
+        <v>-4401996.691576519</v>
       </c>
       <c r="H55" t="n">
-        <v>23.90166666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,40 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="C56" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="D56" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="E56" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F56" t="n">
-        <v>7236.0816</v>
+        <v>28975</v>
       </c>
       <c r="G56" t="n">
-        <v>24.15333333333333</v>
+        <v>-4401996.691576519</v>
       </c>
       <c r="H56" t="n">
-        <v>23.93</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,40 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="C57" t="n">
-        <v>24.6</v>
+        <v>23.1</v>
       </c>
       <c r="D57" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="E57" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="F57" t="n">
-        <v>11678.6078</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>24.22666666666667</v>
+        <v>-4411996.691576519</v>
       </c>
       <c r="H57" t="n">
-        <v>23.95499999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,40 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.7</v>
+        <v>23.7</v>
       </c>
       <c r="C58" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="D58" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="E58" t="n">
-        <v>24.7</v>
+        <v>23.7</v>
       </c>
       <c r="F58" t="n">
-        <v>11379.1093</v>
+        <v>14615.598</v>
       </c>
       <c r="G58" t="n">
-        <v>24.3</v>
+        <v>-4397381.093576519</v>
       </c>
       <c r="H58" t="n">
-        <v>23.98166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,40 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="C59" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="E59" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="F59" t="n">
-        <v>8799.3927</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>24.35333333333333</v>
+        <v>-4399381.093576519</v>
       </c>
       <c r="H59" t="n">
-        <v>24.00666666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="C60" t="n">
         <v>24.7</v>
@@ -2877,31 +2472,24 @@
         <v>24.7</v>
       </c>
       <c r="E60" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>21195.9793</v>
+        <v>14289.1794</v>
       </c>
       <c r="G60" t="n">
-        <v>24.40666666666666</v>
+        <v>-4385091.914176519</v>
       </c>
       <c r="H60" t="n">
-        <v>24.03166666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,40 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="C61" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D61" t="n">
         <v>24.7</v>
       </c>
       <c r="E61" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>9784.569100000001</v>
       </c>
       <c r="G61" t="n">
-        <v>24.46</v>
+        <v>-4394876.483276519</v>
       </c>
       <c r="H61" t="n">
-        <v>24.05666666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,40 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="C62" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="D62" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E62" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="F62" t="n">
-        <v>12000</v>
+        <v>8326.18</v>
       </c>
       <c r="G62" t="n">
-        <v>24.49333333333333</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H62" t="n">
-        <v>24.07833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,40 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="C63" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="D63" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E63" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>4475</v>
       </c>
       <c r="G63" t="n">
-        <v>24.50666666666667</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H63" t="n">
-        <v>24.09833333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,40 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="C64" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="D64" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E64" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="F64" t="n">
-        <v>14000</v>
+        <v>18183.407</v>
       </c>
       <c r="G64" t="n">
-        <v>24.52666666666667</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H64" t="n">
-        <v>24.11833333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,40 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="C65" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="D65" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="E65" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="F65" t="n">
-        <v>41727.2403</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="n">
-        <v>24.46666666666667</v>
+        <v>-4407202.663276519</v>
       </c>
       <c r="H65" t="n">
-        <v>24.12166666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,40 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="C66" t="n">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="D66" t="n">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="E66" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="F66" t="n">
-        <v>10427</v>
+        <v>17031</v>
       </c>
       <c r="G66" t="n">
-        <v>24.48000000000001</v>
+        <v>-4407202.663276519</v>
       </c>
       <c r="H66" t="n">
-        <v>24.14333333333332</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,40 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="C67" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="D67" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="E67" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="F67" t="n">
-        <v>37266</v>
+        <v>802</v>
       </c>
       <c r="G67" t="n">
-        <v>24.50000000000001</v>
+        <v>-4408004.663276519</v>
       </c>
       <c r="H67" t="n">
-        <v>24.16333333333332</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,40 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>24.6</v>
+        <v>23.6</v>
       </c>
       <c r="C68" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="D68" t="n">
-        <v>24.7</v>
+        <v>23.6</v>
       </c>
       <c r="E68" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="F68" t="n">
-        <v>360</v>
+        <v>22847.457</v>
       </c>
       <c r="G68" t="n">
-        <v>24.52666666666667</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H68" t="n">
-        <v>24.18333333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3246,40 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="C69" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="D69" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="E69" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="F69" t="n">
-        <v>7500</v>
+        <v>17269</v>
       </c>
       <c r="G69" t="n">
-        <v>24.52666666666667</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H69" t="n">
-        <v>24.19666666666665</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,40 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="C70" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="D70" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="E70" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>14773</v>
       </c>
       <c r="G70" t="n">
-        <v>24.54000000000001</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H70" t="n">
-        <v>24.21666666666665</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,40 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="C71" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="D71" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="E71" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2169.3749</v>
+        <v>2837.6099</v>
       </c>
       <c r="G71" t="n">
-        <v>24.55333333333334</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H71" t="n">
-        <v>24.23499999999999</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,40 +2883,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>24.5</v>
+        <v>23.6</v>
       </c>
       <c r="C72" t="n">
         <v>23.6</v>
       </c>
       <c r="D72" t="n">
-        <v>24.7</v>
+        <v>23.6</v>
       </c>
       <c r="E72" t="n">
         <v>23.6</v>
       </c>
       <c r="F72" t="n">
-        <v>139699.5883</v>
+        <v>1918.9981</v>
       </c>
       <c r="G72" t="n">
-        <v>24.48666666666667</v>
+        <v>-4428933.122176519</v>
       </c>
       <c r="H72" t="n">
-        <v>24.23499999999999</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>23.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>23.5</v>
+      </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,40 +2922,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="C73" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="D73" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="E73" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="F73" t="n">
-        <v>26842.1049</v>
+        <v>6613</v>
       </c>
       <c r="G73" t="n">
-        <v>24.48666666666667</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H73" t="n">
-        <v>24.24833333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,40 +2963,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="C74" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="D74" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="E74" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="F74" t="n">
-        <v>3157.8951</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>24.48666666666667</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H74" t="n">
-        <v>24.25999999999999</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,40 +3004,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="C75" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="D75" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="E75" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="F75" t="n">
-        <v>3359.0904</v>
+        <v>5651.4303</v>
       </c>
       <c r="G75" t="n">
-        <v>24.48666666666667</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H75" t="n">
-        <v>24.27166666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,40 +3039,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="C76" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="D76" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="E76" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="F76" t="n">
-        <v>3349.0904</v>
+        <v>847.457</v>
       </c>
       <c r="G76" t="n">
-        <v>24.48666666666667</v>
+        <v>-4421472.665176518</v>
       </c>
       <c r="H76" t="n">
-        <v>24.27166666666666</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>23.9</v>
+      </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,40 +3078,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C77" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D77" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E77" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F77" t="n">
-        <v>123716.5777</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>24.50666666666667</v>
+        <v>-4421462.665176518</v>
       </c>
       <c r="H77" t="n">
-        <v>24.28666666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,40 +3119,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="D78" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="E78" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="F78" t="n">
-        <v>657.9941</v>
+        <v>7500</v>
       </c>
       <c r="G78" t="n">
-        <v>24.53333333333333</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H78" t="n">
-        <v>24.29166666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,40 +3160,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C79" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D79" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E79" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F79" t="n">
-        <v>3999.4</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>24.55333333333333</v>
+        <v>-4428952.665176518</v>
       </c>
       <c r="H79" t="n">
-        <v>24.29333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,40 +3195,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="D80" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="E80" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="F80" t="n">
-        <v>4604.52</v>
+        <v>4000</v>
       </c>
       <c r="G80" t="n">
-        <v>24.65333333333333</v>
+        <v>-4428952.665176518</v>
       </c>
       <c r="H80" t="n">
-        <v>24.29666666666666</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,40 +3230,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="C81" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="D81" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="E81" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="F81" t="n">
-        <v>54456.9361</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>24.68</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H81" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,40 +3265,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="D82" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="E82" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="F82" t="n">
-        <v>135995.4103</v>
+        <v>7500</v>
       </c>
       <c r="G82" t="n">
-        <v>24.70666666666666</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H82" t="n">
-        <v>24.31166666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,40 +3300,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="C83" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="D83" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="E83" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="F83" t="n">
-        <v>104990.9148</v>
+        <v>4675.8436</v>
       </c>
       <c r="G83" t="n">
-        <v>24.73999999999999</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H83" t="n">
-        <v>24.335</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,40 +3335,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="C84" t="n">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="D84" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="E84" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="F84" t="n">
-        <v>42848.0512</v>
+        <v>1488.2416</v>
       </c>
       <c r="G84" t="n">
-        <v>24.79999999999999</v>
+        <v>-4427474.423576518</v>
       </c>
       <c r="H84" t="n">
-        <v>24.35</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,40 +3370,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="C85" t="n">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="D85" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="E85" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="F85" t="n">
-        <v>36921.1524</v>
+        <v>7236.0816</v>
       </c>
       <c r="G85" t="n">
-        <v>24.83333333333333</v>
+        <v>-4427474.423576518</v>
       </c>
       <c r="H85" t="n">
-        <v>24.36666666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,40 +3405,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="C86" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="D86" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="E86" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F86" t="n">
-        <v>16962.0159</v>
+        <v>11678.6078</v>
       </c>
       <c r="G86" t="n">
-        <v>24.87333333333333</v>
+        <v>-4415795.815776518</v>
       </c>
       <c r="H86" t="n">
-        <v>24.375</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,76 +3440,68 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="C87" t="n">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="D87" t="n">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="E87" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="F87" t="n">
-        <v>26869.7888</v>
+        <v>11379.1093</v>
       </c>
       <c r="G87" t="n">
-        <v>24.99333333333333</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H87" t="n">
-        <v>24.385</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="C88" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="D88" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="E88" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="F88" t="n">
-        <v>17611.0118</v>
+        <v>8799.3927</v>
       </c>
       <c r="G88" t="n">
-        <v>25.03333333333332</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H88" t="n">
-        <v>24.42166666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,36 +3510,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="C89" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="D89" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="E89" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="F89" t="n">
-        <v>116629.8918</v>
+        <v>21195.9793</v>
       </c>
       <c r="G89" t="n">
-        <v>25.07333333333333</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H89" t="n">
-        <v>24.44166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,36 +3545,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="C90" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D90" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="E90" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="F90" t="n">
-        <v>17510</v>
+        <v>4000</v>
       </c>
       <c r="G90" t="n">
-        <v>25.10666666666666</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H90" t="n">
-        <v>24.46166666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4156,36 +3580,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="C91" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="D91" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="E91" t="n">
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="F91" t="n">
-        <v>8020</v>
+        <v>12000</v>
       </c>
       <c r="G91" t="n">
-        <v>25.14666666666666</v>
+        <v>-4416416.706476518</v>
       </c>
       <c r="H91" t="n">
-        <v>24.47166666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,36 +3615,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="C92" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="D92" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="E92" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="F92" t="n">
-        <v>16000.1581</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>25.17333333333333</v>
+        <v>-4416416.706476518</v>
       </c>
       <c r="H92" t="n">
-        <v>24.48333333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,36 +3650,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="C93" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D93" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E93" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="F93" t="n">
-        <v>9742.162899999999</v>
+        <v>14000</v>
       </c>
       <c r="G93" t="n">
-        <v>25.18</v>
+        <v>-4416416.706476518</v>
       </c>
       <c r="H93" t="n">
-        <v>24.50333333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,36 +3685,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="C94" t="n">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="D94" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="E94" t="n">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="F94" t="n">
-        <v>9179.2063</v>
+        <v>41727.2403</v>
       </c>
       <c r="G94" t="n">
-        <v>25.2</v>
+        <v>-4458143.946776518</v>
       </c>
       <c r="H94" t="n">
-        <v>24.525</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,36 +3720,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="C95" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D95" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E95" t="n">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="F95" t="n">
-        <v>4000</v>
+        <v>10427</v>
       </c>
       <c r="G95" t="n">
-        <v>25.20666666666667</v>
+        <v>-4447716.946776518</v>
       </c>
       <c r="H95" t="n">
-        <v>24.545</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,36 +3755,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="C96" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D96" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E96" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>37266</v>
       </c>
       <c r="G96" t="n">
-        <v>25.21333333333333</v>
+        <v>-4447716.946776518</v>
       </c>
       <c r="H96" t="n">
-        <v>24.56666666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,36 +3790,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="C97" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D97" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="E97" t="n">
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="F97" t="n">
-        <v>19371.4743</v>
+        <v>360</v>
       </c>
       <c r="G97" t="n">
-        <v>25.22666666666667</v>
+        <v>-4447356.946776518</v>
       </c>
       <c r="H97" t="n">
-        <v>24.59</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,36 +3825,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="C98" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="D98" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="E98" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="F98" t="n">
-        <v>11058.14</v>
+        <v>7500</v>
       </c>
       <c r="G98" t="n">
-        <v>25.22000000000001</v>
+        <v>-4454856.946776518</v>
       </c>
       <c r="H98" t="n">
-        <v>24.61333333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,36 +3860,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="C99" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D99" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="E99" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F99" t="n">
-        <v>11010</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>25.22000000000001</v>
+        <v>-4454846.946776518</v>
       </c>
       <c r="H99" t="n">
-        <v>24.64166666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,36 +3895,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="C100" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D100" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E100" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="F100" t="n">
-        <v>19763.9325</v>
+        <v>2169.3749</v>
       </c>
       <c r="G100" t="n">
-        <v>25.20666666666667</v>
+        <v>-4454846.946776518</v>
       </c>
       <c r="H100" t="n">
-        <v>24.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,36 +3930,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C101" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="D101" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E101" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="F101" t="n">
-        <v>43633.0025</v>
+        <v>139699.5883</v>
       </c>
       <c r="G101" t="n">
-        <v>25.18666666666667</v>
+        <v>-4594546.535076518</v>
       </c>
       <c r="H101" t="n">
-        <v>24.69166666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,36 +3965,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C102" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D102" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="E102" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F102" t="n">
-        <v>9714.8575</v>
+        <v>26842.1049</v>
       </c>
       <c r="G102" t="n">
-        <v>25.15333333333334</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H102" t="n">
-        <v>24.715</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,36 +4000,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C103" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D103" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E103" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F103" t="n">
-        <v>27985.6225</v>
+        <v>3157.8951</v>
       </c>
       <c r="G103" t="n">
-        <v>25.12</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H103" t="n">
-        <v>24.735</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,36 +4035,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="C104" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="D104" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="E104" t="n">
-        <v>24.8</v>
+        <v>24.2</v>
       </c>
       <c r="F104" t="n">
-        <v>46685</v>
+        <v>3359.0904</v>
       </c>
       <c r="G104" t="n">
-        <v>25.10666666666667</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H104" t="n">
-        <v>24.755</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,36 +4070,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="C105" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D105" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="E105" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F105" t="n">
-        <v>10010</v>
+        <v>3349.0904</v>
       </c>
       <c r="G105" t="n">
-        <v>25.09333333333334</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H105" t="n">
-        <v>24.77333333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,36 +4105,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="C106" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="D106" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="E106" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F106" t="n">
-        <v>10212.5394</v>
+        <v>123716.5777</v>
       </c>
       <c r="G106" t="n">
-        <v>25.08000000000001</v>
+        <v>-4443987.852476518</v>
       </c>
       <c r="H106" t="n">
-        <v>24.79333333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,24 +4152,21 @@
         <v>25</v>
       </c>
       <c r="F107" t="n">
-        <v>50000</v>
+        <v>657.9941</v>
       </c>
       <c r="G107" t="n">
-        <v>25.06000000000001</v>
+        <v>-4443329.858376518</v>
       </c>
       <c r="H107" t="n">
-        <v>24.80833333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,33 +4178,30 @@
         <v>24.9</v>
       </c>
       <c r="C108" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="D108" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="E108" t="n">
         <v>24.9</v>
       </c>
       <c r="F108" t="n">
-        <v>130040</v>
+        <v>3999.4</v>
       </c>
       <c r="G108" t="n">
-        <v>25.06000000000001</v>
+        <v>-4447329.258376518</v>
       </c>
       <c r="H108" t="n">
-        <v>24.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,24 +4222,21 @@
         <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>37914.1</v>
+        <v>4604.52</v>
       </c>
       <c r="G109" t="n">
-        <v>25.04666666666667</v>
+        <v>-4442724.738376519</v>
       </c>
       <c r="H109" t="n">
-        <v>24.83166666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,30 +4251,27 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E110" t="n">
         <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>9079.030000000001</v>
+        <v>54456.9361</v>
       </c>
       <c r="G110" t="n">
-        <v>25.04000000000001</v>
+        <v>-4442724.738376519</v>
       </c>
       <c r="H110" t="n">
-        <v>24.84166666666665</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,10 +4280,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C111" t="n">
         <v>25</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25.1</v>
       </c>
       <c r="D111" t="n">
         <v>25.1</v>
@@ -4928,24 +4292,21 @@
         <v>25</v>
       </c>
       <c r="F111" t="n">
-        <v>39163.3367</v>
+        <v>135995.4103</v>
       </c>
       <c r="G111" t="n">
-        <v>25.04000000000001</v>
+        <v>-4442724.738376519</v>
       </c>
       <c r="H111" t="n">
-        <v>24.85333333333332</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,36 +4315,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="C112" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="D112" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E112" t="n">
         <v>25</v>
       </c>
       <c r="F112" t="n">
-        <v>9085</v>
+        <v>104990.9148</v>
       </c>
       <c r="G112" t="n">
-        <v>25.02666666666667</v>
+        <v>-4337733.823576518</v>
       </c>
       <c r="H112" t="n">
-        <v>24.86499999999999</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4992,36 +4350,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="C113" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="D113" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="E113" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="F113" t="n">
-        <v>5801.2749</v>
+        <v>42848.0512</v>
       </c>
       <c r="G113" t="n">
-        <v>25.01333333333334</v>
+        <v>-4337733.823576518</v>
       </c>
       <c r="H113" t="n">
-        <v>24.87499999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,36 +4385,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="C114" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="D114" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E114" t="n">
         <v>25</v>
       </c>
-      <c r="E114" t="n">
-        <v>24.9</v>
-      </c>
       <c r="F114" t="n">
-        <v>43188.2403</v>
+        <v>36921.1524</v>
       </c>
       <c r="G114" t="n">
-        <v>24.99333333333334</v>
+        <v>-4337733.823576518</v>
       </c>
       <c r="H114" t="n">
-        <v>24.88499999999999</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,36 +4420,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="C115" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E115" t="n">
         <v>25</v>
       </c>
-      <c r="D115" t="n">
-        <v>25</v>
-      </c>
-      <c r="E115" t="n">
-        <v>24.9</v>
-      </c>
       <c r="F115" t="n">
-        <v>24469.1104</v>
+        <v>16962.0159</v>
       </c>
       <c r="G115" t="n">
-        <v>24.99333333333334</v>
+        <v>-4320771.807676518</v>
       </c>
       <c r="H115" t="n">
-        <v>24.89333333333332</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,36 +4455,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="C116" t="n">
-        <v>24.8</v>
+        <v>25.4</v>
       </c>
       <c r="D116" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="E116" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="F116" t="n">
-        <v>16768.1373</v>
+        <v>26869.7888</v>
       </c>
       <c r="G116" t="n">
-        <v>24.98</v>
+        <v>-4293902.018876518</v>
       </c>
       <c r="H116" t="n">
-        <v>24.89833333333332</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5144,36 +4490,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C117" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="D117" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E117" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>17611.0118</v>
       </c>
       <c r="G117" t="n">
-        <v>24.97333333333334</v>
+        <v>-4311513.030676519</v>
       </c>
       <c r="H117" t="n">
-        <v>24.90166666666666</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,36 +4525,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="C118" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="D118" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="E118" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="F118" t="n">
-        <v>9665.7107</v>
+        <v>116629.8918</v>
       </c>
       <c r="G118" t="n">
-        <v>24.98</v>
+        <v>-4311513.030676519</v>
       </c>
       <c r="H118" t="n">
-        <v>24.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,36 +4560,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="C119" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="D119" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E119" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="F119" t="n">
-        <v>62885.2292</v>
+        <v>17510</v>
       </c>
       <c r="G119" t="n">
-        <v>24.95333333333333</v>
+        <v>-4329023.030676519</v>
       </c>
       <c r="H119" t="n">
-        <v>24.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,36 +4595,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C120" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="D120" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E120" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="F120" t="n">
-        <v>7500</v>
+        <v>8020</v>
       </c>
       <c r="G120" t="n">
-        <v>24.94</v>
+        <v>-4321003.030676519</v>
       </c>
       <c r="H120" t="n">
-        <v>24.90666666666666</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,36 +4630,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C121" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="D121" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E121" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="F121" t="n">
-        <v>6173.7096</v>
+        <v>16000.1581</v>
       </c>
       <c r="G121" t="n">
-        <v>24.92</v>
+        <v>-4321003.030676519</v>
       </c>
       <c r="H121" t="n">
-        <v>24.90833333333332</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5334,36 +4665,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="C122" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="D122" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="E122" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="F122" t="n">
-        <v>28777.4095</v>
+        <v>9742.162899999999</v>
       </c>
       <c r="G122" t="n">
-        <v>24.9</v>
+        <v>-4330745.193576518</v>
       </c>
       <c r="H122" t="n">
-        <v>24.90999999999999</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,36 +4700,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>24.6</v>
+        <v>25.2</v>
       </c>
       <c r="C123" t="n">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="D123" t="n">
-        <v>24.6</v>
+        <v>25.2</v>
       </c>
       <c r="E123" t="n">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="F123" t="n">
-        <v>150758.6156</v>
+        <v>9179.2063</v>
       </c>
       <c r="G123" t="n">
-        <v>24.86</v>
+        <v>-4321565.987276519</v>
       </c>
       <c r="H123" t="n">
-        <v>24.90833333333332</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,36 +4735,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="C124" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="D124" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="E124" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="F124" t="n">
-        <v>39497.3681</v>
+        <v>4000</v>
       </c>
       <c r="G124" t="n">
-        <v>24.82666666666666</v>
+        <v>-4325565.987276519</v>
       </c>
       <c r="H124" t="n">
-        <v>24.90666666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,36 +4770,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="C125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="D125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="E125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="F125" t="n">
-        <v>7406.4825</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="n">
-        <v>24.78666666666667</v>
+        <v>-4325565.987276519</v>
       </c>
       <c r="H125" t="n">
-        <v>24.92166666666666</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5486,36 +4805,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="C126" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="D126" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="E126" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="F126" t="n">
-        <v>8508</v>
+        <v>19371.4743</v>
       </c>
       <c r="G126" t="n">
-        <v>24.73333333333333</v>
+        <v>-4306194.512976519</v>
       </c>
       <c r="H126" t="n">
-        <v>24.91666666666666</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,36 +4840,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="C127" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="D127" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="E127" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="F127" t="n">
-        <v>17629.1769</v>
+        <v>11058.14</v>
       </c>
       <c r="G127" t="n">
-        <v>24.68666666666666</v>
+        <v>-4317252.652976518</v>
       </c>
       <c r="H127" t="n">
-        <v>24.91166666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,36 +4875,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="C128" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="D128" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="E128" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="F128" t="n">
-        <v>1956.8876</v>
+        <v>11010</v>
       </c>
       <c r="G128" t="n">
-        <v>24.64666666666666</v>
+        <v>-4306242.652976518</v>
       </c>
       <c r="H128" t="n">
-        <v>24.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,36 +4910,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C129" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="E129" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="F129" t="n">
-        <v>4202.9487</v>
+        <v>19763.9325</v>
       </c>
       <c r="G129" t="n">
-        <v>24.60666666666667</v>
+        <v>-4326006.585476519</v>
       </c>
       <c r="H129" t="n">
-        <v>24.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,36 +4945,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="C130" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="E130" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="F130" t="n">
-        <v>17037.7371</v>
+        <v>43633.0025</v>
       </c>
       <c r="G130" t="n">
-        <v>24.56</v>
+        <v>-4326006.585476519</v>
       </c>
       <c r="H130" t="n">
-        <v>24.89833333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,36 +4980,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="C131" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="D131" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="E131" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="F131" t="n">
-        <v>7500</v>
+        <v>9714.8575</v>
       </c>
       <c r="G131" t="n">
-        <v>24.52666666666667</v>
+        <v>-4335721.442976519</v>
       </c>
       <c r="H131" t="n">
-        <v>24.89166666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,36 +5015,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="C132" t="n">
-        <v>24.2</v>
+        <v>24.8</v>
       </c>
       <c r="D132" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="E132" t="n">
-        <v>24.2</v>
+        <v>24.8</v>
       </c>
       <c r="F132" t="n">
-        <v>25000</v>
+        <v>27985.6225</v>
       </c>
       <c r="G132" t="n">
-        <v>24.48666666666667</v>
+        <v>-4363707.065476518</v>
       </c>
       <c r="H132" t="n">
-        <v>24.90166666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,36 +5050,1048 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="C133" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="D133" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="E133" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="F133" t="n">
-        <v>3335.1028</v>
+        <v>46685</v>
       </c>
       <c r="G133" t="n">
-        <v>24.44666666666667</v>
+        <v>-4317022.065476518</v>
       </c>
       <c r="H133" t="n">
-        <v>24.89499999999999</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>25</v>
+      </c>
+      <c r="D134" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>25</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10010</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4327032.065476518</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10212.5394</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4316819.526076518</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>25</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25</v>
+      </c>
+      <c r="D136" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" t="n">
+        <v>25</v>
+      </c>
+      <c r="F136" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4366819.526076518</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>130040</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4236779.526076518</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>25</v>
+      </c>
+      <c r="C138" t="n">
+        <v>25</v>
+      </c>
+      <c r="D138" t="n">
+        <v>25</v>
+      </c>
+      <c r="E138" t="n">
+        <v>25</v>
+      </c>
+      <c r="F138" t="n">
+        <v>37914.1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4274693.626076518</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>25</v>
+      </c>
+      <c r="C139" t="n">
+        <v>25</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25</v>
+      </c>
+      <c r="E139" t="n">
+        <v>25</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9079.030000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4274693.626076518</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>25</v>
+      </c>
+      <c r="C140" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>25</v>
+      </c>
+      <c r="F140" t="n">
+        <v>39163.3367</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4235530.289376518</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>25</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9085</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4244615.289376518</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5801.2749</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4250416.564276517</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>25</v>
+      </c>
+      <c r="E143" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>43188.2403</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4250416.564276517</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>25</v>
+      </c>
+      <c r="D144" t="n">
+        <v>25</v>
+      </c>
+      <c r="E144" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>24469.1104</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4225947.453876518</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16768.1373</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4242715.591176517</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4242715.591176517</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9665.7107</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4233049.880476518</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>62885.2292</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4295935.109676518</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4288435.109676518</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6173.7096</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4288435.109676518</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>28777.4095</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4317212.519176518</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>150758.6156</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4467971.134776518</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>39497.3681</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4467971.134776518</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7406.4825</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4475377.617276518</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8508</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>17629.1769</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1956.8876</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4202.9487</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17037.7371</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4508885.617276518</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3335.1028</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4505550.514476517</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.9</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>22.7</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>39842.4139</v>
+        <v>14000</v>
       </c>
       <c r="G2" t="n">
-        <v>-4490361.6332</v>
+        <v>-4482206.9671</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>23.1</v>
+        <v>24.7</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1</v>
+        <v>24.7</v>
       </c>
       <c r="E3" t="n">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>502.611</v>
+        <v>36717.10242348178</v>
       </c>
       <c r="G3" t="n">
-        <v>-4490361.6332</v>
+        <v>-4445489.864676518</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.5</v>
+        <v>24.7</v>
       </c>
       <c r="C4" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>23.5</v>
+        <v>24.7</v>
       </c>
       <c r="E4" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>4538.3805</v>
       </c>
       <c r="G4" t="n">
-        <v>-4490351.6332</v>
+        <v>-4450028.245176518</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="C5" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="E5" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="F5" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G5" t="n">
-        <v>-4494351.6332</v>
+        <v>-4432028.245176518</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="C6" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="D6" t="n">
-        <v>23.3</v>
+        <v>24.8</v>
       </c>
       <c r="E6" t="n">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="F6" t="n">
-        <v>19730.4</v>
+        <v>48000.0104</v>
       </c>
       <c r="G6" t="n">
-        <v>-4514082.0332</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="C7" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="D7" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="E7" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="F7" t="n">
-        <v>4055.2968</v>
+        <v>4000</v>
       </c>
       <c r="G7" t="n">
-        <v>-4514082.0332</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3</v>
+        <v>24.8</v>
       </c>
       <c r="C8" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3</v>
+        <v>24.8</v>
       </c>
       <c r="E8" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="F8" t="n">
-        <v>5991.02</v>
+        <v>14650.8064</v>
       </c>
       <c r="G8" t="n">
-        <v>-4514082.0332</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="C9" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="D9" t="n">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="E9" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>9179.275600000001</v>
       </c>
       <c r="G9" t="n">
-        <v>-4514072.0332</v>
+        <v>-4393207.510376519</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D10" t="n">
-        <v>23.6</v>
+        <v>24.8</v>
       </c>
       <c r="E10" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="F10" t="n">
-        <v>39551.9307</v>
+        <v>19132.4567</v>
       </c>
       <c r="G10" t="n">
-        <v>-4514072.0332</v>
+        <v>-4412339.967076519</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="C11" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="E11" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="F11" t="n">
-        <v>407.06</v>
+        <v>5163.3425</v>
       </c>
       <c r="G11" t="n">
-        <v>-4514479.0932</v>
+        <v>-4407176.624576518</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="E12" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="F12" t="n">
-        <v>392.35</v>
+        <v>11372.5069</v>
       </c>
       <c r="G12" t="n">
-        <v>-4514479.0932</v>
+        <v>-4418549.131476519</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="D13" t="n">
-        <v>23.3</v>
+        <v>24.8</v>
       </c>
       <c r="E13" t="n">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="F13" t="n">
-        <v>192.95</v>
+        <v>16552.4399</v>
       </c>
       <c r="G13" t="n">
-        <v>-4514672.0432</v>
+        <v>-4401996.691576519</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="C14" t="n">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="E14" t="n">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1011</v>
+        <v>28975</v>
       </c>
       <c r="G14" t="n">
-        <v>-4513661.0432</v>
+        <v>-4401996.691576519</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="n">
         <v>23.1</v>
       </c>
-      <c r="C15" t="n">
-        <v>23</v>
-      </c>
       <c r="D15" t="n">
+        <v>24</v>
+      </c>
+      <c r="E15" t="n">
         <v>23.1</v>
       </c>
-      <c r="E15" t="n">
-        <v>23</v>
-      </c>
       <c r="F15" t="n">
-        <v>59798.5018</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="n">
-        <v>-4573459.545</v>
+        <v>-4411996.691576519</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="C16" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="E16" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>14615.598</v>
       </c>
       <c r="G16" t="n">
-        <v>-4573449.545</v>
+        <v>-4397381.093576519</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>58661.5034</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="n">
-        <v>-4632111.0484</v>
+        <v>-4399381.093576519</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.9</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>22.8</v>
+        <v>24.7</v>
       </c>
       <c r="D18" t="n">
-        <v>22.9</v>
+        <v>24.7</v>
       </c>
       <c r="E18" t="n">
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>20966.5836</v>
+        <v>14289.1794</v>
       </c>
       <c r="G18" t="n">
-        <v>-4653077.631999999</v>
+        <v>-4385091.914176519</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22.9</v>
+        <v>24.2</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>24.6</v>
       </c>
       <c r="D19" t="n">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="E19" t="n">
-        <v>22.7</v>
+        <v>24.2</v>
       </c>
       <c r="F19" t="n">
-        <v>66613.6823</v>
+        <v>9784.569100000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-4586463.949699999</v>
+        <v>-4394876.483276519</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="C20" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="D20" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="F20" t="n">
-        <v>20611</v>
+        <v>8326.18</v>
       </c>
       <c r="G20" t="n">
-        <v>-4565852.949699999</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="C21" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="D21" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="E21" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="F21" t="n">
-        <v>430</v>
+        <v>4475</v>
       </c>
       <c r="G21" t="n">
-        <v>-4565422.949699999</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="C22" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="D22" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="E22" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>18183.407</v>
       </c>
       <c r="G22" t="n">
-        <v>-4570422.949699999</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="C23" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D23" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="E23" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="F23" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="n">
-        <v>-4562922.949699999</v>
+        <v>-4407202.663276519</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="C24" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="D24" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="E24" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="F24" t="n">
-        <v>4818.5059</v>
+        <v>17031</v>
       </c>
       <c r="G24" t="n">
-        <v>-4567741.455599999</v>
+        <v>-4407202.663276519</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="C25" t="n">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="D25" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="E25" t="n">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="F25" t="n">
-        <v>39551.9307</v>
+        <v>802</v>
       </c>
       <c r="G25" t="n">
-        <v>-4607293.386299999</v>
+        <v>-4408004.663276519</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="C26" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="D26" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="F26" t="n">
-        <v>6000</v>
+        <v>22847.457</v>
       </c>
       <c r="G26" t="n">
-        <v>-4601293.386299999</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,343 +1331,407 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="C27" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="D27" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="E27" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="F27" t="n">
-        <v>4000</v>
+        <v>17269</v>
       </c>
       <c r="G27" t="n">
-        <v>-4601293.386299999</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="C28" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D28" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="F28" t="n">
-        <v>3989.0517</v>
+        <v>14773</v>
       </c>
       <c r="G28" t="n">
-        <v>-4597304.3346</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C29" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D29" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="E29" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>2837.6099</v>
       </c>
       <c r="G29" t="n">
-        <v>-4597304.3346</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="C30" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D30" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="E30" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="F30" t="n">
-        <v>6733.8505</v>
+        <v>1918.9981</v>
       </c>
       <c r="G30" t="n">
-        <v>-4597304.3346</v>
+        <v>-4428933.122176519</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C31" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D31" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="E31" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="F31" t="n">
-        <v>5100</v>
+        <v>6613</v>
       </c>
       <c r="G31" t="n">
-        <v>-4592204.3346</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>23.6</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="C32" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="D32" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="E32" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="F32" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>-4591804.3346</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>23.9</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="C33" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="D33" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="E33" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>5651.4303</v>
       </c>
       <c r="G33" t="n">
-        <v>-4591804.3346</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>23.9</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="C34" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="D34" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="E34" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="F34" t="n">
-        <v>2000</v>
+        <v>847.457</v>
       </c>
       <c r="G34" t="n">
-        <v>-4593804.3346</v>
+        <v>-4421472.665176518</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>23.9</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="C35" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="D35" t="n">
-        <v>23.4</v>
+        <v>24.4</v>
       </c>
       <c r="E35" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="F35" t="n">
-        <v>45454.4869</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-4593804.3346</v>
+        <v>-4421462.665176518</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>24.1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="C36" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="D36" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="E36" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="F36" t="n">
-        <v>10211</v>
+        <v>7500</v>
       </c>
       <c r="G36" t="n">
-        <v>-4583593.3346</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,32 +1741,37 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.4</v>
+        <v>24.4</v>
       </c>
       <c r="C37" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="D37" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="E37" t="n">
-        <v>23.4</v>
+        <v>24.4</v>
       </c>
       <c r="F37" t="n">
-        <v>67356.36749999999</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-4516236.9671</v>
+        <v>-4428952.665176518</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,32 +1781,37 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="C38" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="D38" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="E38" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="F38" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="n">
-        <v>-4516236.9671</v>
+        <v>-4428952.665176518</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1821,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="C39" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="D39" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="E39" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="F39" t="n">
-        <v>5775</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-4516236.9671</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,32 +1861,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="C40" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="D40" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="E40" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="G40" t="n">
-        <v>-4506236.9671</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1901,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="C41" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="D41" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="E41" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="F41" t="n">
-        <v>40000.007</v>
+        <v>4675.8436</v>
       </c>
       <c r="G41" t="n">
-        <v>-4506236.9671</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +1941,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="C42" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="E42" t="n">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="F42" t="n">
-        <v>6030</v>
+        <v>1488.2416</v>
       </c>
       <c r="G42" t="n">
-        <v>-4500206.9671</v>
+        <v>-4427474.423576518</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,32 +1981,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="C43" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="D43" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="E43" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="F43" t="n">
-        <v>18000</v>
+        <v>7236.0816</v>
       </c>
       <c r="G43" t="n">
-        <v>-4482206.9671</v>
+        <v>-4427474.423576518</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,32 +2021,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D44" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="F44" t="n">
-        <v>14000</v>
+        <v>11678.6078</v>
       </c>
       <c r="G44" t="n">
-        <v>-4482206.9671</v>
+        <v>-4415795.815776518</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,17 +2061,22 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="C45" t="n">
         <v>24.7</v>
@@ -1947,13 +2085,13 @@
         <v>24.7</v>
       </c>
       <c r="E45" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="F45" t="n">
-        <v>36717.10242348178</v>
+        <v>11379.1093</v>
       </c>
       <c r="G45" t="n">
-        <v>-4445489.864676518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,10 +2101,15 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1976,19 +2119,19 @@
         <v>24.7</v>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="D46" t="n">
         <v>24.7</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="F46" t="n">
-        <v>4538.3805</v>
+        <v>8799.3927</v>
       </c>
       <c r="G46" t="n">
-        <v>-4450028.245176518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,17 +2141,22 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C47" t="n">
         <v>24.7</v>
@@ -2017,13 +2165,13 @@
         <v>24.7</v>
       </c>
       <c r="E47" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="F47" t="n">
-        <v>18000</v>
+        <v>21195.9793</v>
       </c>
       <c r="G47" t="n">
-        <v>-4432028.245176518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,10 +2181,15 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2046,19 +2199,19 @@
         <v>24.7</v>
       </c>
       <c r="C48" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D48" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="E48" t="n">
         <v>24.7</v>
       </c>
       <c r="F48" t="n">
-        <v>48000.0104</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="n">
-        <v>-4384028.234776518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,32 +2221,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="C49" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="D49" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="E49" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="G49" t="n">
-        <v>-4384028.234776518</v>
+        <v>-4416416.706476518</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,32 +2261,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="C50" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="D50" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="E50" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="F50" t="n">
-        <v>14650.8064</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="n">
-        <v>-4384028.234776518</v>
+        <v>-4416416.706476518</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,32 +2301,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C51" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D51" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E51" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="F51" t="n">
-        <v>9179.275600000001</v>
+        <v>14000</v>
       </c>
       <c r="G51" t="n">
-        <v>-4393207.510376519</v>
+        <v>-4416416.706476518</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,10 +2341,15 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2186,19 +2359,19 @@
         <v>24.3</v>
       </c>
       <c r="C52" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="D52" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="E52" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="F52" t="n">
-        <v>19132.4567</v>
+        <v>41727.2403</v>
       </c>
       <c r="G52" t="n">
-        <v>-4412339.967076519</v>
+        <v>-4458143.946776518</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,32 +2381,37 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="C53" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D53" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E53" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F53" t="n">
-        <v>5163.3425</v>
+        <v>10427</v>
       </c>
       <c r="G53" t="n">
-        <v>-4407176.624576518</v>
+        <v>-4447716.946776518</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,32 +2421,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="C54" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="D54" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="E54" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="F54" t="n">
-        <v>11372.5069</v>
+        <v>37266</v>
       </c>
       <c r="G54" t="n">
-        <v>-4418549.131476519</v>
+        <v>-4447716.946776518</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2461,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="C55" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D55" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="E55" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="F55" t="n">
-        <v>16552.4399</v>
+        <v>360</v>
       </c>
       <c r="G55" t="n">
-        <v>-4401996.691576519</v>
+        <v>-4447356.946776518</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2501,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="C56" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="D56" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="E56" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="F56" t="n">
-        <v>28975</v>
+        <v>7500</v>
       </c>
       <c r="G56" t="n">
-        <v>-4401996.691576519</v>
+        <v>-4454856.946776518</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2541,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="C57" t="n">
-        <v>23.1</v>
+        <v>24.7</v>
       </c>
       <c r="D57" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="E57" t="n">
-        <v>23.1</v>
+        <v>24.7</v>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-4411996.691576519</v>
+        <v>-4454846.946776518</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,32 +2581,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="C58" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E58" t="n">
         <v>24.1</v>
       </c>
-      <c r="D58" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>23.7</v>
-      </c>
       <c r="F58" t="n">
-        <v>14615.598</v>
+        <v>2169.3749</v>
       </c>
       <c r="G58" t="n">
-        <v>-4397381.093576519</v>
+        <v>-4454846.946776518</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2621,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="D59" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="E59" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>139699.5883</v>
       </c>
       <c r="G59" t="n">
-        <v>-4399381.093576519</v>
+        <v>-4594546.535076518</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,17 +2661,22 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="C60" t="n">
         <v>24.7</v>
@@ -2472,13 +2685,13 @@
         <v>24.7</v>
       </c>
       <c r="E60" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="F60" t="n">
-        <v>14289.1794</v>
+        <v>26842.1049</v>
       </c>
       <c r="G60" t="n">
-        <v>-4385091.914176519</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,32 +2701,37 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="C61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D61" t="n">
         <v>24.7</v>
       </c>
       <c r="E61" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="F61" t="n">
-        <v>9784.569100000001</v>
+        <v>3157.8951</v>
       </c>
       <c r="G61" t="n">
-        <v>-4394876.483276519</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,32 +2741,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="C62" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="D62" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="E62" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="F62" t="n">
-        <v>8326.18</v>
+        <v>3359.0904</v>
       </c>
       <c r="G62" t="n">
-        <v>-4403202.663276519</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,32 +2781,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="C63" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="D63" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="E63" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="F63" t="n">
-        <v>4475</v>
+        <v>3349.0904</v>
       </c>
       <c r="G63" t="n">
-        <v>-4403202.663276519</v>
+        <v>-4567704.430176518</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,32 +2821,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="C64" t="n">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="D64" t="n">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="E64" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="F64" t="n">
-        <v>18183.407</v>
+        <v>123716.5777</v>
       </c>
       <c r="G64" t="n">
-        <v>-4403202.663276519</v>
+        <v>-4443987.852476518</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,32 +2861,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="C65" t="n">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="E65" t="n">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="F65" t="n">
-        <v>4000</v>
+        <v>657.9941</v>
       </c>
       <c r="G65" t="n">
-        <v>-4407202.663276519</v>
+        <v>-4443329.858376518</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,32 +2901,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23.7</v>
+        <v>24.9</v>
       </c>
       <c r="C66" t="n">
-        <v>23.8</v>
+        <v>24.9</v>
       </c>
       <c r="D66" t="n">
-        <v>23.8</v>
+        <v>24.9</v>
       </c>
       <c r="E66" t="n">
-        <v>23.7</v>
+        <v>24.9</v>
       </c>
       <c r="F66" t="n">
-        <v>17031</v>
+        <v>3999.4</v>
       </c>
       <c r="G66" t="n">
-        <v>-4407202.663276519</v>
+        <v>-4447329.258376518</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,32 +2941,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="F67" t="n">
-        <v>802</v>
+        <v>4604.52</v>
       </c>
       <c r="G67" t="n">
-        <v>-4408004.663276519</v>
+        <v>-4442724.738376519</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,32 +2981,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="C68" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>23.6</v>
+        <v>25.1</v>
       </c>
       <c r="E68" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="F68" t="n">
-        <v>22847.457</v>
+        <v>54456.9361</v>
       </c>
       <c r="G68" t="n">
-        <v>-4430852.120276519</v>
+        <v>-4442724.738376519</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,32 +3021,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="C69" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>23.6</v>
+        <v>25.1</v>
       </c>
       <c r="E69" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>17269</v>
+        <v>135995.4103</v>
       </c>
       <c r="G69" t="n">
-        <v>-4430852.120276519</v>
+        <v>-4442724.738376519</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,32 +3061,37 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>23.5</v>
+        <v>25.2</v>
       </c>
       <c r="D70" t="n">
-        <v>24</v>
+        <v>25.2</v>
       </c>
       <c r="E70" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="F70" t="n">
-        <v>14773</v>
+        <v>104990.9148</v>
       </c>
       <c r="G70" t="n">
-        <v>-4430852.120276519</v>
+        <v>-4337733.823576518</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,32 +3101,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.5</v>
+        <v>25.2</v>
       </c>
       <c r="C71" t="n">
-        <v>23.5</v>
+        <v>25.2</v>
       </c>
       <c r="D71" t="n">
-        <v>23.5</v>
+        <v>25.3</v>
       </c>
       <c r="E71" t="n">
-        <v>23.5</v>
+        <v>25.2</v>
       </c>
       <c r="F71" t="n">
-        <v>2837.6099</v>
+        <v>42848.0512</v>
       </c>
       <c r="G71" t="n">
-        <v>-4430852.120276519</v>
+        <v>-4337733.823576518</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,71 +3141,77 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.6</v>
+        <v>25.3</v>
       </c>
       <c r="C72" t="n">
-        <v>23.6</v>
+        <v>25.2</v>
       </c>
       <c r="D72" t="n">
-        <v>23.6</v>
+        <v>25.3</v>
       </c>
       <c r="E72" t="n">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="F72" t="n">
-        <v>1918.9981</v>
+        <v>36921.1524</v>
       </c>
       <c r="G72" t="n">
-        <v>-4428933.122176519</v>
+        <v>-4337733.823576518</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23.6</v>
+        <v>25.2</v>
       </c>
       <c r="C73" t="n">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="D73" t="n">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="E73" t="n">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="F73" t="n">
-        <v>6613</v>
+        <v>16962.0159</v>
       </c>
       <c r="G73" t="n">
-        <v>-4422320.122176519</v>
+        <v>-4320771.807676518</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2946,39 +3220,38 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="C74" t="n">
-        <v>23.9</v>
+        <v>25.4</v>
       </c>
       <c r="D74" t="n">
-        <v>23.9</v>
+        <v>25.4</v>
       </c>
       <c r="E74" t="n">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>26869.7888</v>
       </c>
       <c r="G74" t="n">
-        <v>-4422320.122176519</v>
+        <v>-4293902.018876518</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2987,39 +3260,38 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="C75" t="n">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="D75" t="n">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="E75" t="n">
-        <v>23.9</v>
+        <v>25.2</v>
       </c>
       <c r="F75" t="n">
-        <v>5651.4303</v>
+        <v>17611.0118</v>
       </c>
       <c r="G75" t="n">
-        <v>-4422320.122176519</v>
+        <v>-4311513.030676519</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3029,159 +3301,153 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>24.1</v>
+        <v>25.3</v>
       </c>
       <c r="C76" t="n">
-        <v>24.1</v>
+        <v>25.3</v>
       </c>
       <c r="D76" t="n">
-        <v>24.1</v>
+        <v>25.3</v>
       </c>
       <c r="E76" t="n">
-        <v>24.1</v>
+        <v>25.2</v>
       </c>
       <c r="F76" t="n">
-        <v>847.457</v>
+        <v>116629.8918</v>
       </c>
       <c r="G76" t="n">
-        <v>-4421472.665176518</v>
+        <v>-4311513.030676519</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K76" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>24.4</v>
+        <v>25.2</v>
       </c>
       <c r="C77" t="n">
-        <v>24.4</v>
+        <v>25.2</v>
       </c>
       <c r="D77" t="n">
-        <v>24.4</v>
+        <v>25.3</v>
       </c>
       <c r="E77" t="n">
-        <v>24.4</v>
+        <v>25.2</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>17510</v>
       </c>
       <c r="G77" t="n">
-        <v>-4421462.665176518</v>
+        <v>-4329023.030676519</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>24.3</v>
+        <v>25.3</v>
       </c>
       <c r="C78" t="n">
-        <v>24.3</v>
+        <v>25.3</v>
       </c>
       <c r="D78" t="n">
-        <v>24.3</v>
+        <v>25.3</v>
       </c>
       <c r="E78" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="F78" t="n">
-        <v>7500</v>
+        <v>8020</v>
       </c>
       <c r="G78" t="n">
-        <v>-4428962.665176518</v>
+        <v>-4321003.030676519</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>24.4</v>
+        <v>25.3</v>
       </c>
       <c r="C79" t="n">
-        <v>24.4</v>
+        <v>25.3</v>
       </c>
       <c r="D79" t="n">
-        <v>24.4</v>
+        <v>25.3</v>
       </c>
       <c r="E79" t="n">
-        <v>24.4</v>
+        <v>25.3</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>16000.1581</v>
       </c>
       <c r="G79" t="n">
-        <v>-4428952.665176518</v>
+        <v>-4321003.030676519</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3189,28 +3455,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="C80" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="D80" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="E80" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="F80" t="n">
-        <v>4000</v>
+        <v>9742.162899999999</v>
       </c>
       <c r="G80" t="n">
-        <v>-4428952.665176518</v>
+        <v>-4330745.193576518</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3224,34 +3491,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="C81" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="D81" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="E81" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>9179.2063</v>
       </c>
       <c r="G81" t="n">
-        <v>-4428962.665176518</v>
+        <v>-4321565.987276519</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3259,34 +3527,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="C82" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="D82" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="E82" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="F82" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="G82" t="n">
-        <v>-4428962.665176518</v>
+        <v>-4325565.987276519</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3294,34 +3563,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="C83" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="D83" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="E83" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="F83" t="n">
-        <v>4675.8436</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="n">
-        <v>-4428962.665176518</v>
+        <v>-4325565.987276519</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3329,34 +3599,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>24.4</v>
+        <v>25.2</v>
       </c>
       <c r="C84" t="n">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="D84" t="n">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="E84" t="n">
-        <v>24.4</v>
+        <v>25.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1488.2416</v>
+        <v>19371.4743</v>
       </c>
       <c r="G84" t="n">
-        <v>-4427474.423576518</v>
+        <v>-4306194.512976519</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3364,34 +3635,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="C85" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="D85" t="n">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="E85" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="F85" t="n">
-        <v>7236.0816</v>
+        <v>11058.14</v>
       </c>
       <c r="G85" t="n">
-        <v>-4427474.423576518</v>
+        <v>-4317252.652976518</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3399,34 +3671,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="C86" t="n">
-        <v>24.6</v>
+        <v>25.2</v>
       </c>
       <c r="D86" t="n">
-        <v>24.6</v>
+        <v>25.2</v>
       </c>
       <c r="E86" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>11678.6078</v>
+        <v>11010</v>
       </c>
       <c r="G86" t="n">
-        <v>-4415795.815776518</v>
+        <v>-4306242.652976518</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3434,34 +3707,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="C87" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E87" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="F87" t="n">
-        <v>11379.1093</v>
+        <v>19763.9325</v>
       </c>
       <c r="G87" t="n">
-        <v>-4404416.706476518</v>
+        <v>-4326006.585476519</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3469,34 +3743,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="C88" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
-        <v>8799.3927</v>
+        <v>43633.0025</v>
       </c>
       <c r="G88" t="n">
-        <v>-4404416.706476518</v>
+        <v>-4326006.585476519</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3504,34 +3779,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="C89" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D89" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E89" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F89" t="n">
-        <v>21195.9793</v>
+        <v>9714.8575</v>
       </c>
       <c r="G89" t="n">
-        <v>-4404416.706476518</v>
+        <v>-4335721.442976519</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3539,34 +3815,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="C90" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D90" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E90" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>27985.6225</v>
       </c>
       <c r="G90" t="n">
-        <v>-4404416.706476518</v>
+        <v>-4363707.065476518</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3574,28 +3851,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="C91" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="D91" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="E91" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="F91" t="n">
-        <v>12000</v>
+        <v>46685</v>
       </c>
       <c r="G91" t="n">
-        <v>-4416416.706476518</v>
+        <v>-4317022.065476518</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3609,34 +3887,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="C92" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="E92" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="F92" t="n">
-        <v>2000</v>
+        <v>10010</v>
       </c>
       <c r="G92" t="n">
-        <v>-4416416.706476518</v>
+        <v>-4327032.065476518</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3644,34 +3923,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="C93" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="D93" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="E93" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="F93" t="n">
-        <v>14000</v>
+        <v>10212.5394</v>
       </c>
       <c r="G93" t="n">
-        <v>-4416416.706476518</v>
+        <v>-4316819.526076518</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3679,34 +3959,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="F94" t="n">
-        <v>41727.2403</v>
+        <v>50000</v>
       </c>
       <c r="G94" t="n">
-        <v>-4458143.946776518</v>
+        <v>-4366819.526076518</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3714,34 +3995,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="C95" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="D95" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="E95" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="F95" t="n">
-        <v>10427</v>
+        <v>130040</v>
       </c>
       <c r="G95" t="n">
-        <v>-4447716.946776518</v>
+        <v>-4236779.526076518</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3749,34 +4031,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="C96" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="E96" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="F96" t="n">
-        <v>37266</v>
+        <v>37914.1</v>
       </c>
       <c r="G96" t="n">
-        <v>-4447716.946776518</v>
+        <v>-4274693.626076518</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3784,34 +4067,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="C97" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E97" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="F97" t="n">
-        <v>360</v>
+        <v>9079.030000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-4447356.946776518</v>
+        <v>-4274693.626076518</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3819,34 +4103,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="D98" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="E98" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
-        <v>7500</v>
+        <v>39163.3367</v>
       </c>
       <c r="G98" t="n">
-        <v>-4454856.946776518</v>
+        <v>-4235530.289376518</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3854,34 +4139,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="C99" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="E99" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>9085</v>
       </c>
       <c r="G99" t="n">
-        <v>-4454846.946776518</v>
+        <v>-4244615.289376518</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3889,34 +4175,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="C100" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D100" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E100" t="n">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="F100" t="n">
-        <v>2169.3749</v>
+        <v>5801.2749</v>
       </c>
       <c r="G100" t="n">
-        <v>-4454846.946776518</v>
+        <v>-4250416.564276517</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3924,34 +4211,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="C101" t="n">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="D101" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E101" t="n">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="F101" t="n">
-        <v>139699.5883</v>
+        <v>43188.2403</v>
       </c>
       <c r="G101" t="n">
-        <v>-4594546.535076518</v>
+        <v>-4250416.564276517</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3959,34 +4247,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="C102" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E102" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="F102" t="n">
-        <v>26842.1049</v>
+        <v>24469.1104</v>
       </c>
       <c r="G102" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4225947.453876518</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3994,34 +4283,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="C103" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D103" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E103" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F103" t="n">
-        <v>3157.8951</v>
+        <v>16768.1373</v>
       </c>
       <c r="G103" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4242715.591176517</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4029,34 +4319,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="C104" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D104" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="E104" t="n">
-        <v>24.2</v>
+        <v>24.8</v>
       </c>
       <c r="F104" t="n">
-        <v>3359.0904</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4242715.591176517</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4064,34 +4355,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="C105" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D105" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E105" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F105" t="n">
-        <v>3349.0904</v>
+        <v>9665.7107</v>
       </c>
       <c r="G105" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4233049.880476518</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4099,34 +4391,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C106" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D106" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E106" t="n">
         <v>24.7</v>
       </c>
       <c r="F106" t="n">
-        <v>123716.5777</v>
+        <v>62885.2292</v>
       </c>
       <c r="G106" t="n">
-        <v>-4443987.852476518</v>
+        <v>-4295935.109676518</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4134,34 +4427,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C107" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="D107" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="E107" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F107" t="n">
-        <v>657.9941</v>
+        <v>7500</v>
       </c>
       <c r="G107" t="n">
-        <v>-4443329.858376518</v>
+        <v>-4288435.109676518</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4169,34 +4463,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C108" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D108" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E108" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F108" t="n">
-        <v>3999.4</v>
+        <v>6173.7096</v>
       </c>
       <c r="G108" t="n">
-        <v>-4447329.258376518</v>
+        <v>-4288435.109676518</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4204,34 +4499,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C109" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D109" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E109" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F109" t="n">
-        <v>4604.52</v>
+        <v>28777.4095</v>
       </c>
       <c r="G109" t="n">
-        <v>-4442724.738376519</v>
+        <v>-4317212.519176518</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4239,34 +4535,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="C110" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="D110" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E110" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="F110" t="n">
-        <v>54456.9361</v>
+        <v>150758.6156</v>
       </c>
       <c r="G110" t="n">
-        <v>-4442724.738376519</v>
+        <v>-4467971.134776518</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4274,34 +4571,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="D111" t="n">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="E111" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="F111" t="n">
-        <v>135995.4103</v>
+        <v>39497.3681</v>
       </c>
       <c r="G111" t="n">
-        <v>-4442724.738376519</v>
+        <v>-4467971.134776518</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4309,34 +4607,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C112" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="D112" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="E112" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="F112" t="n">
-        <v>104990.9148</v>
+        <v>7406.4825</v>
       </c>
       <c r="G112" t="n">
-        <v>-4337733.823576518</v>
+        <v>-4475377.617276518</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4344,34 +4643,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="C113" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="D113" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="E113" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="F113" t="n">
-        <v>42848.0512</v>
+        <v>8508</v>
       </c>
       <c r="G113" t="n">
-        <v>-4337733.823576518</v>
+        <v>-4483885.617276518</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4379,28 +4679,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="C114" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="D114" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="E114" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="F114" t="n">
-        <v>36921.1524</v>
+        <v>17629.1769</v>
       </c>
       <c r="G114" t="n">
-        <v>-4337733.823576518</v>
+        <v>-4483885.617276518</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4414,34 +4715,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="C115" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="D115" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="E115" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="F115" t="n">
-        <v>16962.0159</v>
+        <v>1956.8876</v>
       </c>
       <c r="G115" t="n">
-        <v>-4320771.807676518</v>
+        <v>-4483885.617276518</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4449,34 +4751,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="C116" t="n">
-        <v>25.4</v>
+        <v>24.3</v>
       </c>
       <c r="D116" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="E116" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="F116" t="n">
-        <v>26869.7888</v>
+        <v>4202.9487</v>
       </c>
       <c r="G116" t="n">
-        <v>-4293902.018876518</v>
+        <v>-4483885.617276518</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4484,34 +4787,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="C117" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="D117" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="E117" t="n">
-        <v>25.2</v>
+        <v>24.2</v>
       </c>
       <c r="F117" t="n">
-        <v>17611.0118</v>
+        <v>17037.7371</v>
       </c>
       <c r="G117" t="n">
-        <v>-4311513.030676519</v>
+        <v>-4483885.617276518</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4519,34 +4823,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="C118" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="D118" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="E118" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="F118" t="n">
-        <v>116629.8918</v>
+        <v>7500</v>
       </c>
       <c r="G118" t="n">
-        <v>-4311513.030676519</v>
+        <v>-4483885.617276518</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4554,34 +4859,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.2</v>
+        <v>24.2</v>
       </c>
       <c r="C119" t="n">
-        <v>25.2</v>
+        <v>24.2</v>
       </c>
       <c r="D119" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="E119" t="n">
-        <v>25.2</v>
+        <v>24.2</v>
       </c>
       <c r="F119" t="n">
-        <v>17510</v>
+        <v>25000</v>
       </c>
       <c r="G119" t="n">
-        <v>-4329023.030676519</v>
+        <v>-4508885.617276518</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4589,34 +4895,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="C120" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="D120" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="E120" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="F120" t="n">
-        <v>8020</v>
+        <v>3335.1028</v>
       </c>
       <c r="G120" t="n">
-        <v>-4321003.030676519</v>
+        <v>-4505550.514476517</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4624,1476 +4931,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>16000.1581</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-4321003.030676519</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>9742.162899999999</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-4330745.193576518</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C123" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D123" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>9179.2063</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-4321565.987276519</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-4325565.987276519</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-4325565.987276519</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C126" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>19371.4743</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-4306194.512976519</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C127" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>11058.14</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-4317252.652976518</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>25</v>
-      </c>
-      <c r="F128" t="n">
-        <v>11010</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-4306242.652976518</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>25</v>
-      </c>
-      <c r="C129" t="n">
-        <v>25</v>
-      </c>
-      <c r="D129" t="n">
-        <v>25</v>
-      </c>
-      <c r="E129" t="n">
-        <v>25</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19763.9325</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-4326006.585476519</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>25</v>
-      </c>
-      <c r="C130" t="n">
-        <v>25</v>
-      </c>
-      <c r="D130" t="n">
-        <v>25</v>
-      </c>
-      <c r="E130" t="n">
-        <v>25</v>
-      </c>
-      <c r="F130" t="n">
-        <v>43633.0025</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-4326006.585476519</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="D131" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E131" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9714.8575</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-4335721.442976519</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>25</v>
-      </c>
-      <c r="C132" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>25</v>
-      </c>
-      <c r="E132" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>27985.6225</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-4363707.065476518</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>46685</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-4317022.065476518</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>25</v>
-      </c>
-      <c r="D134" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>25</v>
-      </c>
-      <c r="F134" t="n">
-        <v>10010</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-4327032.065476518</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10212.5394</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-4316819.526076518</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>25</v>
-      </c>
-      <c r="C136" t="n">
-        <v>25</v>
-      </c>
-      <c r="D136" t="n">
-        <v>25</v>
-      </c>
-      <c r="E136" t="n">
-        <v>25</v>
-      </c>
-      <c r="F136" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-4366819.526076518</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F137" t="n">
-        <v>130040</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-4236779.526076518</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>25</v>
-      </c>
-      <c r="C138" t="n">
-        <v>25</v>
-      </c>
-      <c r="D138" t="n">
-        <v>25</v>
-      </c>
-      <c r="E138" t="n">
-        <v>25</v>
-      </c>
-      <c r="F138" t="n">
-        <v>37914.1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-4274693.626076518</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>25</v>
-      </c>
-      <c r="C139" t="n">
-        <v>25</v>
-      </c>
-      <c r="D139" t="n">
-        <v>25</v>
-      </c>
-      <c r="E139" t="n">
-        <v>25</v>
-      </c>
-      <c r="F139" t="n">
-        <v>9079.030000000001</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-4274693.626076518</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>25</v>
-      </c>
-      <c r="C140" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>25</v>
-      </c>
-      <c r="F140" t="n">
-        <v>39163.3367</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-4235530.289376518</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>25</v>
-      </c>
-      <c r="D141" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>25</v>
-      </c>
-      <c r="F141" t="n">
-        <v>9085</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-4244615.289376518</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5801.2749</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-4250416.564276517</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>25</v>
-      </c>
-      <c r="E143" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>43188.2403</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-4250416.564276517</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C144" t="n">
-        <v>25</v>
-      </c>
-      <c r="D144" t="n">
-        <v>25</v>
-      </c>
-      <c r="E144" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>24469.1104</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-4225947.453876518</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C145" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F145" t="n">
-        <v>16768.1373</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-4242715.591176517</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D146" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-4242715.591176517</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>9665.7107</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-4233049.880476518</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>62885.2292</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-4295935.109676518</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4288435.109676518</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C150" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D150" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="E150" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F150" t="n">
-        <v>6173.7096</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4288435.109676518</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>28777.4095</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4317212.519176518</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="C152" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>150758.6156</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4467971.134776518</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>39497.3681</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4467971.134776518</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C154" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D154" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F154" t="n">
-        <v>7406.4825</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4475377.617276518</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F155" t="n">
-        <v>8508</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C156" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F156" t="n">
-        <v>17629.1769</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D157" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E157" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1956.8876</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D158" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4202.9487</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>17037.7371</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C160" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D160" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F160" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D161" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E161" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F161" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-4508885.617276518</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C162" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D162" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E162" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3335.1028</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-4505550.514476517</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="F2" t="n">
-        <v>14000</v>
+        <v>4393.106</v>
       </c>
       <c r="G2" t="n">
-        <v>-4482206.9671</v>
+        <v>-59804.7687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="C3" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="F3" t="n">
-        <v>36717.10242348178</v>
+        <v>7500</v>
       </c>
       <c r="G3" t="n">
-        <v>-4445489.864676518</v>
+        <v>-52304.7687</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D4" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="F4" t="n">
-        <v>4538.3805</v>
+        <v>536.67</v>
       </c>
       <c r="G4" t="n">
-        <v>-4450028.245176518</v>
+        <v>-52841.4387</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="D5" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="E5" t="n">
-        <v>24.4</v>
+        <v>22.8</v>
       </c>
       <c r="F5" t="n">
-        <v>18000</v>
+        <v>15293.4342</v>
       </c>
       <c r="G5" t="n">
-        <v>-4432028.245176518</v>
+        <v>-68134.8729</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="F6" t="n">
-        <v>48000.0104</v>
+        <v>24762.6417</v>
       </c>
       <c r="G6" t="n">
-        <v>-4384028.234776518</v>
+        <v>-43372.2312</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>40365.737</v>
       </c>
       <c r="G7" t="n">
-        <v>-4384028.234776518</v>
+        <v>-43372.2312</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.8</v>
+        <v>22.8</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8</v>
+        <v>22.9</v>
       </c>
       <c r="D8" t="n">
-        <v>24.8</v>
+        <v>22.9</v>
       </c>
       <c r="E8" t="n">
-        <v>24.8</v>
+        <v>22.8</v>
       </c>
       <c r="F8" t="n">
-        <v>14650.8064</v>
+        <v>65379.9837</v>
       </c>
       <c r="G8" t="n">
-        <v>-4384028.234776518</v>
+        <v>-108752.2149</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.4</v>
+        <v>22.9</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>24.4</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>24.3</v>
+        <v>22.9</v>
       </c>
       <c r="F9" t="n">
-        <v>9179.275600000001</v>
+        <v>8335</v>
       </c>
       <c r="G9" t="n">
-        <v>-4393207.510376519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>19132.4567</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>-4412339.967076519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3</v>
+        <v>22.8</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>24.3</v>
+        <v>22.7</v>
       </c>
       <c r="F11" t="n">
-        <v>5163.3425</v>
+        <v>91600.8275</v>
       </c>
       <c r="G11" t="n">
-        <v>-4407176.624576518</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>11372.5069</v>
+        <v>12528.59</v>
       </c>
       <c r="G12" t="n">
-        <v>-4418549.131476519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>16552.4399</v>
+        <v>27471.417</v>
       </c>
       <c r="G13" t="n">
-        <v>-4401996.691576519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>28975</v>
+        <v>11719.7</v>
       </c>
       <c r="G14" t="n">
-        <v>-4401996.691576519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>265158.9517</v>
       </c>
       <c r="G15" t="n">
-        <v>-4411996.691576519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>14615.598</v>
+        <v>3000</v>
       </c>
       <c r="G16" t="n">
-        <v>-4397381.093576519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>2000</v>
       </c>
       <c r="G17" t="n">
-        <v>-4399381.093576519</v>
+        <v>-100417.2149</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="C18" t="n">
-        <v>24.7</v>
+        <v>22.6</v>
       </c>
       <c r="D18" t="n">
-        <v>24.7</v>
+        <v>22.7</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>22.6</v>
       </c>
       <c r="F18" t="n">
-        <v>14289.1794</v>
+        <v>64153</v>
       </c>
       <c r="G18" t="n">
-        <v>-4385091.914176519</v>
+        <v>-164570.2149</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="C19" t="n">
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>24.7</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="F19" t="n">
-        <v>9784.569100000001</v>
+        <v>18666</v>
       </c>
       <c r="G19" t="n">
-        <v>-4394876.483276519</v>
+        <v>-145904.2149</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="C20" t="n">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="D20" t="n">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="E20" t="n">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="F20" t="n">
-        <v>8326.18</v>
+        <v>6758.5792</v>
       </c>
       <c r="G20" t="n">
-        <v>-4403202.663276519</v>
+        <v>-152662.7941</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="E21" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>4475</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-4403202.663276519</v>
+        <v>-152652.7941</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>18183.407</v>
+        <v>110424.4782</v>
       </c>
       <c r="G22" t="n">
-        <v>-4403202.663276519</v>
+        <v>-152652.7941</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="C23" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="D23" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="E23" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>24666.9847</v>
       </c>
       <c r="G23" t="n">
-        <v>-4407202.663276519</v>
+        <v>-177319.7788</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="C24" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="D24" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="E24" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="F24" t="n">
-        <v>17031</v>
+        <v>4857</v>
       </c>
       <c r="G24" t="n">
-        <v>-4407202.663276519</v>
+        <v>-172462.7788</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="C25" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="F25" t="n">
-        <v>802</v>
+        <v>17284.7317</v>
       </c>
       <c r="G25" t="n">
-        <v>-4408004.663276519</v>
+        <v>-155178.0471</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>22847.457</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-4430852.120276519</v>
+        <v>-155178.0471</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,934 +1338,830 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-155178.0471</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10735</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-155178.0471</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23</v>
+      </c>
+      <c r="E29" t="n">
+        <v>23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>33000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-155178.0471</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4375026</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4530204.0471</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39842.4139</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4490361.6332</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>502.611</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-4490361.6332</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>23.5</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>23.5</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-4490351.6332</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-4494351.6332</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19730.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-4514082.0332</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4055.2968</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-4514082.0332</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5991.02</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-4514082.0332</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>23.6</v>
       </c>
-      <c r="E27" t="n">
+      <c r="C38" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-4514072.0332</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>23.5</v>
       </c>
-      <c r="F27" t="n">
-        <v>17269</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-4430852.120276519</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="C39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E39" t="n">
         <v>23.5</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="F39" t="n">
+        <v>39551.9307</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-4514072.0332</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>407.06</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-4514479.0932</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>392.35</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-4514479.0932</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>192.95</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-4514672.0432</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-4513661.0432</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>23</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23</v>
+      </c>
+      <c r="F44" t="n">
+        <v>59798.5018</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-4573459.545</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-4573449.545</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>58661.5034</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-4632111.0484</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20966.5836</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-4653077.631999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>23</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>66613.6823</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-4586463.949699999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>23</v>
+      </c>
+      <c r="C49" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20611</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-4565852.949699999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>23</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>24</v>
-      </c>
-      <c r="E28" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>14773</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-4430852.120276519</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2837.6099</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-4430852.120276519</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C30" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="D30" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E30" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1918.9981</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-4428933.122176519</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D31" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E31" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6613</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-4422320.122176519</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D32" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E32" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F32" t="n">
-        <v>100</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-4422320.122176519</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C33" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D33" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5651.4303</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-4422320.122176519</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>847.457</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-4421472.665176518</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-4421462.665176518</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C36" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-4428952.665176518</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-4428952.665176518</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E40" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F40" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4675.8436</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1488.2416</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-4427474.423576518</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7236.0816</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-4427474.423576518</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="D44" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E44" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F44" t="n">
-        <v>11678.6078</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-4415795.815776518</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D45" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="E45" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>11379.1093</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="C46" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D46" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="E46" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8799.3927</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="C47" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D47" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="E47" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>21195.9793</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="C48" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D48" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="D49" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-4416416.706476518</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2276,30 +2172,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="C50" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="D50" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="E50" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>430</v>
       </c>
       <c r="G50" t="n">
-        <v>-4416416.706476518</v>
+        <v>-4565422.949699999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2316,30 +2214,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>24.6</v>
+        <v>23.1</v>
       </c>
       <c r="C51" t="n">
-        <v>24.6</v>
+        <v>23.1</v>
       </c>
       <c r="D51" t="n">
-        <v>24.6</v>
+        <v>23.1</v>
       </c>
       <c r="E51" t="n">
-        <v>24.6</v>
+        <v>23.1</v>
       </c>
       <c r="F51" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="n">
-        <v>-4416416.706476518</v>
+        <v>-4570422.949699999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2356,30 +2256,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>24.3</v>
+        <v>23.2</v>
       </c>
       <c r="C52" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="D52" t="n">
-        <v>24.3</v>
+        <v>23.2</v>
       </c>
       <c r="E52" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="F52" t="n">
-        <v>41727.2403</v>
+        <v>7500</v>
       </c>
       <c r="G52" t="n">
-        <v>-4458143.946776518</v>
+        <v>-4562922.949699999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2396,30 +2298,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24.5</v>
+        <v>22.9</v>
       </c>
       <c r="C53" t="n">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="D53" t="n">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="E53" t="n">
-        <v>24.5</v>
+        <v>22.9</v>
       </c>
       <c r="F53" t="n">
-        <v>10427</v>
+        <v>4818.5059</v>
       </c>
       <c r="G53" t="n">
-        <v>-4447716.946776518</v>
+        <v>-4567741.455599999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2436,30 +2340,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="C54" t="n">
-        <v>24.6</v>
+        <v>22.8</v>
       </c>
       <c r="D54" t="n">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="E54" t="n">
-        <v>24.6</v>
+        <v>22.8</v>
       </c>
       <c r="F54" t="n">
-        <v>37266</v>
+        <v>39551.9307</v>
       </c>
       <c r="G54" t="n">
-        <v>-4447716.946776518</v>
+        <v>-4607293.386299999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>22.9</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2476,30 +2382,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="D55" t="n">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="E55" t="n">
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="G55" t="n">
-        <v>-4447356.946776518</v>
+        <v>-4601293.386299999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>22.8</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2516,30 +2424,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="C56" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="D56" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="E56" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="F56" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="n">
-        <v>-4454856.946776518</v>
+        <v>-4601293.386299999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2556,30 +2466,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="C57" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="D57" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="E57" t="n">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>3989.0517</v>
       </c>
       <c r="G57" t="n">
-        <v>-4454846.946776518</v>
+        <v>-4597304.3346</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2596,30 +2508,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="C58" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="D58" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="E58" t="n">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="F58" t="n">
-        <v>2169.3749</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="n">
-        <v>-4454846.946776518</v>
+        <v>-4597304.3346</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2636,30 +2550,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.5</v>
+        <v>23.2</v>
       </c>
       <c r="C59" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="D59" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="E59" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F59" t="n">
-        <v>139699.5883</v>
+        <v>6733.8505</v>
       </c>
       <c r="G59" t="n">
-        <v>-4594546.535076518</v>
+        <v>-4597304.3346</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2676,30 +2592,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="C60" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="D60" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="E60" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="F60" t="n">
-        <v>26842.1049</v>
+        <v>5100</v>
       </c>
       <c r="G60" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4592204.3346</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2716,22 +2634,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="C61" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="D61" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="E61" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="F61" t="n">
-        <v>3157.8951</v>
+        <v>400</v>
       </c>
       <c r="G61" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4591804.3346</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2756,22 +2674,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="C62" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="D62" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="E62" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="F62" t="n">
-        <v>3359.0904</v>
+        <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4591804.3346</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2796,22 +2714,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="C63" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="D63" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="E63" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="F63" t="n">
-        <v>3349.0904</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>-4567704.430176518</v>
+        <v>-4593804.3346</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2836,22 +2754,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="C64" t="n">
-        <v>24.9</v>
+        <v>23.3</v>
       </c>
       <c r="D64" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="E64" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="F64" t="n">
-        <v>123716.5777</v>
+        <v>45454.4869</v>
       </c>
       <c r="G64" t="n">
-        <v>-4443987.852476518</v>
+        <v>-4593804.3346</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2876,22 +2794,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="E65" t="n">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="F65" t="n">
-        <v>657.9941</v>
+        <v>10211</v>
       </c>
       <c r="G65" t="n">
-        <v>-4443329.858376518</v>
+        <v>-4583593.3346</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2916,30 +2834,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="C66" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="D66" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="E66" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="F66" t="n">
-        <v>3999.4</v>
+        <v>67356.36749999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-4447329.258376518</v>
+        <v>-4516236.9671</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>23.4</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2956,30 +2876,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="E67" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F67" t="n">
-        <v>4604.52</v>
+        <v>2000</v>
       </c>
       <c r="G67" t="n">
-        <v>-4442724.738376519</v>
+        <v>-4516236.9671</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2996,30 +2918,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D68" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="E68" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F68" t="n">
-        <v>54456.9361</v>
+        <v>5775</v>
       </c>
       <c r="G68" t="n">
-        <v>-4442724.738376519</v>
+        <v>-4516236.9671</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -3036,22 +2960,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="D69" t="n">
-        <v>25.1</v>
+        <v>23.6</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F69" t="n">
-        <v>135995.4103</v>
+        <v>10000</v>
       </c>
       <c r="G69" t="n">
-        <v>-4442724.738376519</v>
+        <v>-4506236.9671</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3076,22 +3000,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="C70" t="n">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
       <c r="D70" t="n">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="F70" t="n">
-        <v>104990.9148</v>
+        <v>40000.007</v>
       </c>
       <c r="G70" t="n">
-        <v>-4337733.823576518</v>
+        <v>-4506236.9671</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3116,22 +3040,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
       <c r="C71" t="n">
-        <v>25.2</v>
+        <v>23.9</v>
       </c>
       <c r="D71" t="n">
-        <v>25.3</v>
+        <v>23.9</v>
       </c>
       <c r="E71" t="n">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
       <c r="F71" t="n">
-        <v>42848.0512</v>
+        <v>6030</v>
       </c>
       <c r="G71" t="n">
-        <v>-4337733.823576518</v>
+        <v>-4500206.9671</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3156,22 +3080,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.3</v>
+        <v>23.9</v>
       </c>
       <c r="C72" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="D72" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="F72" t="n">
-        <v>36921.1524</v>
+        <v>18000</v>
       </c>
       <c r="G72" t="n">
-        <v>-4337733.823576518</v>
+        <v>-4482206.9671</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3196,22 +3120,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="C73" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="D73" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="E73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F73" t="n">
-        <v>16962.0159</v>
+        <v>14000</v>
       </c>
       <c r="G73" t="n">
-        <v>-4320771.807676518</v>
+        <v>-4482206.9671</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3236,22 +3160,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="C74" t="n">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="D74" t="n">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="E74" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="F74" t="n">
-        <v>26869.7888</v>
+        <v>36717.10242348178</v>
       </c>
       <c r="G74" t="n">
-        <v>-4293902.018876518</v>
+        <v>-4445489.864676518</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3276,22 +3200,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="C75" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="D75" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="E75" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="F75" t="n">
-        <v>17611.0118</v>
+        <v>4538.3805</v>
       </c>
       <c r="G75" t="n">
-        <v>-4311513.030676519</v>
+        <v>-4450028.245176518</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3316,37 +3240,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="C76" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="D76" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="E76" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="F76" t="n">
-        <v>116629.8918</v>
+        <v>18000</v>
       </c>
       <c r="G76" t="n">
-        <v>-4311513.030676519</v>
+        <v>-4432028.245176518</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
       <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -3354,32 +3280,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="C77" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="D77" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="E77" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="F77" t="n">
-        <v>17510</v>
+        <v>48000.0104</v>
       </c>
       <c r="G77" t="n">
-        <v>-4329023.030676519</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3390,32 +3320,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="C78" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="D78" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="E78" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="F78" t="n">
-        <v>8020</v>
+        <v>4000</v>
       </c>
       <c r="G78" t="n">
-        <v>-4321003.030676519</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3426,32 +3360,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="C79" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="D79" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="E79" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="F79" t="n">
-        <v>16000.1581</v>
+        <v>14650.8064</v>
       </c>
       <c r="G79" t="n">
-        <v>-4321003.030676519</v>
+        <v>-4384028.234776518</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3400,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="C80" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="D80" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="E80" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="F80" t="n">
-        <v>9742.162899999999</v>
+        <v>9179.275600000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-4330745.193576518</v>
+        <v>-4393207.510376519</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3487,7 +3425,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3498,32 +3440,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="C81" t="n">
-        <v>25.2</v>
+        <v>23.8</v>
       </c>
       <c r="D81" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E81" t="n">
-        <v>25.2</v>
+        <v>23.8</v>
       </c>
       <c r="F81" t="n">
-        <v>9179.2063</v>
+        <v>19132.4567</v>
       </c>
       <c r="G81" t="n">
-        <v>-4321565.987276519</v>
+        <v>-4412339.967076519</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3534,32 +3480,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="C82" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="D82" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="E82" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="F82" t="n">
-        <v>4000</v>
+        <v>5163.3425</v>
       </c>
       <c r="G82" t="n">
-        <v>-4325565.987276519</v>
+        <v>-4407176.624576518</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3570,32 +3520,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="C83" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="D83" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="E83" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>11372.5069</v>
       </c>
       <c r="G83" t="n">
-        <v>-4325565.987276519</v>
+        <v>-4418549.131476519</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3606,32 +3560,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="C84" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="D84" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E84" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="F84" t="n">
-        <v>19371.4743</v>
+        <v>16552.4399</v>
       </c>
       <c r="G84" t="n">
-        <v>-4306194.512976519</v>
+        <v>-4401996.691576519</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3642,32 +3600,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="C85" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="D85" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E85" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F85" t="n">
-        <v>11058.14</v>
+        <v>28975</v>
       </c>
       <c r="G85" t="n">
-        <v>-4317252.652976518</v>
+        <v>-4401996.691576519</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3678,22 +3640,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>25.2</v>
+        <v>23.1</v>
       </c>
       <c r="D86" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="E86" t="n">
-        <v>25</v>
+        <v>23.1</v>
       </c>
       <c r="F86" t="n">
-        <v>11010</v>
+        <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>-4306242.652976518</v>
+        <v>-4411996.691576519</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3703,10 +3665,12 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3714,28 +3678,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="D87" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="E87" t="n">
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="F87" t="n">
-        <v>19763.9325</v>
+        <v>14615.598</v>
       </c>
       <c r="G87" t="n">
-        <v>-4326006.585476519</v>
+        <v>-4397381.093576519</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3750,28 +3714,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F88" t="n">
-        <v>43633.0025</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="n">
-        <v>-4326006.585476519</v>
+        <v>-4399381.093576519</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3786,28 +3750,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="C89" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D89" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="E89" t="n">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="F89" t="n">
-        <v>9714.8575</v>
+        <v>14289.1794</v>
       </c>
       <c r="G89" t="n">
-        <v>-4335721.442976519</v>
+        <v>-4385091.914176519</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3822,28 +3786,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="C90" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="D90" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E90" t="n">
-        <v>24.8</v>
+        <v>24.2</v>
       </c>
       <c r="F90" t="n">
-        <v>27985.6225</v>
+        <v>9784.569100000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-4363707.065476518</v>
+        <v>-4394876.483276519</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3858,22 +3822,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C91" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="D91" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="E91" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="F91" t="n">
-        <v>46685</v>
+        <v>8326.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-4317022.065476518</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3894,28 +3858,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="D92" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="E92" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="F92" t="n">
-        <v>10010</v>
+        <v>4475</v>
       </c>
       <c r="G92" t="n">
-        <v>-4327032.065476518</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3930,28 +3894,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="C93" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="D93" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="E93" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="F93" t="n">
-        <v>10212.5394</v>
+        <v>18183.407</v>
       </c>
       <c r="G93" t="n">
-        <v>-4316819.526076518</v>
+        <v>-4403202.663276519</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3966,28 +3930,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25</v>
+        <v>23.8</v>
       </c>
       <c r="C94" t="n">
-        <v>25</v>
+        <v>23.8</v>
       </c>
       <c r="D94" t="n">
-        <v>25</v>
+        <v>23.8</v>
       </c>
       <c r="E94" t="n">
-        <v>25</v>
+        <v>23.8</v>
       </c>
       <c r="F94" t="n">
-        <v>50000</v>
+        <v>4000</v>
       </c>
       <c r="G94" t="n">
-        <v>-4366819.526076518</v>
+        <v>-4407202.663276519</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4002,28 +3966,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="C95" t="n">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="D95" t="n">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="E95" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="F95" t="n">
-        <v>130040</v>
+        <v>17031</v>
       </c>
       <c r="G95" t="n">
-        <v>-4236779.526076518</v>
+        <v>-4407202.663276519</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4038,28 +4002,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="C96" t="n">
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="D96" t="n">
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="E96" t="n">
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="F96" t="n">
-        <v>37914.1</v>
+        <v>802</v>
       </c>
       <c r="G96" t="n">
-        <v>-4274693.626076518</v>
+        <v>-4408004.663276519</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4074,28 +4038,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="C97" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D97" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="E97" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F97" t="n">
-        <v>9079.030000000001</v>
+        <v>22847.457</v>
       </c>
       <c r="G97" t="n">
-        <v>-4274693.626076518</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4110,28 +4074,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="C98" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="D98" t="n">
-        <v>25.1</v>
+        <v>23.6</v>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F98" t="n">
-        <v>39163.3367</v>
+        <v>17269</v>
       </c>
       <c r="G98" t="n">
-        <v>-4235530.289376518</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4146,28 +4110,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D99" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="E99" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F99" t="n">
-        <v>9085</v>
+        <v>14773</v>
       </c>
       <c r="G99" t="n">
-        <v>-4244615.289376518</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4182,28 +4146,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="C100" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="D100" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="E100" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="F100" t="n">
-        <v>5801.2749</v>
+        <v>2837.6099</v>
       </c>
       <c r="G100" t="n">
-        <v>-4250416.564276517</v>
+        <v>-4430852.120276519</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4218,28 +4182,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.9</v>
+        <v>23.6</v>
       </c>
       <c r="C101" t="n">
-        <v>24.9</v>
+        <v>23.6</v>
       </c>
       <c r="D101" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="E101" t="n">
-        <v>24.9</v>
+        <v>23.6</v>
       </c>
       <c r="F101" t="n">
-        <v>43188.2403</v>
+        <v>1918.9981</v>
       </c>
       <c r="G101" t="n">
-        <v>-4250416.564276517</v>
+        <v>-4428933.122176519</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4254,28 +4218,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.9</v>
+        <v>23.6</v>
       </c>
       <c r="C102" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="D102" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="E102" t="n">
-        <v>24.9</v>
+        <v>23.6</v>
       </c>
       <c r="F102" t="n">
-        <v>24469.1104</v>
+        <v>6613</v>
       </c>
       <c r="G102" t="n">
-        <v>-4225947.453876518</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4290,28 +4254,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="C103" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="D103" t="n">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="E103" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="F103" t="n">
-        <v>16768.1373</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>-4242715.591176517</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4326,28 +4290,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C104" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="D104" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="E104" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>5651.4303</v>
       </c>
       <c r="G104" t="n">
-        <v>-4242715.591176517</v>
+        <v>-4422320.122176519</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4362,28 +4326,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="C105" t="n">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="D105" t="n">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="E105" t="n">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="F105" t="n">
-        <v>9665.7107</v>
+        <v>847.457</v>
       </c>
       <c r="G105" t="n">
-        <v>-4233049.880476518</v>
+        <v>-4421472.665176518</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4398,28 +4362,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="C106" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D106" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="E106" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F106" t="n">
-        <v>62885.2292</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-4295935.109676518</v>
+        <v>-4421462.665176518</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4434,28 +4398,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="C107" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="D107" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="E107" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="F107" t="n">
         <v>7500</v>
       </c>
       <c r="G107" t="n">
-        <v>-4288435.109676518</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4470,28 +4434,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="C108" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="D108" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="E108" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="F108" t="n">
-        <v>6173.7096</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-4288435.109676518</v>
+        <v>-4428952.665176518</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4506,22 +4470,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C109" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D109" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="E109" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F109" t="n">
-        <v>28777.4095</v>
+        <v>4000</v>
       </c>
       <c r="G109" t="n">
-        <v>-4317212.519176518</v>
+        <v>-4428952.665176518</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4542,28 +4506,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="C110" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D110" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="E110" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F110" t="n">
-        <v>150758.6156</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-4467971.134776518</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4578,28 +4542,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="C111" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D111" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="E111" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F111" t="n">
-        <v>39497.3681</v>
+        <v>7500</v>
       </c>
       <c r="G111" t="n">
-        <v>-4467971.134776518</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4614,28 +4578,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C112" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D112" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E112" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F112" t="n">
-        <v>7406.4825</v>
+        <v>4675.8436</v>
       </c>
       <c r="G112" t="n">
-        <v>-4475377.617276518</v>
+        <v>-4428962.665176518</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4650,28 +4614,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C113" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D113" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="E113" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F113" t="n">
-        <v>8508</v>
+        <v>1488.2416</v>
       </c>
       <c r="G113" t="n">
-        <v>-4483885.617276518</v>
+        <v>-4427474.423576518</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4686,22 +4650,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="C114" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D114" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="E114" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F114" t="n">
-        <v>17629.1769</v>
+        <v>7236.0816</v>
       </c>
       <c r="G114" t="n">
-        <v>-4483885.617276518</v>
+        <v>-4427474.423576518</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4722,28 +4686,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="C115" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D115" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E115" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="F115" t="n">
-        <v>1956.8876</v>
+        <v>11678.6078</v>
       </c>
       <c r="G115" t="n">
-        <v>-4483885.617276518</v>
+        <v>-4415795.815776518</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4758,22 +4722,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="C116" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D116" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="E116" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="F116" t="n">
-        <v>4202.9487</v>
+        <v>11379.1093</v>
       </c>
       <c r="G116" t="n">
-        <v>-4483885.617276518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4794,28 +4758,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="C117" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D117" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="E117" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="F117" t="n">
-        <v>17037.7371</v>
+        <v>8799.3927</v>
       </c>
       <c r="G117" t="n">
-        <v>-4483885.617276518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4830,28 +4794,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="C118" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D118" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="E118" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="F118" t="n">
-        <v>7500</v>
+        <v>21195.9793</v>
       </c>
       <c r="G118" t="n">
-        <v>-4483885.617276518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4866,28 +4830,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="C119" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="D119" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="E119" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="F119" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G119" t="n">
-        <v>-4508885.617276518</v>
+        <v>-4404416.706476518</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4902,28 +4866,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="C120" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D120" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E120" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="F120" t="n">
-        <v>3335.1028</v>
+        <v>12000</v>
       </c>
       <c r="G120" t="n">
-        <v>-4505550.514476517</v>
+        <v>-4416416.706476518</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4933,6 +4897,2562 @@
       </c>
       <c r="N120" t="inlineStr"/>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-4416416.706476518</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-4416416.706476518</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>41727.2403</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4458143.946776518</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10427</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4447716.946776518</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>37266</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4447716.946776518</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>360</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-4447356.946776518</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4454856.946776518</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-4454846.946776518</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2169.3749</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4454846.946776518</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>139699.5883</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4594546.535076518</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>26842.1049</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4567704.430176518</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3157.8951</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4567704.430176518</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3359.0904</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4567704.430176518</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3349.0904</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4567704.430176518</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>123716.5777</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4443987.852476518</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>25</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25</v>
+      </c>
+      <c r="D136" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" t="n">
+        <v>25</v>
+      </c>
+      <c r="F136" t="n">
+        <v>657.9941</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4443329.858376518</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3999.4</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4447329.258376518</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>25</v>
+      </c>
+      <c r="C138" t="n">
+        <v>25</v>
+      </c>
+      <c r="D138" t="n">
+        <v>25</v>
+      </c>
+      <c r="E138" t="n">
+        <v>25</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4604.52</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4442724.738376519</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>25</v>
+      </c>
+      <c r="C139" t="n">
+        <v>25</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>25</v>
+      </c>
+      <c r="F139" t="n">
+        <v>54456.9361</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4442724.738376519</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>25</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>25</v>
+      </c>
+      <c r="F140" t="n">
+        <v>135995.4103</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4442724.738376519</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25</v>
+      </c>
+      <c r="C141" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25</v>
+      </c>
+      <c r="F141" t="n">
+        <v>104990.9148</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4337733.823576518</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>42848.0512</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4337733.823576518</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>25</v>
+      </c>
+      <c r="F143" t="n">
+        <v>36921.1524</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4337733.823576518</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>25</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16962.0159</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4320771.807676518</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>26869.7888</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4293902.018876518</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17611.0118</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4311513.030676519</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>116629.8918</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4311513.030676519</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17510</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4329023.030676519</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8020</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4321003.030676519</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>16000.1581</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4321003.030676519</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9742.162899999999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4330745.193576518</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9179.2063</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4321565.987276519</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4325565.987276519</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4325565.987276519</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>19371.4743</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4306194.512976519</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11058.14</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4317252.652976518</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>25</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11010</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4306242.652976518</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>25</v>
+      </c>
+      <c r="C158" t="n">
+        <v>25</v>
+      </c>
+      <c r="D158" t="n">
+        <v>25</v>
+      </c>
+      <c r="E158" t="n">
+        <v>25</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19763.9325</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4326006.585476519</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>25</v>
+      </c>
+      <c r="C159" t="n">
+        <v>25</v>
+      </c>
+      <c r="D159" t="n">
+        <v>25</v>
+      </c>
+      <c r="E159" t="n">
+        <v>25</v>
+      </c>
+      <c r="F159" t="n">
+        <v>43633.0025</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4326006.585476519</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9714.8575</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4335721.442976519</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25</v>
+      </c>
+      <c r="C161" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>25</v>
+      </c>
+      <c r="E161" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>27985.6225</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4363707.065476518</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46685</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4317022.065476518</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10010</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4327032.065476518</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10212.5394</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4316819.526076518</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25</v>
+      </c>
+      <c r="D165" t="n">
+        <v>25</v>
+      </c>
+      <c r="E165" t="n">
+        <v>25</v>
+      </c>
+      <c r="F165" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4366819.526076518</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F166" t="n">
+        <v>130040</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4236779.526076518</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>25</v>
+      </c>
+      <c r="C167" t="n">
+        <v>25</v>
+      </c>
+      <c r="D167" t="n">
+        <v>25</v>
+      </c>
+      <c r="E167" t="n">
+        <v>25</v>
+      </c>
+      <c r="F167" t="n">
+        <v>37914.1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-4274693.626076518</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>25</v>
+      </c>
+      <c r="C168" t="n">
+        <v>25</v>
+      </c>
+      <c r="D168" t="n">
+        <v>25</v>
+      </c>
+      <c r="E168" t="n">
+        <v>25</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9079.030000000001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4274693.626076518</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>25</v>
+      </c>
+      <c r="C169" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>25</v>
+      </c>
+      <c r="F169" t="n">
+        <v>39163.3367</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-4235530.289376518</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>25</v>
+      </c>
+      <c r="D170" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>25</v>
+      </c>
+      <c r="F170" t="n">
+        <v>9085</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-4244615.289376518</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5801.2749</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4250416.564276517</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>25</v>
+      </c>
+      <c r="E172" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>43188.2403</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4250416.564276517</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>25</v>
+      </c>
+      <c r="D173" t="n">
+        <v>25</v>
+      </c>
+      <c r="E173" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>24469.1104</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4225947.453876518</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D174" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16768.1373</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-4242715.591176517</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D175" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4242715.591176517</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>9665.7107</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-4233049.880476518</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>62885.2292</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-4295935.109676518</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-4288435.109676518</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C179" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6173.7096</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-4288435.109676518</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>28777.4095</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-4317212.519176518</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>150758.6156</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-4467971.134776518</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>39497.3681</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4467971.134776518</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>7406.4825</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4475377.617276518</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8508</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>17629.1769</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D186" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1956.8876</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4202.9487</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E188" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>17037.7371</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-4483885.617276518</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-4508885.617276518</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3335.1028</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-4505550.514476517</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-59804.7687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-43372.2312</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,19 @@
         <v>-100417.2149</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +884,23 @@
         <v>-100417.2149</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +927,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>23</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +964,23 @@
         <v>-100417.2149</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1005,23 @@
         <v>-164570.2149</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1046,23 @@
         <v>-145904.2149</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>22.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>23</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1089,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>23</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1126,23 @@
         <v>-152652.7941</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>22.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1167,23 @@
         <v>-152652.7941</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1210,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>23</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1249,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>23</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1286,23 @@
         <v>-155178.0471</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1327,23 @@
         <v>-155178.0471</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J26" t="n">
+        <v>23</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1368,23 @@
         <v>-155178.0471</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J27" t="n">
+        <v>23</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1409,23 @@
         <v>-155178.0471</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1452,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>23</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1491,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>23</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1530,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>23</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1569,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1608,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>23</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1647,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>23</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1686,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>23</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1725,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>23</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1764,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>23</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1803,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>23</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1842,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>23</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1881,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>23</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1920,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>23</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1959,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>23</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1998,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>23</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +2037,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>23</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2076,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>23</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2115,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>23</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2152,23 @@
         <v>-4653077.631999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>23.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>23</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2193,23 @@
         <v>-4586463.949699999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>22.8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>23</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,24 +2234,23 @@
         <v>-4565852.949699999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J49" t="n">
         <v>23</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2190,24 +2275,21 @@
         <v>-4565422.949699999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2232,24 +2314,21 @@
         <v>-4570422.949699999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,24 +2353,21 @@
         <v>-4562922.949699999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2316,24 +2392,21 @@
         <v>-4567741.455599999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2358,24 +2431,21 @@
         <v>-4607293.386299999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2400,24 +2470,21 @@
         <v>-4601293.386299999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2442,24 +2509,23 @@
         <v>-4601293.386299999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="J56" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2484,24 +2550,21 @@
         <v>-4597304.3346</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2526,24 +2589,21 @@
         <v>-4597304.3346</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2568,24 +2628,21 @@
         <v>-4597304.3346</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2610,24 +2667,21 @@
         <v>-4592204.3346</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2652,22 +2706,23 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+        <v>23.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>23</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2692,22 +2747,23 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+        <v>23.4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>23</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2732,22 +2788,23 @@
         <v>-4593804.3346</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+        <v>23.4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>23</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2772,22 +2829,23 @@
         <v>-4593804.3346</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+        <v>23.3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>23</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2812,22 +2870,23 @@
         <v>-4583593.3346</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+        <v>23.3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>23</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2852,24 +2911,23 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="J66" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2894,24 +2952,21 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2936,24 +2991,23 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J68" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2980,20 +3034,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>23</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3020,20 +3073,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>23</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3060,20 +3112,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>23</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3100,20 +3151,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>23</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3140,20 +3190,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>23</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3180,20 +3229,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>23</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3220,20 +3268,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>23</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3260,20 +3307,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>23</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3300,20 +3346,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>23</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3340,20 +3385,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>23</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3380,20 +3424,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>23</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3420,20 +3463,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>23</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3460,20 +3502,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>23</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3500,20 +3541,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>23</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3540,20 +3580,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>23</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3580,20 +3619,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>23</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3618,22 +3656,23 @@
         <v>-4401996.691576519</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>23</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.073260869565217</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>1.030837004405286</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3658,20 +3697,15 @@
         <v>-4411996.691576519</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L86" t="n">
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3696,18 +3730,15 @@
         <v>-4397381.093576519</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3732,18 +3763,15 @@
         <v>-4399381.093576519</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3768,18 +3796,15 @@
         <v>-4385091.914176519</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3804,18 +3829,15 @@
         <v>-4394876.483276519</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3840,18 +3862,15 @@
         <v>-4403202.663276519</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3878,16 +3897,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3912,18 +3928,15 @@
         <v>-4403202.663276519</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3948,18 +3961,15 @@
         <v>-4407202.663276519</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3986,16 +3996,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4022,16 +4029,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4058,16 +4062,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4094,16 +4095,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4130,16 +4128,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4166,16 +4161,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4202,16 +4194,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4238,16 +4227,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4274,16 +4260,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4310,16 +4293,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4346,16 +4326,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4380,18 +4357,15 @@
         <v>-4421462.665176518</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4416,18 +4390,15 @@
         <v>-4428962.665176518</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4452,18 +4423,15 @@
         <v>-4428952.665176518</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4488,18 +4456,15 @@
         <v>-4428952.665176518</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4524,18 +4489,15 @@
         <v>-4428962.665176518</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4562,16 +4524,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4598,16 +4557,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4634,16 +4590,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4670,16 +4623,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4706,16 +4656,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4742,16 +4689,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4778,16 +4722,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4814,16 +4755,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4850,16 +4788,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4886,16 +4821,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4922,16 +4854,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4956,18 +4885,15 @@
         <v>-4416416.706476518</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4992,18 +4918,15 @@
         <v>-4458143.946776518</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5028,18 +4951,15 @@
         <v>-4447716.946776518</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5064,18 +4984,15 @@
         <v>-4447716.946776518</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5102,16 +5019,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5138,16 +5052,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5174,16 +5085,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5210,16 +5118,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5246,16 +5151,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5282,16 +5184,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5318,16 +5217,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5354,16 +5250,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5390,16 +5283,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5426,16 +5316,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5462,16 +5349,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5498,16 +5382,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5534,16 +5415,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5570,16 +5448,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5606,16 +5481,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5642,16 +5514,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5678,16 +5547,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5714,16 +5580,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5750,16 +5613,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5786,16 +5646,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5820,18 +5677,15 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5858,16 +5712,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5894,16 +5745,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5930,16 +5778,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5964,18 +5809,15 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6000,18 +5842,15 @@
         <v>-4330745.193576518</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6036,18 +5875,15 @@
         <v>-4321565.987276519</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6072,18 +5908,15 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6108,18 +5941,15 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6144,18 +5974,15 @@
         <v>-4306194.512976519</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6182,16 +6009,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6218,16 +6042,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6254,16 +6075,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6290,16 +6108,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6326,16 +6141,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6362,16 +6174,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6398,16 +6207,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6434,16 +6240,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6470,16 +6273,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6506,16 +6306,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6542,16 +6339,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6578,16 +6372,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6614,16 +6405,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6650,16 +6438,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6686,16 +6471,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6722,16 +6504,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6758,16 +6537,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6794,16 +6570,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6830,16 +6603,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6866,16 +6636,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6902,16 +6669,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6938,16 +6702,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6974,16 +6735,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7010,16 +6768,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7046,16 +6801,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7082,16 +6834,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7118,16 +6867,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7154,16 +6900,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7190,16 +6933,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7226,16 +6966,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7262,16 +6999,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7298,16 +7032,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7334,16 +7065,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7370,16 +7098,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7406,16 +7131,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7442,18 +7164,15 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-59804.7687</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-52304.7687</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-52841.4387</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-68134.8729</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-43372.2312</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-43372.2312</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-108752.2149</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -849,12 +849,8 @@
       <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>23</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -886,17 +882,9 @@
       <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>23</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -928,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>23</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -966,17 +948,9 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>23</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1007,17 +981,9 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>23</v>
-      </c>
-      <c r="J18" t="n">
-        <v>23</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +1012,11 @@
         <v>-145904.2149</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>23</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1090,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>23</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1126,19 +1078,11 @@
         <v>-152652.7941</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>23</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1167,19 +1111,11 @@
         <v>-152652.7941</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23</v>
-      </c>
-      <c r="J22" t="n">
-        <v>23</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>23</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1250,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>23</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1286,19 +1210,11 @@
         <v>-155178.0471</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>23</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1327,19 +1243,11 @@
         <v>-155178.0471</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>23</v>
-      </c>
-      <c r="J26" t="n">
-        <v>23</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1368,19 +1276,11 @@
         <v>-155178.0471</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>23</v>
-      </c>
-      <c r="J27" t="n">
-        <v>23</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1409,19 +1309,11 @@
         <v>-155178.0471</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23</v>
-      </c>
-      <c r="J28" t="n">
-        <v>23</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1453,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>23</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1492,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>23</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1531,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>23</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1570,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>23</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1609,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>23</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1648,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>23</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1687,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>23</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1726,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>23</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1765,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>23</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1804,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>23</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1843,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>23</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1882,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>23</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>23</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1960,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>23</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1999,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>23</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2038,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>23</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2077,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>23</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2116,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>23</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2152,19 +1936,11 @@
         <v>-4653077.631999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>23</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2193,19 +1969,11 @@
         <v>-4586463.949699999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>23</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2234,19 +2002,11 @@
         <v>-4565852.949699999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>23</v>
-      </c>
-      <c r="J49" t="n">
-        <v>23</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2278,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>23</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2317,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>23</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2356,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>23</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2395,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>23</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2434,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>23</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2473,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>23</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2509,19 +2233,11 @@
         <v>-4601293.386299999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>23</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2553,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>23</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2592,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>23</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2631,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>23</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2670,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>23</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2706,19 +2398,11 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>23</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2747,19 +2431,11 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>23</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2788,19 +2464,11 @@
         <v>-4593804.3346</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>23</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2829,19 +2497,11 @@
         <v>-4593804.3346</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>23</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2870,19 +2530,11 @@
         <v>-4583593.3346</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>23</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2911,19 +2563,11 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>23</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2952,17 +2596,15 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J67" t="n">
-        <v>23</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>23.5</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2991,17 +2633,15 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -3036,11 +2676,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -3075,7 +2715,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3114,7 +2754,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3153,7 +2793,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3192,7 +2832,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3231,7 +2871,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3270,7 +2910,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3309,7 +2949,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3348,7 +2988,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3387,7 +3027,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3426,7 +3066,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3465,7 +3105,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3504,7 +3144,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3543,7 +3183,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3582,7 +3222,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3621,7 +3261,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3656,23 +3296,21 @@
         <v>-4401996.691576519</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.073260869565217</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.030837004405286</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3697,11 +3335,17 @@
         <v>-4411996.691576519</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3730,11 +3374,17 @@
         <v>-4397381.093576519</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3413,17 @@
         <v>-4399381.093576519</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3452,17 @@
         <v>-4385091.914176519</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3829,11 +3491,17 @@
         <v>-4394876.483276519</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3862,11 +3530,17 @@
         <v>-4403202.663276519</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3898,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3928,11 +3608,17 @@
         <v>-4403202.663276519</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +3647,17 @@
         <v>-4407202.663276519</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3997,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4027,11 +3725,19 @@
         <v>-4408004.663276519</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J96" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4060,11 +3766,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +3807,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +3848,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +3889,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +3930,19 @@
         <v>-4428933.122176519</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +3971,19 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4258,11 +4012,19 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4294,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4327,8 +4095,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4357,11 +4131,17 @@
         <v>-4421462.665176518</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4390,11 +4170,17 @@
         <v>-4428962.665176518</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4209,17 @@
         <v>-4428952.665176518</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +4248,17 @@
         <v>-4428952.665176518</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4287,17 @@
         <v>-4428962.665176518</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4525,8 +4329,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4558,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4591,8 +4407,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +4446,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4690,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4723,8 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4756,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4789,8 +4641,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4822,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +4719,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +4755,17 @@
         <v>-4416416.706476518</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4918,11 +4794,17 @@
         <v>-4458143.946776518</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4951,11 +4833,17 @@
         <v>-4447716.946776518</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +4872,17 @@
         <v>-4447716.946776518</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5020,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5119,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5152,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5251,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5284,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5317,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5350,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5383,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5416,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5449,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5482,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5515,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5548,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5581,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5614,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5677,11 +5691,17 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +5733,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5746,8 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +5811,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +5847,17 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +5886,17 @@
         <v>-4330745.193576518</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5925,17 @@
         <v>-4321565.987276519</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5964,17 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5941,11 +6003,17 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +6042,17 @@
         <v>-4306194.512976519</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6010,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6043,8 +6123,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6076,8 +6162,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +6201,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6142,8 +6240,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6175,8 +6279,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6208,8 +6318,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6241,8 +6357,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6274,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +6435,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6340,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +6513,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6406,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6439,8 +6591,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6472,8 +6630,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6505,8 +6669,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6538,8 +6708,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6571,8 +6747,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +6786,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +6825,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6670,8 +6864,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +6903,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +6942,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +6981,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6802,8 +7020,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6835,8 +7059,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6868,8 +7098,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6901,8 +7137,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7176,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7215,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7000,8 +7254,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7033,8 +7293,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7066,8 +7332,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7099,8 +7371,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7132,8 +7410,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7165,14 +7449,20 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-59804.7687</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-52304.7687</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-52841.4387</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-68134.8729</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-43372.2312</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-43372.2312</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-108752.2149</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-100417.2149</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-164570.2149</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -2596,14 +2596,10 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2636,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2675,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2753,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2792,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2828,17 +2794,11 @@
         <v>-4482206.9671</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2867,17 +2827,11 @@
         <v>-4445489.864676518</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2906,17 +2860,11 @@
         <v>-4450028.245176518</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2945,17 +2893,11 @@
         <v>-4432028.245176518</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2984,17 +2926,11 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3023,17 +2959,11 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3260,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3299,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3377,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3416,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3455,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3494,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3572,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3689,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3725,19 +3553,11 @@
         <v>-4408004.663276519</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3766,19 +3586,11 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3807,19 +3619,11 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3848,19 +3652,11 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3889,19 +3685,11 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3930,19 +3718,11 @@
         <v>-4428933.122176519</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3971,19 +3751,11 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4012,19 +3784,11 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4095,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4134,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4173,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4212,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4251,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4290,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4329,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4368,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4407,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4446,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4485,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4524,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4563,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4602,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4641,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4719,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4797,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4836,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4875,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4914,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4953,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4992,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5031,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5070,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5109,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5148,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5187,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5226,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5265,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5304,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5343,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5382,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5460,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5538,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5577,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5616,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5655,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5694,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5733,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5772,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5811,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5850,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5889,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5928,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5967,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6006,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6045,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6084,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6123,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6162,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6201,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6240,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6279,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6318,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6357,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6396,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6435,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6474,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6513,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6552,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6591,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6630,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6669,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6708,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6747,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6786,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6825,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6864,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6903,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6942,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6981,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7020,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7059,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7098,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7137,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7176,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7215,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7254,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7293,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7332,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7371,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7410,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7446,23 +6688,21 @@
         <v>-4505550.514476517</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J191" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>24.2</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -2365,10 +2365,14 @@
         <v>-4592204.3346</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2398,11 +2402,19 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2446,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2596,10 +2614,14 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2632,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2690,19 @@
         <v>-4506236.9671</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2770,19 @@
         <v>-4500206.9671</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2811,19 @@
         <v>-4482206.9671</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2852,17 @@
         <v>-4482206.9671</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2891,17 @@
         <v>-4445489.864676518</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2930,17 @@
         <v>-4450028.245176518</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2969,17 @@
         <v>-4432028.245176518</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3008,17 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3047,17 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3128,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3167,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3206,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3245,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3284,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3323,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,13 +3359,19 @@
         <v>-4411996.691576519</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0.9779787234042554</v>
       </c>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -3256,10 +3398,14 @@
         <v>-4397381.093576519</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3292,8 +3438,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3477,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3454,10 +3612,14 @@
         <v>-4403202.663276519</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>23.9</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3487,11 +3649,19 @@
         <v>-4407202.663276519</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3690,19 @@
         <v>-4407202.663276519</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3731,19 @@
         <v>-4408004.663276519</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J96" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3772,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3813,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3854,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3895,19 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3936,19 @@
         <v>-4428933.122176519</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3977,19 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4018,19 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4059,19 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J104" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4100,19 @@
         <v>-4421472.665176518</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J105" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,13 +4219,19 @@
         <v>-4428952.665176518</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>1.01592050209205</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
@@ -4939,7 +5215,7 @@
         <v>-4442724.738376519</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5248,7 @@
         <v>-4442724.738376519</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5281,7 @@
         <v>-4442724.738376519</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5314,7 @@
         <v>-4337733.823576518</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5347,7 @@
         <v>-4337733.823576518</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5380,7 @@
         <v>-4337733.823576518</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5413,7 @@
         <v>-4320771.807676518</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5446,7 @@
         <v>-4293902.018876518</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5479,7 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5512,7 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5545,7 @@
         <v>-4329023.030676519</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5578,7 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5611,7 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5644,7 @@
         <v>-4330745.193576518</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5710,7 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5743,7 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5809,7 @@
         <v>-4317252.652976518</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5842,7 @@
         <v>-4306242.652976518</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5875,7 @@
         <v>-4326006.585476519</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5830,7 +6106,7 @@
         <v>-4366819.526076518</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6139,7 @@
         <v>-4236779.526076518</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6172,7 @@
         <v>-4274693.626076518</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6205,7 @@
         <v>-4274693.626076518</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6238,7 @@
         <v>-4235530.289376518</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6271,7 @@
         <v>-4244615.289376518</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6304,7 @@
         <v>-4250416.564276517</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6337,7 @@
         <v>-4250416.564276517</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6370,7 @@
         <v>-4225947.453876518</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6403,7 @@
         <v>-4242715.591176517</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6436,7 @@
         <v>-4242715.591176517</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6469,7 @@
         <v>-4233049.880476518</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6502,7 @@
         <v>-4295935.109676518</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6568,7 @@
         <v>-4288435.109676518</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6601,7 @@
         <v>-4317212.519176518</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6490,7 +6766,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6799,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6832,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6865,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6898,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6931,7 @@
         <v>-4508885.617276518</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,14 +6964,10 @@
         <v>-4505550.514476517</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J191" t="n">
-        <v>24.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>

--- a/BackTest/2019-11-01 BackTest OGO.xlsx
+++ b/BackTest/2019-11-01 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4393.106</v>
       </c>
       <c r="G2" t="n">
-        <v>-59804.7687</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>7500</v>
       </c>
       <c r="G3" t="n">
-        <v>-52304.7687</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>536.67</v>
       </c>
       <c r="G4" t="n">
-        <v>-52841.4387</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>15293.4342</v>
       </c>
       <c r="G5" t="n">
-        <v>-68134.8729</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>24762.6417</v>
       </c>
       <c r="G6" t="n">
-        <v>-43372.2312</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>40365.737</v>
       </c>
       <c r="G7" t="n">
-        <v>-43372.2312</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>65379.9837</v>
       </c>
       <c r="G8" t="n">
-        <v>-108752.2149</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>8335</v>
       </c>
       <c r="G9" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>91600.8275</v>
       </c>
       <c r="G11" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>12528.59</v>
       </c>
       <c r="G12" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>27471.417</v>
       </c>
       <c r="G13" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>11719.7</v>
       </c>
       <c r="G14" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>265158.9517</v>
       </c>
       <c r="G15" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3000</v>
       </c>
       <c r="G16" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2000</v>
       </c>
       <c r="G17" t="n">
-        <v>-100417.2149</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>64153</v>
       </c>
       <c r="G18" t="n">
-        <v>-164570.2149</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>18666</v>
       </c>
       <c r="G19" t="n">
-        <v>-145904.2149</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>6758.5792</v>
       </c>
       <c r="G20" t="n">
-        <v>-152662.7941</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-152652.7941</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>110424.4782</v>
       </c>
       <c r="G22" t="n">
-        <v>-152652.7941</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24666.9847</v>
       </c>
       <c r="G23" t="n">
-        <v>-177319.7788</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,19 @@
         <v>4857</v>
       </c>
       <c r="G24" t="n">
-        <v>-172462.7788</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>22.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1137,23 @@
         <v>17284.7317</v>
       </c>
       <c r="G25" t="n">
-        <v>-155178.0471</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>22.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1175,23 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-155178.0471</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="I26" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1213,19 @@
         <v>2000</v>
       </c>
       <c r="G27" t="n">
-        <v>-155178.0471</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1247,23 @@
         <v>10735</v>
       </c>
       <c r="G28" t="n">
-        <v>-155178.0471</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1285,21 @@
         <v>33000</v>
       </c>
       <c r="G29" t="n">
-        <v>-155178.0471</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>23</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1321,15 @@
         <v>4375026</v>
       </c>
       <c r="G30" t="n">
-        <v>-4530204.0471</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1351,15 @@
         <v>39842.4139</v>
       </c>
       <c r="G31" t="n">
-        <v>-4490361.6332</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1381,15 @@
         <v>502.611</v>
       </c>
       <c r="G32" t="n">
-        <v>-4490361.6332</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1411,15 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-4490351.6332</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1441,15 @@
         <v>4000</v>
       </c>
       <c r="G34" t="n">
-        <v>-4494351.6332</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1471,15 @@
         <v>19730.4</v>
       </c>
       <c r="G35" t="n">
-        <v>-4514082.0332</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1501,15 @@
         <v>4055.2968</v>
       </c>
       <c r="G36" t="n">
-        <v>-4514082.0332</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1531,15 @@
         <v>5991.02</v>
       </c>
       <c r="G37" t="n">
-        <v>-4514082.0332</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1561,15 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-4514072.0332</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1591,15 @@
         <v>39551.9307</v>
       </c>
       <c r="G39" t="n">
-        <v>-4514072.0332</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1621,15 @@
         <v>407.06</v>
       </c>
       <c r="G40" t="n">
-        <v>-4514479.0932</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1651,15 @@
         <v>392.35</v>
       </c>
       <c r="G41" t="n">
-        <v>-4514479.0932</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1681,15 @@
         <v>192.95</v>
       </c>
       <c r="G42" t="n">
-        <v>-4514672.0432</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1711,15 @@
         <v>1011</v>
       </c>
       <c r="G43" t="n">
-        <v>-4513661.0432</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1741,15 @@
         <v>59798.5018</v>
       </c>
       <c r="G44" t="n">
-        <v>-4573459.545</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1771,15 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-4573449.545</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1801,15 @@
         <v>58661.5034</v>
       </c>
       <c r="G46" t="n">
-        <v>-4632111.0484</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1831,15 @@
         <v>20966.5836</v>
       </c>
       <c r="G47" t="n">
-        <v>-4653077.631999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1861,15 @@
         <v>66613.6823</v>
       </c>
       <c r="G48" t="n">
-        <v>-4586463.949699999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1891,15 @@
         <v>20611</v>
       </c>
       <c r="G49" t="n">
-        <v>-4565852.949699999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1921,15 @@
         <v>430</v>
       </c>
       <c r="G50" t="n">
-        <v>-4565422.949699999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1951,15 @@
         <v>5000</v>
       </c>
       <c r="G51" t="n">
-        <v>-4570422.949699999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1981,15 @@
         <v>7500</v>
       </c>
       <c r="G52" t="n">
-        <v>-4562922.949699999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2011,15 @@
         <v>4818.5059</v>
       </c>
       <c r="G53" t="n">
-        <v>-4567741.455599999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2041,15 @@
         <v>39551.9307</v>
       </c>
       <c r="G54" t="n">
-        <v>-4607293.386299999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2071,15 @@
         <v>6000</v>
       </c>
       <c r="G55" t="n">
-        <v>-4601293.386299999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2101,15 @@
         <v>4000</v>
       </c>
       <c r="G56" t="n">
-        <v>-4601293.386299999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2131,15 @@
         <v>3989.0517</v>
       </c>
       <c r="G57" t="n">
-        <v>-4597304.3346</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2161,15 @@
         <v>2000</v>
       </c>
       <c r="G58" t="n">
-        <v>-4597304.3346</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2191,15 @@
         <v>6733.8505</v>
       </c>
       <c r="G59" t="n">
-        <v>-4597304.3346</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,22 +2221,15 @@
         <v>5100</v>
       </c>
       <c r="G60" t="n">
-        <v>-4592204.3346</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2399,26 +2251,15 @@
         <v>400</v>
       </c>
       <c r="G61" t="n">
-        <v>-4591804.3346</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2440,24 +2281,15 @@
         <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>-4591804.3346</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2311,15 @@
         <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>-4593804.3346</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2341,15 @@
         <v>45454.4869</v>
       </c>
       <c r="G64" t="n">
-        <v>-4593804.3346</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2371,15 @@
         <v>10211</v>
       </c>
       <c r="G65" t="n">
-        <v>-4583593.3346</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2401,15 @@
         <v>67356.36749999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-4516236.9671</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,22 +2431,15 @@
         <v>2000</v>
       </c>
       <c r="G67" t="n">
-        <v>-4516236.9671</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2648,24 +2461,15 @@
         <v>5775</v>
       </c>
       <c r="G68" t="n">
-        <v>-4516236.9671</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2687,26 +2491,15 @@
         <v>10000</v>
       </c>
       <c r="G69" t="n">
-        <v>-4506236.9671</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2728,24 +2521,15 @@
         <v>40000.007</v>
       </c>
       <c r="G70" t="n">
-        <v>-4506236.9671</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2767,26 +2551,15 @@
         <v>6030</v>
       </c>
       <c r="G71" t="n">
-        <v>-4500206.9671</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2808,26 +2581,15 @@
         <v>18000</v>
       </c>
       <c r="G72" t="n">
-        <v>-4482206.9671</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2849,24 +2611,15 @@
         <v>14000</v>
       </c>
       <c r="G73" t="n">
-        <v>-4482206.9671</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2888,24 +2641,15 @@
         <v>36717.10242348178</v>
       </c>
       <c r="G74" t="n">
-        <v>-4445489.864676518</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2927,24 +2671,15 @@
         <v>4538.3805</v>
       </c>
       <c r="G75" t="n">
-        <v>-4450028.245176518</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2966,24 +2701,15 @@
         <v>18000</v>
       </c>
       <c r="G76" t="n">
-        <v>-4432028.245176518</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3005,24 +2731,15 @@
         <v>48000.0104</v>
       </c>
       <c r="G77" t="n">
-        <v>-4384028.234776518</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3044,24 +2761,15 @@
         <v>4000</v>
       </c>
       <c r="G78" t="n">
-        <v>-4384028.234776518</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3083,24 +2791,15 @@
         <v>14650.8064</v>
       </c>
       <c r="G79" t="n">
-        <v>-4384028.234776518</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3122,24 +2821,15 @@
         <v>9179.275600000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-4393207.510376519</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3161,24 +2851,15 @@
         <v>19132.4567</v>
       </c>
       <c r="G81" t="n">
-        <v>-4412339.967076519</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3200,24 +2881,15 @@
         <v>5163.3425</v>
       </c>
       <c r="G82" t="n">
-        <v>-4407176.624576518</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3239,24 +2911,15 @@
         <v>11372.5069</v>
       </c>
       <c r="G83" t="n">
-        <v>-4418549.131476519</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3278,24 +2941,15 @@
         <v>16552.4399</v>
       </c>
       <c r="G84" t="n">
-        <v>-4401996.691576519</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3317,24 +2971,15 @@
         <v>28975</v>
       </c>
       <c r="G85" t="n">
-        <v>-4401996.691576519</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3356,24 +3001,15 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>-4411996.691576519</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>0.9779787234042554</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3395,22 +3031,15 @@
         <v>14615.598</v>
       </c>
       <c r="G87" t="n">
-        <v>-4397381.093576519</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3432,24 +3061,15 @@
         <v>2000</v>
       </c>
       <c r="G88" t="n">
-        <v>-4399381.093576519</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3471,24 +3091,15 @@
         <v>14289.1794</v>
       </c>
       <c r="G89" t="n">
-        <v>-4385091.914176519</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3510,18 +3121,15 @@
         <v>9784.569100000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-4394876.483276519</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3543,18 +3151,15 @@
         <v>8326.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-4403202.663276519</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3576,18 +3181,15 @@
         <v>4475</v>
       </c>
       <c r="G92" t="n">
-        <v>-4403202.663276519</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3609,22 +3211,15 @@
         <v>18183.407</v>
       </c>
       <c r="G93" t="n">
-        <v>-4403202.663276519</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3646,26 +3241,15 @@
         <v>4000</v>
       </c>
       <c r="G94" t="n">
-        <v>-4407202.663276519</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3687,26 +3271,15 @@
         <v>17031</v>
       </c>
       <c r="G95" t="n">
-        <v>-4407202.663276519</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3728,26 +3301,15 @@
         <v>802</v>
       </c>
       <c r="G96" t="n">
-        <v>-4408004.663276519</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3769,26 +3331,15 @@
         <v>22847.457</v>
       </c>
       <c r="G97" t="n">
-        <v>-4430852.120276519</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3810,26 +3361,15 @@
         <v>17269</v>
       </c>
       <c r="G98" t="n">
-        <v>-4430852.120276519</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3851,26 +3391,15 @@
         <v>14773</v>
       </c>
       <c r="G99" t="n">
-        <v>-4430852.120276519</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,26 +3421,15 @@
         <v>2837.6099</v>
       </c>
       <c r="G100" t="n">
-        <v>-4430852.120276519</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3933,26 +3451,15 @@
         <v>1918.9981</v>
       </c>
       <c r="G101" t="n">
-        <v>-4428933.122176519</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3974,26 +3481,15 @@
         <v>6613</v>
       </c>
       <c r="G102" t="n">
-        <v>-4422320.122176519</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4015,26 +3511,15 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>-4422320.122176519</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4056,26 +3541,15 @@
         <v>5651.4303</v>
       </c>
       <c r="G104" t="n">
-        <v>-4422320.122176519</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J104" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4097,26 +3571,15 @@
         <v>847.457</v>
       </c>
       <c r="G105" t="n">
-        <v>-4421472.665176518</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4138,24 +3601,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-4421462.665176518</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4177,24 +3631,15 @@
         <v>7500</v>
       </c>
       <c r="G107" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4216,24 +3661,15 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-4428952.665176518</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1.01592050209205</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4255,18 +3691,15 @@
         <v>4000</v>
       </c>
       <c r="G109" t="n">
-        <v>-4428952.665176518</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4288,18 +3721,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4321,18 +3751,15 @@
         <v>7500</v>
       </c>
       <c r="G111" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4354,18 +3781,15 @@
         <v>4675.8436</v>
       </c>
       <c r="G112" t="n">
-        <v>-4428962.665176518</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4387,18 +3811,15 @@
         <v>1488.2416</v>
       </c>
       <c r="G113" t="n">
-        <v>-4427474.423576518</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4420,18 +3841,15 @@
         <v>7236.0816</v>
       </c>
       <c r="G114" t="n">
-        <v>-4427474.423576518</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4453,18 +3871,15 @@
         <v>11678.6078</v>
       </c>
       <c r="G115" t="n">
-        <v>-4415795.815776518</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4486,18 +3901,15 @@
         <v>11379.1093</v>
       </c>
       <c r="G116" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4519,18 +3931,15 @@
         <v>8799.3927</v>
       </c>
       <c r="G117" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4552,18 +3961,15 @@
         <v>21195.9793</v>
       </c>
       <c r="G118" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4585,18 +3991,15 @@
         <v>4000</v>
       </c>
       <c r="G119" t="n">
-        <v>-4404416.706476518</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4618,18 +4021,15 @@
         <v>12000</v>
       </c>
       <c r="G120" t="n">
-        <v>-4416416.706476518</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4651,18 +4051,15 @@
         <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>-4416416.706476518</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4684,18 +4081,15 @@
         <v>14000</v>
       </c>
       <c r="G122" t="n">
-        <v>-4416416.706476518</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4717,18 +4111,15 @@
         <v>41727.2403</v>
       </c>
       <c r="G123" t="n">
-        <v>-4458143.946776518</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4750,18 +4141,15 @@
         <v>10427</v>
       </c>
       <c r="G124" t="n">
-        <v>-4447716.946776518</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4783,18 +4171,15 @@
         <v>37266</v>
       </c>
       <c r="G125" t="n">
-        <v>-4447716.946776518</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4816,18 +4201,15 @@
         <v>360</v>
       </c>
       <c r="G126" t="n">
-        <v>-4447356.946776518</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4849,18 +4231,15 @@
         <v>7500</v>
       </c>
       <c r="G127" t="n">
-        <v>-4454856.946776518</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4882,18 +4261,15 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>-4454846.946776518</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4915,18 +4291,15 @@
         <v>2169.3749</v>
       </c>
       <c r="G129" t="n">
-        <v>-4454846.946776518</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4948,18 +4321,15 @@
         <v>139699.5883</v>
       </c>
       <c r="G130" t="n">
-        <v>-4594546.535076518</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4981,18 +4351,15 @@
         <v>26842.1049</v>
       </c>
       <c r="G131" t="n">
-        <v>-4567704.430176518</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5014,18 +4381,15 @@
         <v>3157.8951</v>
       </c>
       <c r="G132" t="n">
-        <v>-4567704.430176518</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5047,18 +4411,15 @@
         <v>3359.0904</v>
       </c>
       <c r="G133" t="n">
-        <v>-4567704.430176518</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5080,18 +4441,15 @@
         <v>3349.0904</v>
       </c>
       <c r="G134" t="n">
-        <v>-4567704.430176518</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5113,18 +4471,15 @@
         <v>123716.5777</v>
       </c>
       <c r="G135" t="n">
-        <v>-4443987.852476518</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5146,18 +4501,15 @@
         <v>657.9941</v>
       </c>
       <c r="G136" t="n">
-        <v>-4443329.858376518</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5179,18 +4531,15 @@
         <v>3999.4</v>
       </c>
       <c r="G137" t="n">
-        <v>-4447329.258376518</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5212,18 +4561,15 @@
         <v>4604.52</v>
       </c>
       <c r="G138" t="n">
-        <v>-4442724.738376519</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5245,18 +4591,15 @@
         <v>54456.9361</v>
       </c>
       <c r="G139" t="n">
-        <v>-4442724.738376519</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5278,18 +4621,15 @@
         <v>135995.4103</v>
       </c>
       <c r="G140" t="n">
-        <v>-4442724.738376519</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5311,18 +4651,15 @@
         <v>104990.9148</v>
       </c>
       <c r="G141" t="n">
-        <v>-4337733.823576518</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5344,18 +4681,15 @@
         <v>42848.0512</v>
       </c>
       <c r="G142" t="n">
-        <v>-4337733.823576518</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5377,18 +4711,15 @@
         <v>36921.1524</v>
       </c>
       <c r="G143" t="n">
-        <v>-4337733.823576518</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5410,18 +4741,15 @@
         <v>16962.0159</v>
       </c>
       <c r="G144" t="n">
-        <v>-4320771.807676518</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5443,18 +4771,15 @@
         <v>26869.7888</v>
       </c>
       <c r="G145" t="n">
-        <v>-4293902.018876518</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5476,18 +4801,15 @@
         <v>17611.0118</v>
       </c>
       <c r="G146" t="n">
-        <v>-4311513.030676519</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5509,18 +4831,15 @@
         <v>116629.8918</v>
       </c>
       <c r="G147" t="n">
-        <v>-4311513.030676519</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5542,18 +4861,15 @@
         <v>17510</v>
       </c>
       <c r="G148" t="n">
-        <v>-4329023.030676519</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5575,18 +4891,15 @@
         <v>8020</v>
       </c>
       <c r="G149" t="n">
-        <v>-4321003.030676519</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5608,18 +4921,15 @@
         <v>16000.1581</v>
       </c>
       <c r="G150" t="n">
-        <v>-4321003.030676519</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5641,18 +4951,15 @@
         <v>9742.162899999999</v>
       </c>
       <c r="G151" t="n">
-        <v>-4330745.193576518</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5674,18 +4981,15 @@
         <v>9179.2063</v>
       </c>
       <c r="G152" t="n">
-        <v>-4321565.987276519</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5707,18 +5011,15 @@
         <v>4000</v>
       </c>
       <c r="G153" t="n">
-        <v>-4325565.987276519</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5740,18 +5041,15 @@
         <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>-4325565.987276519</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5773,18 +5071,15 @@
         <v>19371.4743</v>
       </c>
       <c r="G155" t="n">
-        <v>-4306194.512976519</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5806,18 +5101,15 @@
         <v>11058.14</v>
       </c>
       <c r="G156" t="n">
-        <v>-4317252.652976518</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5839,18 +5131,15 @@
         <v>11010</v>
       </c>
       <c r="G157" t="n">
-        <v>-4306242.652976518</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5872,18 +5161,15 @@
         <v>19763.9325</v>
       </c>
       <c r="G158" t="n">
-        <v>-4326006.585476519</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5905,18 +5191,15 @@
         <v>43633.0025</v>
       </c>
       <c r="G159" t="n">
-        <v>-4326006.585476519</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5938,18 +5221,15 @@
         <v>9714.8575</v>
       </c>
       <c r="G160" t="n">
-        <v>-4335721.442976519</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5971,18 +5251,15 @@
         <v>27985.6225</v>
       </c>
       <c r="G161" t="n">
-        <v>-4363707.065476518</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6004,18 +5281,15 @@
         <v>46685</v>
       </c>
       <c r="G162" t="n">
-        <v>-4317022.065476518</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6037,18 +5311,15 @@
         <v>10010</v>
       </c>
       <c r="G163" t="n">
-        <v>-4327032.065476518</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6070,18 +5341,15 @@
         <v>10212.5394</v>
       </c>
       <c r="G164" t="n">
-        <v>-4316819.526076518</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6103,18 +5371,15 @@
         <v>50000</v>
       </c>
       <c r="G165" t="n">
-        <v>-4366819.526076518</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6136,18 +5401,15 @@
         <v>130040</v>
       </c>
       <c r="G166" t="n">
-        <v>-4236779.526076518</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6169,18 +5431,15 @@
         <v>37914.1</v>
       </c>
       <c r="G167" t="n">
-        <v>-4274693.626076518</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6202,18 +5461,15 @@
         <v>9079.030000000001</v>
       </c>
       <c r="G168" t="n">
-        <v>-4274693.626076518</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6235,18 +5491,15 @@
         <v>39163.3367</v>
       </c>
       <c r="G169" t="n">
-        <v>-4235530.289376518</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6268,18 +5521,15 @@
         <v>9085</v>
       </c>
       <c r="G170" t="n">
-        <v>-4244615.289376518</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6301,18 +5551,15 @@
         <v>5801.2749</v>
       </c>
       <c r="G171" t="n">
-        <v>-4250416.564276517</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6334,18 +5581,15 @@
         <v>43188.2403</v>
       </c>
       <c r="G172" t="n">
-        <v>-4250416.564276517</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6367,18 +5611,15 @@
         <v>24469.1104</v>
       </c>
       <c r="G173" t="n">
-        <v>-4225947.453876518</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6400,18 +5641,15 @@
         <v>16768.1373</v>
       </c>
       <c r="G174" t="n">
-        <v>-4242715.591176517</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6433,18 +5671,15 @@
         <v>2000</v>
       </c>
       <c r="G175" t="n">
-        <v>-4242715.591176517</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6466,18 +5701,15 @@
         <v>9665.7107</v>
       </c>
       <c r="G176" t="n">
-        <v>-4233049.880476518</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6499,18 +5731,15 @@
         <v>62885.2292</v>
       </c>
       <c r="G177" t="n">
-        <v>-4295935.109676518</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6532,18 +5761,15 @@
         <v>7500</v>
       </c>
       <c r="G178" t="n">
-        <v>-4288435.109676518</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6565,18 +5791,15 @@
         <v>6173.7096</v>
       </c>
       <c r="G179" t="n">
-        <v>-4288435.109676518</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6598,18 +5821,15 @@
         <v>28777.4095</v>
       </c>
       <c r="G180" t="n">
-        <v>-4317212.519176518</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6631,18 +5851,15 @@
         <v>150758.6156</v>
       </c>
       <c r="G181" t="n">
-        <v>-4467971.134776518</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6664,18 +5881,15 @@
         <v>39497.3681</v>
       </c>
       <c r="G182" t="n">
-        <v>-4467971.134776518</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6697,18 +5911,15 @@
         <v>7406.4825</v>
       </c>
       <c r="G183" t="n">
-        <v>-4475377.617276518</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6730,18 +5941,15 @@
         <v>8508</v>
       </c>
       <c r="G184" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6763,18 +5971,15 @@
         <v>17629.1769</v>
       </c>
       <c r="G185" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6796,18 +6001,15 @@
         <v>1956.8876</v>
       </c>
       <c r="G186" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6829,18 +6031,15 @@
         <v>4202.9487</v>
       </c>
       <c r="G187" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6862,18 +6061,15 @@
         <v>17037.7371</v>
       </c>
       <c r="G188" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6895,18 +6091,15 @@
         <v>7500</v>
       </c>
       <c r="G189" t="n">
-        <v>-4483885.617276518</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6928,18 +6121,15 @@
         <v>25000</v>
       </c>
       <c r="G190" t="n">
-        <v>-4508885.617276518</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6961,18 +6151,15 @@
         <v>3335.1028</v>
       </c>
       <c r="G191" t="n">
-        <v>-4505550.514476517</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
